--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9D7B42-3DBE-40F4-BBBE-1D334D903F6E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987F3A74-B9D5-4D4F-B621-4C7B3ED53191}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="7" r:id="rId1"/>
     <sheet name="Gantt" sheetId="8" r:id="rId2"/>
+    <sheet name="Gantt Lines" sheetId="9" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Design">Text!$E$4:$E$22</definedName>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
   <si>
     <t>Start</t>
   </si>
@@ -144,9 +145,6 @@
     <t>End:</t>
   </si>
   <si>
-    <t>Start:</t>
-  </si>
-  <si>
     <t>Implement Part 1</t>
   </si>
   <si>
@@ -177,7 +175,61 @@
     <t>Self-contained system within the satellite</t>
   </si>
   <si>
-    <t>V1.1.0</t>
+    <t>Milestones</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>EM Integration</t>
+  </si>
+  <si>
+    <t>FRR</t>
+  </si>
+  <si>
+    <t>MRR</t>
+  </si>
+  <si>
+    <t>ILC</t>
+  </si>
+  <si>
+    <t>FU Day in the Life Test</t>
+  </si>
+  <si>
+    <t>EM Day in the Life Test</t>
+  </si>
+  <si>
+    <t>FU Integration</t>
+  </si>
+  <si>
+    <t>Initial launch capabilities</t>
+  </si>
+  <si>
+    <t>A duration test of the satellite in simulated space environment. Requires: all software done</t>
+  </si>
+  <si>
+    <t>Assembly of all subsystems and components. Requires: all hardware done</t>
+  </si>
+  <si>
+    <t>Assembly of all flight ready subsystems and components</t>
+  </si>
+  <si>
+    <t>A duration test of the flight unit in simulated space environment</t>
+  </si>
+  <si>
+    <t>Review of the flight unit to determine its readiness to fly</t>
+  </si>
+  <si>
+    <t>Review of the mission to determine its readiness to execute</t>
+  </si>
+  <si>
+    <t>V1.1.1</t>
   </si>
 </sst>
 </file>
@@ -368,7 +420,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -554,6 +606,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -561,7 +641,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -570,14 +650,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -593,9 +668,6 @@
     <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -609,9 +681,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -693,12 +762,24 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -720,18 +801,6 @@
     <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -740,6 +809,41 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="5" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1082,7 +1186,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -1124,10 +1228,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>21</c:v>
@@ -1284,7 +1388,7 @@
                   <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56</c:v>
@@ -1299,7 +1403,7 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>49</c:v>
@@ -1323,7 +1427,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>28</c:v>
@@ -1467,13 +1571,13 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>21</c:v>
@@ -1503,10 +1607,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>98</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>28</c:v>
@@ -1647,13 +1751,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>21</c:v>
@@ -1725,6 +1829,524 @@
         <c:axId val="413356223"/>
         <c:axId val="295186255"/>
       </c:barChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Today: 28-Oct-18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$2:$A$3</c:f>
+              <c:numCache>
+                <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43401</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EM Integration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$6:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43522</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43522</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>EM Day in the Life Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$10:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43578</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43578</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$10:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FU Integration</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$14:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43620</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43620</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$14:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FU Day in the Life Test</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$18:$A$19</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43648</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$18:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$22:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$22:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MRR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$26:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43676</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43676</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$26:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ILC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$30:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43690</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43690</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$30:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-BB20-477D-9AD2-367277961686}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="226793872"/>
+        <c:axId val="2047381920"/>
+      </c:scatterChart>
       <c:catAx>
         <c:axId val="413356223"/>
         <c:scaling>
@@ -1780,8 +2402,8 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43669"/>
-          <c:min val="43221"/>
+          <c:max val="43816"/>
+          <c:min val="43396"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -1849,6 +2471,62 @@
         <c:crossBetween val="between"/>
         <c:majorUnit val="28"/>
         <c:minorUnit val="7"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2047381920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="none"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="226793872"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="226793872"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="[$-409]d\-mmm\-yy;@" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2047381920"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2489,7 +3167,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12239625" cy="7210425"/>
+    <xdr:ext cx="11858625" cy="7191375"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -2815,10 +3493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2827,312 +3505,309 @@
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="32" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="32" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="32" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="48" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="43"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="50">
+        <f>L5</f>
+        <v>43690</v>
+      </c>
+      <c r="L1" s="51"/>
+    </row>
+    <row r="2" spans="1:16" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="46"/>
+      <c r="G2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="51">
-        <f>D4</f>
-        <v>43221</v>
-      </c>
-      <c r="H1" s="53"/>
-      <c r="I1" s="47">
-        <f>(K1-G1)/7</f>
-        <v>64</v>
-      </c>
-      <c r="J1" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" s="51">
-        <f>L5</f>
-        <v>43669</v>
-      </c>
-      <c r="L1" s="52"/>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="59"/>
-      <c r="G2" s="60" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61" t="s">
+      <c r="J2" s="48"/>
+      <c r="K2" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="1:16" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="62"/>
-    </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="54"/>
-      <c r="G3" s="55" t="s">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="57"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="60"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="61">
         <v>43221</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <f>(F4-D4)/7</f>
         <v>3</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="7">
         <f>MIN(D6:D22)</f>
         <v>43242</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="28">
         <f>(H4-F4)/7</f>
         <v>40</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="8">
         <f>_xlfn.MAXIFS(L6:L22,C6:C22,"Hardware")</f>
         <v>43522</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="31">
         <v>2</v>
       </c>
-      <c r="J4" s="12">
+      <c r="J4" s="9">
         <f>H4+I4*7</f>
         <v>43536</v>
       </c>
-      <c r="K4" s="39">
-        <v>4</v>
-      </c>
-      <c r="L4" s="13">
-        <f>J4+K4*7</f>
-        <v>43564</v>
-      </c>
+      <c r="K4" s="34">
+        <f>(L4-J4)/7</f>
+        <v>8</v>
+      </c>
+      <c r="L4" s="10">
+        <f>MAX(L6:L22)+14</f>
+        <v>43592</v>
+      </c>
+      <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="62">
         <f>J4</f>
         <v>43536</v>
       </c>
-      <c r="E5" s="30">
-        <v>2</v>
-      </c>
-      <c r="F5" s="16">
-        <f>D5+E5*7</f>
-        <v>43550</v>
-      </c>
-      <c r="G5" s="34">
-        <v>7</v>
-      </c>
-      <c r="H5" s="17">
+      <c r="E5" s="25">
+        <f>(F5-D5)/7</f>
+        <v>8</v>
+      </c>
+      <c r="F5" s="12">
+        <f>L4</f>
+        <v>43592</v>
+      </c>
+      <c r="G5" s="29">
+        <v>4</v>
+      </c>
+      <c r="H5" s="13">
         <f>F5+G5*7</f>
-        <v>43599</v>
-      </c>
-      <c r="I5" s="37">
-        <v>2</v>
-      </c>
-      <c r="J5" s="18">
+        <v>43620</v>
+      </c>
+      <c r="I5" s="32">
+        <v>4</v>
+      </c>
+      <c r="J5" s="14">
         <f>H5+I5*7</f>
-        <v>43613</v>
-      </c>
-      <c r="K5" s="40">
-        <v>8</v>
-      </c>
-      <c r="L5" s="19">
-        <f>J5+K5*7</f>
-        <v>43669</v>
+        <v>43648</v>
+      </c>
+      <c r="K5" s="35">
+        <f>(L5-J5)/7</f>
+        <v>6</v>
+      </c>
+      <c r="L5" s="15">
+        <f>L31</f>
+        <v>43690</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="63">
         <v>43242</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="7">
         <f>D6+E6*7</f>
         <v>43256</v>
       </c>
-      <c r="G6" s="33">
+      <c r="G6" s="28">
         <v>8</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="8">
         <f>F6+G6*7</f>
         <v>43312</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="31">
         <v>11</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <f>H6+I6*7</f>
         <v>43389</v>
       </c>
-      <c r="K6" s="39">
-        <v>3</v>
-      </c>
-      <c r="L6" s="13">
+      <c r="K6" s="34">
+        <v>4</v>
+      </c>
+      <c r="L6" s="10">
         <f>J6+K6*7</f>
-        <v>43410</v>
+        <v>43417</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="49"/>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="63">
         <v>43312</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="24">
         <v>2</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="7">
         <f t="shared" ref="F7:F22" si="0">D7+E7*7</f>
         <v>43326</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="28">
         <v>8</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="8">
         <f t="shared" ref="H7:H22" si="1">F7+G7*7</f>
         <v>43382</v>
       </c>
-      <c r="I7" s="36">
-        <v>4</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="I7" s="31">
+        <v>5</v>
+      </c>
+      <c r="J7" s="9">
         <f t="shared" ref="J7:J22" si="2">H7+I7*7</f>
-        <v>43410</v>
-      </c>
-      <c r="K7" s="39">
+        <v>43417</v>
+      </c>
+      <c r="K7" s="34">
         <v>3</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="10">
         <f t="shared" ref="L7:L22" si="3">J7+K7*7</f>
-        <v>43431</v>
+        <v>43438</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="63">
         <v>43340</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="24">
         <v>2</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="7">
         <f t="shared" si="0"/>
         <v>43354</v>
       </c>
-      <c r="G8" s="33">
+      <c r="G8" s="28">
         <v>3</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>43375</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="31">
         <v>3</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="9">
         <f t="shared" si="2"/>
         <v>43396</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="34">
         <v>3</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="10">
         <f t="shared" si="3"/>
         <v>43417</v>
       </c>
@@ -3140,582 +3815,785 @@
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="14" t="s">
+      <c r="A9" s="45"/>
+      <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="62">
         <v>43396</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="25">
         <v>3</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="12">
         <f t="shared" si="0"/>
         <v>43417</v>
       </c>
-      <c r="G9" s="34">
+      <c r="G9" s="29">
         <v>8</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="13">
         <f t="shared" si="1"/>
         <v>43473</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="32">
         <v>3</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="14">
         <f t="shared" si="2"/>
         <v>43494</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="35">
         <v>3</v>
       </c>
-      <c r="L9" s="19">
+      <c r="L9" s="15">
         <f t="shared" si="3"/>
         <v>43515</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21">
+      <c r="D10" s="64">
         <v>43340</v>
       </c>
-      <c r="E10" s="31">
+      <c r="E10" s="26">
         <v>3</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="17">
         <f t="shared" si="0"/>
         <v>43361</v>
       </c>
-      <c r="G10" s="35">
+      <c r="G10" s="30">
+        <v>8</v>
+      </c>
+      <c r="H10" s="18">
+        <f t="shared" si="1"/>
+        <v>43417</v>
+      </c>
+      <c r="I10" s="33">
         <v>7</v>
       </c>
-      <c r="H10" s="23">
+      <c r="J10" s="19">
+        <f t="shared" si="2"/>
+        <v>43466</v>
+      </c>
+      <c r="K10" s="36">
+        <v>3</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="3"/>
+        <v>43487</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="49"/>
+      <c r="B11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="63">
+        <v>43368</v>
+      </c>
+      <c r="E11" s="24">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>43417</v>
+      </c>
+      <c r="G11" s="28">
+        <v>7</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="1"/>
+        <v>43466</v>
+      </c>
+      <c r="I11" s="31">
+        <v>3</v>
+      </c>
+      <c r="J11" s="9">
+        <f t="shared" si="2"/>
+        <v>43487</v>
+      </c>
+      <c r="K11" s="34">
+        <v>7</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="3"/>
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="49"/>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="63">
+        <v>43417</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>43438</v>
+      </c>
+      <c r="G12" s="28">
+        <v>7</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="1"/>
+        <v>43487</v>
+      </c>
+      <c r="I12" s="31">
+        <v>3</v>
+      </c>
+      <c r="J12" s="9">
+        <f t="shared" si="2"/>
+        <v>43508</v>
+      </c>
+      <c r="K12" s="34">
+        <v>7</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="3"/>
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="45"/>
+      <c r="B13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="62">
+        <v>43368</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3</v>
+      </c>
+      <c r="F13" s="12">
+        <f t="shared" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="G13" s="29">
+        <v>11</v>
+      </c>
+      <c r="H13" s="13">
+        <f t="shared" si="1"/>
+        <v>43466</v>
+      </c>
+      <c r="I13" s="32">
+        <v>3</v>
+      </c>
+      <c r="J13" s="14">
+        <f t="shared" si="2"/>
+        <v>43487</v>
+      </c>
+      <c r="K13" s="35">
+        <v>7</v>
+      </c>
+      <c r="L13" s="15">
+        <f t="shared" si="3"/>
+        <v>43536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="64">
+        <v>43340</v>
+      </c>
+      <c r="E14" s="26">
+        <v>7</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="G14" s="30">
+        <v>8</v>
+      </c>
+      <c r="H14" s="18">
+        <f t="shared" si="1"/>
+        <v>43445</v>
+      </c>
+      <c r="I14" s="33">
+        <v>8</v>
+      </c>
+      <c r="J14" s="19">
+        <f t="shared" si="2"/>
+        <v>43501</v>
+      </c>
+      <c r="K14" s="36">
+        <v>3</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="3"/>
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="49"/>
+      <c r="B15" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="63">
+        <v>43417</v>
+      </c>
+      <c r="E15" s="24">
+        <v>7</v>
+      </c>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>43466</v>
+      </c>
+      <c r="G15" s="28">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="1"/>
+        <v>43487</v>
+      </c>
+      <c r="I15" s="31">
+        <v>6</v>
+      </c>
+      <c r="J15" s="9">
+        <f t="shared" si="2"/>
+        <v>43529</v>
+      </c>
+      <c r="K15" s="34">
+        <v>7</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="3"/>
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="49"/>
+      <c r="B16" s="6" t="str">
+        <f>"+X Panel"</f>
+        <v>+X Panel</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="63">
+        <v>43368</v>
+      </c>
+      <c r="E16" s="24">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>43389</v>
+      </c>
+      <c r="G16" s="28">
+        <v>2</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="1"/>
+        <v>43403</v>
+      </c>
+      <c r="I16" s="31">
+        <v>2</v>
+      </c>
+      <c r="J16" s="9">
+        <f t="shared" si="2"/>
+        <v>43417</v>
+      </c>
+      <c r="K16" s="34">
+        <v>3</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="3"/>
+        <v>43438</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="49"/>
+      <c r="B17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="63">
+        <v>43340</v>
+      </c>
+      <c r="E17" s="24">
+        <v>8</v>
+      </c>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>43396</v>
+      </c>
+      <c r="G17" s="28">
+        <v>2</v>
+      </c>
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>43410</v>
       </c>
-      <c r="I10" s="38">
+      <c r="I17" s="31">
+        <v>2</v>
+      </c>
+      <c r="J17" s="9">
+        <f t="shared" si="2"/>
+        <v>43424</v>
+      </c>
+      <c r="K17" s="34">
+        <v>3</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="3"/>
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="62">
+        <v>43242</v>
+      </c>
+      <c r="E18" s="25">
+        <v>3</v>
+      </c>
+      <c r="F18" s="12">
+        <f t="shared" si="0"/>
+        <v>43263</v>
+      </c>
+      <c r="G18" s="29">
+        <v>22</v>
+      </c>
+      <c r="H18" s="13">
+        <f t="shared" si="1"/>
+        <v>43417</v>
+      </c>
+      <c r="I18" s="32">
+        <v>16</v>
+      </c>
+      <c r="J18" s="14">
+        <f t="shared" si="2"/>
+        <v>43529</v>
+      </c>
+      <c r="K18" s="35">
         <v>7</v>
       </c>
-      <c r="J10" s="24">
-        <f t="shared" si="2"/>
-        <v>43459</v>
-      </c>
-      <c r="K10" s="41">
+      <c r="L18" s="15">
+        <f t="shared" si="3"/>
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="64">
+        <v>43396</v>
+      </c>
+      <c r="E19" s="26">
         <v>3</v>
       </c>
-      <c r="L10" s="25">
-        <f t="shared" si="3"/>
-        <v>43480</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="9">
-        <v>43368</v>
-      </c>
-      <c r="E11" s="29">
-        <v>7</v>
-      </c>
-      <c r="F11" s="10">
+      <c r="F19" s="17">
         <f t="shared" si="0"/>
         <v>43417</v>
       </c>
-      <c r="G11" s="33">
-        <v>7</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="1"/>
-        <v>43466</v>
-      </c>
-      <c r="I11" s="36">
-        <v>3</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="2"/>
-        <v>43487</v>
-      </c>
-      <c r="K11" s="39">
-        <v>7</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="3"/>
-        <v>43536</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="9">
-        <v>43417</v>
-      </c>
-      <c r="E12" s="29">
-        <v>3</v>
-      </c>
-      <c r="F12" s="10">
-        <f t="shared" si="0"/>
-        <v>43438</v>
-      </c>
-      <c r="G12" s="33">
-        <v>7</v>
-      </c>
-      <c r="H12" s="11">
-        <f t="shared" si="1"/>
-        <v>43487</v>
-      </c>
-      <c r="I12" s="36">
-        <v>3</v>
-      </c>
-      <c r="J12" s="12">
-        <f t="shared" si="2"/>
-        <v>43508</v>
-      </c>
-      <c r="K12" s="39">
-        <v>7</v>
-      </c>
-      <c r="L12" s="13">
-        <f t="shared" si="3"/>
-        <v>43557</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="15">
-        <v>43368</v>
-      </c>
-      <c r="E13" s="30">
-        <v>3</v>
-      </c>
-      <c r="F13" s="16">
-        <f t="shared" si="0"/>
-        <v>43389</v>
-      </c>
-      <c r="G13" s="34">
-        <v>11</v>
-      </c>
-      <c r="H13" s="17">
-        <f t="shared" si="1"/>
-        <v>43466</v>
-      </c>
-      <c r="I13" s="37">
-        <v>3</v>
-      </c>
-      <c r="J13" s="18">
-        <f t="shared" si="2"/>
-        <v>43487</v>
-      </c>
-      <c r="K13" s="40">
-        <v>7</v>
-      </c>
-      <c r="L13" s="19">
-        <f t="shared" si="3"/>
-        <v>43536</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="21">
-        <v>43340</v>
-      </c>
-      <c r="E14" s="31">
-        <v>7</v>
-      </c>
-      <c r="F14" s="22">
-        <f t="shared" si="0"/>
-        <v>43389</v>
-      </c>
-      <c r="G14" s="35">
-        <v>8</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G19" s="30">
+        <v>4</v>
+      </c>
+      <c r="H19" s="18">
         <f t="shared" si="1"/>
         <v>43445</v>
       </c>
-      <c r="I14" s="38">
-        <v>8</v>
-      </c>
-      <c r="J14" s="24">
+      <c r="I19" s="33">
+        <v>4</v>
+      </c>
+      <c r="J19" s="19">
         <f t="shared" si="2"/>
-        <v>43501</v>
-      </c>
-      <c r="K14" s="41">
+        <v>43473</v>
+      </c>
+      <c r="K19" s="36">
         <v>3</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L19" s="20">
         <f t="shared" si="3"/>
-        <v>43522</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="9">
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="45"/>
+      <c r="B20" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="62">
+        <v>43396</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" si="0"/>
         <v>43417</v>
       </c>
-      <c r="E15" s="29">
+      <c r="G20" s="29">
+        <v>4</v>
+      </c>
+      <c r="H20" s="13">
+        <f t="shared" si="1"/>
+        <v>43445</v>
+      </c>
+      <c r="I20" s="32">
+        <v>4</v>
+      </c>
+      <c r="J20" s="14">
+        <f t="shared" si="2"/>
+        <v>43473</v>
+      </c>
+      <c r="K20" s="35">
+        <v>3</v>
+      </c>
+      <c r="L20" s="15">
+        <f t="shared" si="3"/>
+        <v>43494</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="63">
+        <v>43242</v>
+      </c>
+      <c r="E21" s="24">
+        <v>3</v>
+      </c>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>43263</v>
+      </c>
+      <c r="G21" s="28">
+        <v>14</v>
+      </c>
+      <c r="H21" s="8">
+        <f t="shared" si="1"/>
+        <v>43361</v>
+      </c>
+      <c r="I21" s="31">
         <v>7</v>
       </c>
-      <c r="F15" s="10">
+      <c r="J21" s="9">
+        <f t="shared" si="2"/>
+        <v>43410</v>
+      </c>
+      <c r="K21" s="34">
+        <v>3</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="3"/>
+        <v>43431</v>
+      </c>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="45"/>
+      <c r="B22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" s="62">
+        <v>43242</v>
+      </c>
+      <c r="E22" s="25">
+        <v>7</v>
+      </c>
+      <c r="F22" s="12">
         <f t="shared" si="0"/>
-        <v>43466</v>
-      </c>
-      <c r="G15" s="33">
-        <v>3</v>
-      </c>
-      <c r="H15" s="11">
+        <v>43291</v>
+      </c>
+      <c r="G22" s="29">
+        <v>11</v>
+      </c>
+      <c r="H22" s="13">
         <f t="shared" si="1"/>
-        <v>43487</v>
-      </c>
-      <c r="I15" s="36">
-        <v>6</v>
-      </c>
-      <c r="J15" s="12">
-        <f t="shared" si="2"/>
-        <v>43529</v>
-      </c>
-      <c r="K15" s="39">
+        <v>43368</v>
+      </c>
+      <c r="I22" s="32">
         <v>7</v>
       </c>
-      <c r="L15" s="13">
-        <f t="shared" si="3"/>
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="8" t="str">
-        <f>"+X Panel"</f>
-        <v>+X Panel</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="9">
-        <v>43368</v>
-      </c>
-      <c r="E16" s="29">
-        <v>3</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="0"/>
-        <v>43389</v>
-      </c>
-      <c r="G16" s="33">
-        <v>2</v>
-      </c>
-      <c r="H16" s="11">
-        <f t="shared" si="1"/>
-        <v>43403</v>
-      </c>
-      <c r="I16" s="36">
-        <v>2</v>
-      </c>
-      <c r="J16" s="12">
+      <c r="J22" s="14">
         <f t="shared" si="2"/>
         <v>43417</v>
       </c>
-      <c r="K16" s="39">
-        <v>3</v>
-      </c>
-      <c r="L16" s="13">
-        <f t="shared" si="3"/>
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="9">
-        <v>43340</v>
-      </c>
-      <c r="E17" s="29">
+      <c r="K22" s="35">
         <v>8</v>
       </c>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
-        <v>43396</v>
-      </c>
-      <c r="G17" s="33">
-        <v>2</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="1"/>
-        <v>43410</v>
-      </c>
-      <c r="I17" s="36">
-        <v>1</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="2"/>
-        <v>43417</v>
-      </c>
-      <c r="K17" s="39">
-        <v>3</v>
-      </c>
-      <c r="L17" s="13">
-        <f t="shared" si="3"/>
-        <v>43438</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="15">
-        <v>43242</v>
-      </c>
-      <c r="E18" s="30">
-        <v>3</v>
-      </c>
-      <c r="F18" s="16">
-        <f t="shared" si="0"/>
-        <v>43263</v>
-      </c>
-      <c r="G18" s="34">
-        <v>14</v>
-      </c>
-      <c r="H18" s="17">
-        <f t="shared" si="1"/>
-        <v>43361</v>
-      </c>
-      <c r="I18" s="37">
-        <v>14</v>
-      </c>
-      <c r="J18" s="18">
-        <f t="shared" si="2"/>
-        <v>43459</v>
-      </c>
-      <c r="K18" s="40">
-        <v>7</v>
-      </c>
-      <c r="L18" s="19">
-        <f t="shared" si="3"/>
-        <v>43508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="21">
-        <v>43396</v>
-      </c>
-      <c r="E19" s="31">
-        <v>2</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" si="0"/>
-        <v>43410</v>
-      </c>
-      <c r="G19" s="35">
-        <v>4</v>
-      </c>
-      <c r="H19" s="23">
-        <f t="shared" si="1"/>
-        <v>43438</v>
-      </c>
-      <c r="I19" s="38">
-        <v>4</v>
-      </c>
-      <c r="J19" s="24">
-        <f t="shared" si="2"/>
-        <v>43466</v>
-      </c>
-      <c r="K19" s="41">
-        <v>3</v>
-      </c>
-      <c r="L19" s="25">
-        <f t="shared" si="3"/>
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="15">
-        <v>43396</v>
-      </c>
-      <c r="E20" s="30">
-        <v>2</v>
-      </c>
-      <c r="F20" s="16">
-        <f t="shared" si="0"/>
-        <v>43410</v>
-      </c>
-      <c r="G20" s="34">
-        <v>4</v>
-      </c>
-      <c r="H20" s="17">
-        <f t="shared" si="1"/>
-        <v>43438</v>
-      </c>
-      <c r="I20" s="37">
-        <v>4</v>
-      </c>
-      <c r="J20" s="18">
-        <f t="shared" si="2"/>
-        <v>43466</v>
-      </c>
-      <c r="K20" s="40">
-        <v>3</v>
-      </c>
-      <c r="L20" s="19">
-        <f t="shared" si="3"/>
-        <v>43487</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="9">
-        <v>43242</v>
-      </c>
-      <c r="E21" s="29">
-        <v>3</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>43263</v>
-      </c>
-      <c r="G21" s="33">
-        <v>14</v>
-      </c>
-      <c r="H21" s="11">
-        <f t="shared" si="1"/>
-        <v>43361</v>
-      </c>
-      <c r="I21" s="36">
-        <v>7</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" si="2"/>
-        <v>43410</v>
-      </c>
-      <c r="K21" s="39">
-        <v>3</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" si="3"/>
-        <v>43431</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="15">
-        <v>43242</v>
-      </c>
-      <c r="E22" s="30">
-        <v>7</v>
-      </c>
-      <c r="F22" s="16">
-        <f t="shared" si="0"/>
-        <v>43291</v>
-      </c>
-      <c r="G22" s="34">
-        <v>11</v>
-      </c>
-      <c r="H22" s="17">
-        <f t="shared" si="1"/>
-        <v>43368</v>
-      </c>
-      <c r="I22" s="37">
-        <v>7</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="2"/>
-        <v>43417</v>
-      </c>
-      <c r="K22" s="40">
-        <v>8</v>
-      </c>
-      <c r="L22" s="19">
+      <c r="L22" s="15">
         <f t="shared" si="3"/>
         <v>43473</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="L25" s="7"/>
+    <row r="23" spans="1:13" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="66"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="67"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="69"/>
+    </row>
+    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A24" s="73" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A25" s="71" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="74" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="72">
+        <f>H4</f>
+        <v>43522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A26" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="72">
+        <f>MAX(L6:L22)</f>
+        <v>43578</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A27" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="71"/>
+      <c r="C27" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="72">
+        <f>H5</f>
+        <v>43620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A28" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="71"/>
+      <c r="C28" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="72">
+        <f>J5</f>
+        <v>43648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A29" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="72">
+        <f>L28+14</f>
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A30" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="71"/>
+      <c r="C30" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="72">
+        <f>L29+14</f>
+        <v>43676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A31" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" s="71"/>
+      <c r="C31" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="72">
+        <f>L30+14</f>
+        <v>43690</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="34">
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K2:L2"/>
     <mergeCell ref="A19:A20"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="E2:F2"/>
@@ -3725,20 +4603,244 @@
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="22" max="16383" man="1"/>
+  </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F4" formula="1"/>
+    <ignoredError sqref="F4 E5" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591EF12-12B5-44D5-911E-15D67C3B63C7}">
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="str">
+        <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
+        <v>Today: 28-Oct-18</v>
+      </c>
+      <c r="G1" s="3">
+        <v>43816</v>
+      </c>
+      <c r="H1" s="2">
+        <f>INT(G1)</f>
+        <v>43816</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <f ca="1">TODAY()</f>
+        <v>43401</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <f ca="1">TODAY()</f>
+        <v>43401</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="str">
+        <f>Text!A25</f>
+        <v>EM Integration</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f>Text!L25</f>
+        <v>43522</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f>Text!L25</f>
+        <v>43522</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" t="str">
+        <f>Text!A26</f>
+        <v>EM Day in the Life Test</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f>Text!L26</f>
+        <v>43578</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f>Text!L26</f>
+        <v>43578</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="str">
+        <f>Text!A27</f>
+        <v>FU Integration</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f>Text!L27</f>
+        <v>43620</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f>Text!L27</f>
+        <v>43620</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="str">
+        <f>Text!A28</f>
+        <v>FU Day in the Life Test</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f>Text!L28</f>
+        <v>43648</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>Text!L28</f>
+        <v>43648</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="str">
+        <f>Text!A29</f>
+        <v>FRR</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f>Text!L29</f>
+        <v>43662</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>Text!L29</f>
+        <v>43662</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25" t="str">
+        <f>Text!A30</f>
+        <v>MRR</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f>Text!L30</f>
+        <v>43676</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f>Text!L30</f>
+        <v>43676</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B29" t="str">
+        <f>Text!A31</f>
+        <v>ILC</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f>Text!L31</f>
+        <v>43690</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f>Text!L31</f>
+        <v>43690</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{987F3A74-B9D5-4D4F-B621-4C7B3ED53191}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD54667-4BFB-47FB-9870-9EE9A028727A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
@@ -18,15 +18,15 @@
     <sheet name="Gantt Lines" sheetId="9" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Design">Text!$E$4:$E$22</definedName>
+    <definedName name="Design">Text!$E$4:$E$23</definedName>
     <definedName name="Design_Days">Design*7</definedName>
-    <definedName name="Implement_1">Text!$G$4:$G$22</definedName>
+    <definedName name="Implement_1">Text!$G$4:$G$23</definedName>
     <definedName name="Implement_1_Days">Implement_1*7</definedName>
-    <definedName name="Implement_2">Text!$I$4:$I$22</definedName>
+    <definedName name="Implement_2">Text!$I$4:$I$23</definedName>
     <definedName name="Implement_2_Days">Implement_2*7</definedName>
-    <definedName name="Labels">Text!$A$4:$B$22</definedName>
-    <definedName name="Start">Text!$D$4:$D$22</definedName>
-    <definedName name="Test">Text!$K$4:$K$22</definedName>
+    <definedName name="Labels">Text!$A$4:$B$23</definedName>
+    <definedName name="Start">Text!$D$4:$D$23</definedName>
+    <definedName name="Test">Text!$K$4:$K$23</definedName>
     <definedName name="Test_Days">Test*7</definedName>
   </definedNames>
   <calcPr calcId="179021"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
   <si>
     <t>Start</t>
   </si>
@@ -229,7 +229,7 @@
     <t>Review of the mission to determine its readiness to execute</t>
   </si>
   <si>
-    <t>V1.1.1</t>
+    <t>V1.1.2</t>
   </si>
 </sst>
 </file>
@@ -762,54 +762,6 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -824,26 +776,74 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="17" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -910,7 +910,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -952,21 +952,24 @@
                     <c:v>+X Panel</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>-Z Panel</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Ground Station</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Camera PCB</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Germination PCB</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -983,10 +986,10 @@
                   <c:pt idx="10">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -998,7 +1001,7 @@
               <c:f>[0]!Start</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>43221</c:v>
                 </c:pt>
@@ -1039,21 +1042,24 @@
                   <c:v>43368</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>43403</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>43340</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43242</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>43396</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>43396</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>43242</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43242</c:v>
                 </c:pt>
               </c:numCache>
@@ -1093,7 +1099,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1135,21 +1141,24 @@
                     <c:v>+X Panel</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>-Z Panel</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Ground Station</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Camera PCB</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Germination PCB</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1166,10 +1175,10 @@
                   <c:pt idx="10">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1181,12 +1190,12 @@
               <c:f>[0]!Design_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -1204,13 +1213,13 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>49</c:v>
@@ -1222,10 +1231,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>21</c:v>
@@ -1237,6 +1246,9 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
@@ -1295,7 +1307,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1337,21 +1349,24 @@
                     <c:v>+X Panel</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>-Z Panel</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Ground Station</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Camera PCB</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Germination PCB</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1368,10 +1383,10 @@
                   <c:pt idx="10">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1383,7 +1398,7 @@
               <c:f>[0]!Implement_1_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>280</c:v>
                 </c:pt>
@@ -1406,13 +1421,13 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>56</c:v>
@@ -1427,19 +1442,22 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>98</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77</c:v>
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1478,7 +1496,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1520,21 +1538,24 @@
                     <c:v>+X Panel</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>-Z Panel</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Ground Station</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Camera PCB</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Germination PCB</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1551,10 +1572,10 @@
                   <c:pt idx="10">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1566,7 +1587,7 @@
               <c:f>[0]!Implement_2_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1574,13 +1595,13 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21</c:v>
@@ -1589,13 +1610,13 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>56</c:v>
@@ -1610,19 +1631,22 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1661,7 +1685,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1703,21 +1727,24 @@
                     <c:v>+X Panel</c:v>
                   </c:pt>
                   <c:pt idx="13">
+                    <c:v>-Z Panel</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Ground Station</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Camera PCB</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>Germination PCB</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1734,10 +1761,10 @@
                   <c:pt idx="10">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1749,36 +1776,36 @@
               <c:f>[0]!Test_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>21</c:v>
@@ -1793,10 +1820,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>21</c:v>
@@ -1805,7 +1832,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>56</c:v>
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1833,71 +1863,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="6"/>
           <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gantt Lines'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Today: 28-Oct-18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gantt Lines'!$A$2:$A$3</c:f>
-              <c:numCache>
-                <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43401</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gantt Lines'!$B$2:$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BB20-477D-9AD2-367277961686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$5</c:f>
@@ -1960,7 +1927,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$9</c:f>
@@ -1991,10 +1958,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43578</c:v>
+                  <c:v>43627</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43578</c:v>
+                  <c:v>43627</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,7 +1990,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$13</c:f>
@@ -2054,10 +2021,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43620</c:v>
+                  <c:v>43634</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43620</c:v>
+                  <c:v>43634</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2086,7 +2053,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="9"/>
-          <c:order val="9"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$17</c:f>
@@ -2117,10 +2084,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43648</c:v>
+                  <c:v>43662</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43648</c:v>
+                  <c:v>43662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2149,7 +2116,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="10"/>
-          <c:order val="10"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$21</c:f>
@@ -2180,10 +2147,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43662</c:v>
+                  <c:v>43676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43662</c:v>
+                  <c:v>43676</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2212,7 +2179,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="11"/>
-          <c:order val="11"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$25</c:f>
@@ -2243,10 +2210,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43676</c:v>
+                  <c:v>43690</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43676</c:v>
+                  <c:v>43690</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2275,7 +2242,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="12"/>
-          <c:order val="12"/>
+          <c:order val="11"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$29</c:f>
@@ -2306,10 +2273,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43690</c:v>
+                  <c:v>43704</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43690</c:v>
+                  <c:v>43704</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2512,6 +2479,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="226793872"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -2521,11 +2489,12 @@
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="[$-409]d\-mmm\-yy;@" sourceLinked="1"/>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2047381920"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -3167,7 +3136,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11858625" cy="7191375"/>
+    <xdr:ext cx="12239625" cy="7210425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3493,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3505,7 +3474,7 @@
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
@@ -3516,27 +3485,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
       <c r="E1" s="42" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="43"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="52"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="42"/>
       <c r="J1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="50">
+      <c r="K1" s="67">
         <f>L5</f>
-        <v>43690</v>
-      </c>
-      <c r="L1" s="51"/>
+        <v>43704</v>
+      </c>
+      <c r="L1" s="68"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -3551,22 +3520,22 @@
       <c r="D2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="47" t="s">
+      <c r="F2" s="55"/>
+      <c r="G2" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="48" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="57" t="s">
+      <c r="J2" s="57"/>
+      <c r="K2" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="57"/>
+      <c r="L2" s="74"/>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
@@ -3581,26 +3550,26 @@
       <c r="D3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="70"/>
+      <c r="G3" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="54"/>
-      <c r="I3" s="55" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="56"/>
-      <c r="M3" s="60"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="58" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3609,7 +3578,7 @@
       <c r="C4" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="45">
         <v>43221</v>
       </c>
       <c r="E4" s="24">
@@ -3617,7 +3586,7 @@
         <v>3</v>
       </c>
       <c r="F4" s="7">
-        <f>MIN(D6:D22)</f>
+        <f>MIN(D6:D23)</f>
         <v>43242</v>
       </c>
       <c r="G4" s="28">
@@ -3625,7 +3594,7 @@
         <v>40</v>
       </c>
       <c r="H4" s="8">
-        <f>_xlfn.MAXIFS(L6:L22,C6:C22,"Hardware")</f>
+        <f>_xlfn.MAXIFS(L6:L23,C6:C23,"Hardware")</f>
         <v>43522</v>
       </c>
       <c r="I4" s="31">
@@ -3637,59 +3606,59 @@
       </c>
       <c r="K4" s="34">
         <f>(L4-J4)/7</f>
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L4" s="10">
-        <f>MAX(L6:L22)+14</f>
-        <v>43592</v>
+        <f>MAX(L6:L23)+14</f>
+        <v>43641</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="62">
+      <c r="D5" s="46">
         <f>J4</f>
         <v>43536</v>
       </c>
       <c r="E5" s="25">
         <f>(F5-D5)/7</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F5" s="12">
-        <f>L4</f>
-        <v>43592</v>
+        <f>J4+10*7</f>
+        <v>43606</v>
       </c>
       <c r="G5" s="29">
         <v>4</v>
       </c>
       <c r="H5" s="13">
         <f>F5+G5*7</f>
-        <v>43620</v>
+        <v>43634</v>
       </c>
       <c r="I5" s="32">
         <v>4</v>
       </c>
       <c r="J5" s="14">
         <f>H5+I5*7</f>
-        <v>43648</v>
+        <v>43662</v>
       </c>
       <c r="K5" s="35">
         <f>(L5-J5)/7</f>
         <v>6</v>
       </c>
       <c r="L5" s="15">
-        <f>L31</f>
-        <v>43690</v>
+        <f>L32</f>
+        <v>43704</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="58" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3698,7 +3667,7 @@
       <c r="C6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="63">
+      <c r="D6" s="47">
         <v>43242</v>
       </c>
       <c r="E6" s="24">
@@ -3716,71 +3685,71 @@
         <v>43312</v>
       </c>
       <c r="I6" s="31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J6" s="9">
         <f>H6+I6*7</f>
-        <v>43389</v>
+        <v>43424</v>
       </c>
       <c r="K6" s="34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L6" s="10">
         <f>J6+K6*7</f>
-        <v>43417</v>
+        <v>43445</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="63">
+      <c r="D7" s="47">
         <v>43312</v>
       </c>
       <c r="E7" s="24">
         <v>2</v>
       </c>
       <c r="F7" s="7">
-        <f t="shared" ref="F7:F22" si="0">D7+E7*7</f>
+        <f t="shared" ref="F7:F23" si="0">D7+E7*7</f>
         <v>43326</v>
       </c>
       <c r="G7" s="28">
         <v>8</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" ref="H7:H22" si="1">F7+G7*7</f>
+        <f t="shared" ref="H7:H23" si="1">F7+G7*7</f>
         <v>43382</v>
       </c>
       <c r="I7" s="31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J7" s="9">
-        <f t="shared" ref="J7:J22" si="2">H7+I7*7</f>
-        <v>43417</v>
+        <f t="shared" ref="J7:J23" si="2">H7+I7*7</f>
+        <v>43438</v>
       </c>
       <c r="K7" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7" s="10">
-        <f t="shared" ref="L7:L22" si="3">J7+K7*7</f>
-        <v>43438</v>
+        <f t="shared" ref="L7:L23" si="3">J7+K7*7</f>
+        <v>43445</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="63">
+      <c r="D8" s="47">
         <v>43340</v>
       </c>
       <c r="E8" s="24">
@@ -3798,31 +3767,31 @@
         <v>43375</v>
       </c>
       <c r="I8" s="31">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>43396</v>
+        <v>43431</v>
       </c>
       <c r="K8" s="34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="3"/>
-        <v>43417</v>
+        <v>43438</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="46">
         <v>43396</v>
       </c>
       <c r="E9" s="25">
@@ -3855,7 +3824,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="61" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3864,7 +3833,7 @@
       <c r="C10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D10" s="48">
         <v>43340</v>
       </c>
       <c r="E10" s="26">
@@ -3889,62 +3858,62 @@
         <v>43466</v>
       </c>
       <c r="K10" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" si="3"/>
-        <v>43487</v>
+        <v>43494</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="47">
         <v>43368</v>
       </c>
       <c r="E11" s="24">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>43417</v>
+        <v>43438</v>
       </c>
       <c r="G11" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>43466</v>
+        <v>43508</v>
       </c>
       <c r="I11" s="31">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>43487</v>
+        <v>43578</v>
       </c>
       <c r="K11" s="34">
         <v>7</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="3"/>
-        <v>43536</v>
+        <v>43627</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="47">
         <v>43417</v>
       </c>
       <c r="E12" s="24">
@@ -3955,69 +3924,69 @@
         <v>43438</v>
       </c>
       <c r="G12" s="28">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>43487</v>
+        <v>43494</v>
       </c>
       <c r="I12" s="31">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>43508</v>
+        <v>43557</v>
       </c>
       <c r="K12" s="34">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="3"/>
-        <v>43557</v>
+        <v>43620</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="45"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="62">
+      <c r="D13" s="46">
         <v>43368</v>
       </c>
       <c r="E13" s="25">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>43389</v>
+        <v>43438</v>
       </c>
       <c r="G13" s="29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>43466</v>
+        <v>43487</v>
       </c>
       <c r="I13" s="32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="2"/>
-        <v>43487</v>
+        <v>43522</v>
       </c>
       <c r="K13" s="35">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="3"/>
-        <v>43536</v>
+        <v>43592</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="61" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -4026,7 +3995,7 @@
       <c r="C14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="64">
+      <c r="D14" s="48">
         <v>43340</v>
       </c>
       <c r="E14" s="26">
@@ -4059,14 +4028,14 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
+      <c r="A15" s="58"/>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="63">
+      <c r="D15" s="47">
         <v>43417</v>
       </c>
       <c r="E15" s="24">
@@ -4099,7 +4068,7 @@
       </c>
     </row>
     <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="6" t="str">
         <f>"+X Panel"</f>
         <v>+X Panel</v>
@@ -4107,7 +4076,7 @@
       <c r="C16" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="47">
         <v>43368</v>
       </c>
       <c r="E16" s="24">
@@ -4140,453 +4109,479 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="6" t="s">
-        <v>22</v>
+      <c r="A17" s="58"/>
+      <c r="B17" s="6" t="str">
+        <f>"-Z Panel"</f>
+        <v>-Z Panel</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="63">
-        <v>43340</v>
+      <c r="D17" s="47">
+        <v>43403</v>
       </c>
       <c r="E17" s="24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>43396</v>
+        <v>43410</v>
       </c>
       <c r="G17" s="28">
         <v>2</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>43410</v>
+        <v>43424</v>
       </c>
       <c r="I17" s="31">
         <v>2</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>43424</v>
+        <v>43438</v>
       </c>
       <c r="K17" s="34">
         <v>3</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="3"/>
+        <v>43459</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="58"/>
+      <c r="B18" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="47">
+        <v>43340</v>
+      </c>
+      <c r="E18" s="24">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>43396</v>
+      </c>
+      <c r="G18" s="28">
+        <v>2</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="1"/>
+        <v>43410</v>
+      </c>
+      <c r="I18" s="31">
+        <v>2</v>
+      </c>
+      <c r="J18" s="9">
+        <f t="shared" si="2"/>
+        <v>43424</v>
+      </c>
+      <c r="K18" s="34">
+        <v>3</v>
+      </c>
+      <c r="L18" s="10">
+        <f t="shared" si="3"/>
         <v>43445</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="11" t="s">
+    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="59"/>
+      <c r="B19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C19" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="62">
+      <c r="D19" s="46">
         <v>43242</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E19" s="25">
         <v>3</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F19" s="12">
         <f t="shared" si="0"/>
         <v>43263</v>
       </c>
-      <c r="G18" s="29">
+      <c r="G19" s="29">
         <v>22</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H19" s="13">
         <f t="shared" si="1"/>
         <v>43417</v>
       </c>
-      <c r="I18" s="32">
+      <c r="I19" s="32">
         <v>16</v>
       </c>
-      <c r="J18" s="14">
+      <c r="J19" s="14">
         <f t="shared" si="2"/>
         <v>43529</v>
       </c>
-      <c r="K18" s="35">
+      <c r="K19" s="35">
         <v>7</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L19" s="15">
         <f t="shared" si="3"/>
         <v>43578</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
+    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C20" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="64">
+      <c r="D20" s="48">
         <v>43396</v>
       </c>
-      <c r="E19" s="26">
+      <c r="E20" s="26">
         <v>3</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <f t="shared" si="0"/>
         <v>43417</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G20" s="30">
         <v>4</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H20" s="18">
         <f t="shared" si="1"/>
         <v>43445</v>
       </c>
-      <c r="I19" s="33">
+      <c r="I20" s="33">
         <v>4</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J20" s="19">
         <f t="shared" si="2"/>
         <v>43473</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K20" s="36">
         <v>3</v>
       </c>
-      <c r="L19" s="20">
+      <c r="L20" s="20">
         <f t="shared" si="3"/>
         <v>43494</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="45"/>
-      <c r="B20" s="11" t="s">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="59"/>
+      <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C21" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D20" s="62">
+      <c r="D21" s="46">
         <v>43396</v>
       </c>
-      <c r="E20" s="25">
+      <c r="E21" s="25">
         <v>3</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F21" s="12">
         <f t="shared" si="0"/>
         <v>43417</v>
       </c>
-      <c r="G20" s="29">
+      <c r="G21" s="29">
         <v>4</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H21" s="13">
         <f t="shared" si="1"/>
         <v>43445</v>
       </c>
-      <c r="I20" s="32">
+      <c r="I21" s="32">
         <v>4</v>
       </c>
-      <c r="J20" s="14">
+      <c r="J21" s="14">
         <f t="shared" si="2"/>
         <v>43473</v>
       </c>
-      <c r="K20" s="35">
+      <c r="K21" s="35">
         <v>3</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L21" s="15">
         <f t="shared" si="3"/>
         <v>43494</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="63">
+      <c r="D22" s="47">
         <v>43242</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E22" s="24">
         <v>3</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <f t="shared" si="0"/>
         <v>43263</v>
       </c>
-      <c r="G21" s="28">
-        <v>14</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G22" s="28">
+        <v>22</v>
+      </c>
+      <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>43361</v>
-      </c>
-      <c r="I21" s="31">
+        <v>43417</v>
+      </c>
+      <c r="I22" s="31">
+        <v>8</v>
+      </c>
+      <c r="J22" s="9">
+        <f t="shared" si="2"/>
+        <v>43473</v>
+      </c>
+      <c r="K22" s="34">
+        <v>4</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="3"/>
+        <v>43501</v>
+      </c>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="59"/>
+      <c r="B23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="46">
+        <v>43242</v>
+      </c>
+      <c r="E23" s="25">
         <v>7</v>
       </c>
-      <c r="J21" s="9">
-        <f t="shared" si="2"/>
-        <v>43410</v>
-      </c>
-      <c r="K21" s="34">
-        <v>3</v>
-      </c>
-      <c r="L21" s="10">
-        <f t="shared" si="3"/>
-        <v>43431</v>
-      </c>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
-      <c r="B22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="62">
-        <v>43242</v>
-      </c>
-      <c r="E22" s="25">
-        <v>7</v>
-      </c>
-      <c r="F22" s="12">
+      <c r="F23" s="12">
         <f t="shared" si="0"/>
         <v>43291</v>
       </c>
-      <c r="G22" s="29">
-        <v>11</v>
-      </c>
-      <c r="H22" s="13">
+      <c r="G23" s="29">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>43368</v>
-      </c>
-      <c r="I22" s="32">
-        <v>7</v>
-      </c>
-      <c r="J22" s="14">
+        <v>43410</v>
+      </c>
+      <c r="I23" s="32">
+        <v>3</v>
+      </c>
+      <c r="J23" s="14">
         <f t="shared" si="2"/>
-        <v>43417</v>
-      </c>
-      <c r="K22" s="35">
-        <v>8</v>
-      </c>
-      <c r="L22" s="15">
+        <v>43431</v>
+      </c>
+      <c r="K23" s="35">
+        <v>3</v>
+      </c>
+      <c r="L23" s="15">
         <f t="shared" si="3"/>
-        <v>43473</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A23" s="65" t="s">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="24.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="68"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="68"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="69"/>
-    </row>
-    <row r="24" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A24" s="73" t="s">
+      <c r="B24" s="66"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="49"/>
+      <c r="L24" s="51"/>
+    </row>
+    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A25" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73" t="s">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="73"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="70" t="s">
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="52" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A25" s="71" t="s">
+    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A26" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="74" t="s">
+      <c r="B26" s="54"/>
+      <c r="C26" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="74"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="74"/>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="74"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="72">
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="53">
         <f>H4</f>
         <v>43522</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A26" s="71" t="s">
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A27" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="74" t="s">
+      <c r="B27" s="54"/>
+      <c r="C27" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="74"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="72">
-        <f>MAX(L6:L22)</f>
-        <v>43578</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A27" s="71" t="s">
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="53">
+        <f>MAX(L6:L23)</f>
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A28" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="74" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="74"/>
-      <c r="E27" s="74"/>
-      <c r="F27" s="74"/>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="74"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="72">
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="53">
         <f>H5</f>
-        <v>43620</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A28" s="71" t="s">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A29" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="71"/>
-      <c r="C28" s="74" t="s">
+      <c r="B29" s="54"/>
+      <c r="C29" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="74"/>
-      <c r="J28" s="74"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="72">
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="53">
         <f>J5</f>
-        <v>43648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A29" s="71" t="s">
+        <v>43662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A30" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="74" t="s">
+      <c r="B30" s="54"/>
+      <c r="C30" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="72">
-        <f>L28+14</f>
-        <v>43662</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A30" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="71"/>
-      <c r="C30" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="74"/>
-      <c r="J30" s="74"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="72">
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="53">
         <f>L29+14</f>
         <v>43676</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A31" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="71"/>
-      <c r="C31" s="74" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="74"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="74"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="72">
+      <c r="A31" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="54"/>
+      <c r="C31" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="53">
         <f>L30+14</f>
         <v>43690</v>
       </c>
     </row>
+    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.45">
+      <c r="A32" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="60"/>
+      <c r="K32" s="60"/>
+      <c r="L32" s="53">
+        <f>L31+14</f>
+        <v>43704</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A24:B24"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E3:F3"/>
@@ -4594,21 +4589,36 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A14:A19"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C25:K25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="22" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="F4 E5" formula="1"/>
@@ -4641,7 +4651,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 28-Oct-18</v>
+        <v>Today: 04-Nov-18</v>
       </c>
       <c r="G1" s="3">
         <v>43816</v>
@@ -4654,7 +4664,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43401</v>
+        <v>43408</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4663,7 +4673,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43401</v>
+        <v>43408</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4671,13 +4681,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B5" t="str">
-        <f>Text!A25</f>
+        <f>Text!A26</f>
         <v>EM Integration</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f>Text!L25</f>
+        <f>Text!L26</f>
         <v>43522</v>
       </c>
       <c r="B6">
@@ -4686,7 +4696,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f>Text!L25</f>
+        <f>Text!L26</f>
         <v>43522</v>
       </c>
       <c r="B7">
@@ -4695,14 +4705,14 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B9" t="str">
-        <f>Text!A26</f>
+        <f>Text!A27</f>
         <v>EM Day in the Life Test</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f>Text!L26</f>
-        <v>43578</v>
+        <f>Text!L27</f>
+        <v>43627</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4710,8 +4720,8 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <f>Text!L26</f>
-        <v>43578</v>
+        <f>Text!L27</f>
+        <v>43627</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4722,14 +4732,14 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" t="str">
-        <f>Text!A27</f>
+        <f>Text!A28</f>
         <v>FU Integration</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <f>Text!L27</f>
-        <v>43620</v>
+        <f>Text!L28</f>
+        <v>43634</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4737,8 +4747,8 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <f>Text!L27</f>
-        <v>43620</v>
+        <f>Text!L28</f>
+        <v>43634</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4746,14 +4756,14 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="str">
-        <f>Text!A28</f>
+        <f>Text!A29</f>
         <v>FU Day in the Life Test</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <f>Text!L28</f>
-        <v>43648</v>
+        <f>Text!L29</f>
+        <v>43662</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4761,8 +4771,8 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f>Text!L28</f>
-        <v>43648</v>
+        <f>Text!L29</f>
+        <v>43662</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4770,14 +4780,14 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21" t="str">
-        <f>Text!A29</f>
+        <f>Text!A30</f>
         <v>FRR</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f>Text!L29</f>
-        <v>43662</v>
+        <f>Text!L30</f>
+        <v>43676</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4785,8 +4795,8 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <f>Text!L29</f>
-        <v>43662</v>
+        <f>Text!L30</f>
+        <v>43676</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4794,14 +4804,14 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="str">
-        <f>Text!A30</f>
+        <f>Text!A31</f>
         <v>MRR</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <f>Text!L30</f>
-        <v>43676</v>
+        <f>Text!L31</f>
+        <v>43690</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4809,8 +4819,8 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <f>Text!L30</f>
-        <v>43676</v>
+        <f>Text!L31</f>
+        <v>43690</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4818,14 +4828,14 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="str">
-        <f>Text!A31</f>
+        <f>Text!A32</f>
         <v>ILC</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <f>Text!L31</f>
-        <v>43690</v>
+        <f>Text!L32</f>
+        <v>43704</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4833,8 +4843,8 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <f>Text!L31</f>
-        <v>43690</v>
+        <f>Text!L32</f>
+        <v>43704</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD54667-4BFB-47FB-9870-9EE9A028727A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576C315-737D-4CD1-9054-BC3CD292DB28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="7" r:id="rId1"/>
@@ -229,7 +229,7 @@
     <t>Review of the mission to determine its readiness to execute</t>
   </si>
   <si>
-    <t>V1.1.2</t>
+    <t>V1.1.3</t>
   </si>
 </sst>
 </file>
@@ -782,9 +782,57 @@
     <xf numFmtId="165" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -796,54 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1003,64 +1003,64 @@
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>43221</c:v>
+                  <c:v>43222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43536</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43242</c:v>
+                  <c:v>43243</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43312</c:v>
+                  <c:v>43313</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43340</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43396</c:v>
+                  <c:v>43397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43340</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43368</c:v>
+                  <c:v>43369</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43417</c:v>
+                  <c:v>43418</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43368</c:v>
+                  <c:v>43369</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43340</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43417</c:v>
+                  <c:v>43418</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43368</c:v>
+                  <c:v>43369</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43403</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43340</c:v>
+                  <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43242</c:v>
+                  <c:v>43243</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43396</c:v>
+                  <c:v>43397</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43396</c:v>
+                  <c:v>43397</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43242</c:v>
+                  <c:v>43243</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43242</c:v>
+                  <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1195,7 +1195,7 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>70</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
@@ -1216,7 +1216,7 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>70</c:v>
@@ -1400,10 +1400,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>280</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56</c:v>
@@ -1433,19 +1433,19 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>154</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>28</c:v>
@@ -1589,10 +1589,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>112</c:v>
@@ -1604,13 +1604,13 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>63</c:v>
@@ -1622,31 +1622,31 @@
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>112</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1778,22 +1778,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>105</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>28</c:v>
@@ -1808,34 +1808,34 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,10 +1895,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43522</c:v>
+                  <c:v>43558</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43522</c:v>
+                  <c:v>43558</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,10 +1958,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43627</c:v>
+                  <c:v>43656</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43627</c:v>
+                  <c:v>43656</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,10 +2021,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43634</c:v>
+                  <c:v>43691</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43634</c:v>
+                  <c:v>43691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,10 +2084,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43662</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43662</c:v>
+                  <c:v>43747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,10 +2147,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43676</c:v>
+                  <c:v>43768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43676</c:v>
+                  <c:v>43768</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,10 +2210,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43690</c:v>
+                  <c:v>43789</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43690</c:v>
+                  <c:v>43789</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,10 +2273,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43704</c:v>
+                  <c:v>43810</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43704</c:v>
+                  <c:v>43810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,8 +2369,8 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43816"/>
-          <c:min val="43396"/>
+          <c:max val="43817"/>
+          <c:min val="43397"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -3124,7 +3124,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F73B681A-446B-457B-BF90-6D6DC29765F8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -3464,8 +3464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,27 +3485,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
       <c r="E1" s="42" t="s">
         <v>61</v>
       </c>
       <c r="F1" s="43"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="69"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="61"/>
       <c r="I1" s="42"/>
       <c r="J1" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="67">
+      <c r="K1" s="59">
         <f>L5</f>
-        <v>43704</v>
-      </c>
-      <c r="L1" s="68"/>
+        <v>43810</v>
+      </c>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:16" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
@@ -3520,22 +3520,22 @@
       <c r="D2" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="56" t="s">
+      <c r="F2" s="71"/>
+      <c r="G2" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="57" t="s">
+      <c r="H2" s="72"/>
+      <c r="I2" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="J2" s="57"/>
-      <c r="K2" s="74" t="s">
+      <c r="J2" s="73"/>
+      <c r="K2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="74"/>
+      <c r="L2" s="66"/>
     </row>
     <row r="3" spans="1:16" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="40" t="s">
@@ -3550,26 +3550,26 @@
       <c r="D3" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="E3" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="70"/>
-      <c r="G3" s="71" t="s">
+      <c r="F3" s="62"/>
+      <c r="G3" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="H3" s="63"/>
+      <c r="I3" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="73" t="s">
+      <c r="J3" s="64"/>
+      <c r="K3" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="73"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="44"/>
     </row>
     <row r="4" spans="1:16" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="74" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="6" t="s">
@@ -3579,7 +3579,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="45">
-        <v>43221</v>
+        <v>43222</v>
       </c>
       <c r="E4" s="24">
         <f>(F4-D4)/7</f>
@@ -3587,35 +3587,35 @@
       </c>
       <c r="F4" s="7">
         <f>MIN(D6:D23)</f>
-        <v>43242</v>
+        <v>43243</v>
       </c>
       <c r="G4" s="28">
         <f>(H4-F4)/7</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H4" s="8">
         <f>_xlfn.MAXIFS(L6:L23,C6:C23,"Hardware")</f>
-        <v>43522</v>
+        <v>43558</v>
       </c>
       <c r="I4" s="31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" s="9">
         <f>H4+I4*7</f>
-        <v>43536</v>
+        <v>43586</v>
       </c>
       <c r="K4" s="34">
         <f>(L4-J4)/7</f>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="L4" s="10">
         <f>MAX(L6:L23)+14</f>
-        <v>43641</v>
+        <v>43670</v>
       </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="68"/>
       <c r="B5" s="37" t="s">
         <v>18</v>
       </c>
@@ -3624,41 +3624,40 @@
       </c>
       <c r="D5" s="46">
         <f>J4</f>
-        <v>43536</v>
+        <v>43586</v>
       </c>
       <c r="E5" s="25">
-        <f>(F5-D5)/7</f>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F5" s="12">
-        <f>J4+10*7</f>
-        <v>43606</v>
+        <f>D5+E5*7</f>
+        <v>43635</v>
       </c>
       <c r="G5" s="29">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H5" s="13">
         <f>F5+G5*7</f>
-        <v>43634</v>
+        <v>43691</v>
       </c>
       <c r="I5" s="32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J5" s="14">
         <f>H5+I5*7</f>
-        <v>43662</v>
+        <v>43747</v>
       </c>
       <c r="K5" s="35">
         <f>(L5-J5)/7</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L5" s="15">
         <f>L32</f>
-        <v>43704</v>
+        <v>43810</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="74" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -3668,39 +3667,39 @@
         <v>24</v>
       </c>
       <c r="D6" s="47">
-        <v>43242</v>
+        <v>43243</v>
       </c>
       <c r="E6" s="24">
         <v>2</v>
       </c>
       <c r="F6" s="7">
         <f>D6+E6*7</f>
-        <v>43256</v>
+        <v>43257</v>
       </c>
       <c r="G6" s="28">
         <v>8</v>
       </c>
       <c r="H6" s="8">
         <f>F6+G6*7</f>
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="I6" s="31">
         <v>16</v>
       </c>
       <c r="J6" s="9">
         <f>H6+I6*7</f>
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="K6" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L6" s="10">
         <f>J6+K6*7</f>
-        <v>43445</v>
+        <v>43453</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="58"/>
+      <c r="A7" s="74"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -3708,41 +3707,41 @@
         <v>24</v>
       </c>
       <c r="D7" s="47">
-        <v>43312</v>
+        <v>43313</v>
       </c>
       <c r="E7" s="24">
         <v>2</v>
       </c>
       <c r="F7" s="7">
         <f t="shared" ref="F7:F23" si="0">D7+E7*7</f>
-        <v>43326</v>
+        <v>43327</v>
       </c>
       <c r="G7" s="28">
         <v>8</v>
       </c>
       <c r="H7" s="8">
         <f t="shared" ref="H7:H23" si="1">F7+G7*7</f>
-        <v>43382</v>
+        <v>43383</v>
       </c>
       <c r="I7" s="31">
         <v>8</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" ref="J7:J23" si="2">H7+I7*7</f>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="K7" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L7" s="10">
         <f t="shared" ref="L7:L23" si="3">J7+K7*7</f>
-        <v>43445</v>
+        <v>43467</v>
       </c>
       <c r="O7" s="3"/>
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="74"/>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
@@ -3750,41 +3749,41 @@
         <v>24</v>
       </c>
       <c r="D8" s="47">
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="E8" s="24">
         <v>2</v>
       </c>
       <c r="F8" s="7">
         <f t="shared" si="0"/>
-        <v>43354</v>
+        <v>43355</v>
       </c>
       <c r="G8" s="28">
         <v>3</v>
       </c>
       <c r="H8" s="8">
         <f t="shared" si="1"/>
-        <v>43375</v>
+        <v>43376</v>
       </c>
       <c r="I8" s="31">
         <v>8</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="2"/>
-        <v>43431</v>
+        <v>43432</v>
       </c>
       <c r="K8" s="34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L8" s="10">
         <f t="shared" si="3"/>
-        <v>43438</v>
+        <v>43460</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="2"/>
     </row>
     <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="59"/>
+      <c r="A9" s="68"/>
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
@@ -3792,39 +3791,39 @@
         <v>26</v>
       </c>
       <c r="D9" s="46">
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="E9" s="25">
         <v>3</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" si="0"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="G9" s="29">
         <v>8</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" si="1"/>
-        <v>43473</v>
+        <v>43474</v>
       </c>
       <c r="I9" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="2"/>
-        <v>43494</v>
+        <v>43502</v>
       </c>
       <c r="K9" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L9" s="15">
         <f t="shared" si="3"/>
-        <v>43515</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="67" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
@@ -3834,39 +3833,39 @@
         <v>24</v>
       </c>
       <c r="D10" s="48">
-        <v>43340</v>
+        <v>43404</v>
       </c>
       <c r="E10" s="26">
         <v>3</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="0"/>
-        <v>43361</v>
+        <v>43425</v>
       </c>
       <c r="G10" s="30">
         <v>8</v>
       </c>
       <c r="H10" s="18">
         <f t="shared" si="1"/>
-        <v>43417</v>
+        <v>43481</v>
       </c>
       <c r="I10" s="33">
         <v>7</v>
       </c>
       <c r="J10" s="19">
         <f t="shared" si="2"/>
-        <v>43466</v>
+        <v>43530</v>
       </c>
       <c r="K10" s="36">
         <v>4</v>
       </c>
       <c r="L10" s="20">
         <f t="shared" si="3"/>
-        <v>43494</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="58"/>
+      <c r="A11" s="74"/>
       <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
@@ -3874,39 +3873,39 @@
         <v>26</v>
       </c>
       <c r="D11" s="47">
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="E11" s="24">
         <v>10</v>
       </c>
       <c r="F11" s="7">
         <f t="shared" si="0"/>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="G11" s="28">
         <v>10</v>
       </c>
       <c r="H11" s="8">
         <f t="shared" si="1"/>
-        <v>43508</v>
+        <v>43509</v>
       </c>
       <c r="I11" s="31">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="2"/>
-        <v>43578</v>
+        <v>43607</v>
       </c>
       <c r="K11" s="34">
         <v>7</v>
       </c>
       <c r="L11" s="10">
         <f t="shared" si="3"/>
-        <v>43627</v>
+        <v>43656</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
+      <c r="A12" s="74"/>
       <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
@@ -3914,39 +3913,39 @@
         <v>26</v>
       </c>
       <c r="D12" s="47">
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="E12" s="24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="7">
         <f t="shared" si="0"/>
-        <v>43438</v>
+        <v>43446</v>
       </c>
       <c r="G12" s="28">
         <v>8</v>
       </c>
       <c r="H12" s="8">
         <f t="shared" si="1"/>
-        <v>43494</v>
+        <v>43502</v>
       </c>
       <c r="I12" s="31">
         <v>9</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="2"/>
-        <v>43557</v>
+        <v>43565</v>
       </c>
       <c r="K12" s="34">
         <v>9</v>
       </c>
       <c r="L12" s="10">
         <f t="shared" si="3"/>
-        <v>43620</v>
+        <v>43628</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="68"/>
       <c r="B13" s="11" t="s">
         <v>9</v>
       </c>
@@ -3954,39 +3953,39 @@
         <v>26</v>
       </c>
       <c r="D13" s="46">
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="E13" s="25">
         <v>10</v>
       </c>
       <c r="F13" s="12">
         <f t="shared" si="0"/>
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="G13" s="29">
         <v>7</v>
       </c>
       <c r="H13" s="13">
         <f t="shared" si="1"/>
-        <v>43487</v>
+        <v>43488</v>
       </c>
       <c r="I13" s="32">
         <v>5</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="2"/>
-        <v>43522</v>
+        <v>43523</v>
       </c>
       <c r="K13" s="35">
         <v>10</v>
       </c>
       <c r="L13" s="15">
         <f t="shared" si="3"/>
-        <v>43592</v>
+        <v>43593</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="67" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="16" t="s">
@@ -3996,39 +3995,39 @@
         <v>24</v>
       </c>
       <c r="D14" s="48">
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="E14" s="26">
         <v>7</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="G14" s="30">
         <v>8</v>
       </c>
       <c r="H14" s="18">
         <f t="shared" si="1"/>
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="I14" s="33">
         <v>8</v>
       </c>
       <c r="J14" s="19">
         <f t="shared" si="2"/>
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="K14" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" si="3"/>
-        <v>43522</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="58"/>
+      <c r="A15" s="74"/>
       <c r="B15" s="6" t="s">
         <v>28</v>
       </c>
@@ -4036,39 +4035,39 @@
         <v>26</v>
       </c>
       <c r="D15" s="47">
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="E15" s="24">
         <v>7</v>
       </c>
       <c r="F15" s="7">
         <f t="shared" si="0"/>
-        <v>43466</v>
+        <v>43467</v>
       </c>
       <c r="G15" s="28">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H15" s="8">
         <f t="shared" si="1"/>
-        <v>43487</v>
+        <v>43509</v>
       </c>
       <c r="I15" s="31">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="2"/>
-        <v>43529</v>
+        <v>43607</v>
       </c>
       <c r="K15" s="34">
         <v>7</v>
       </c>
       <c r="L15" s="10">
         <f t="shared" si="3"/>
-        <v>43578</v>
+        <v>43656</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="6" t="str">
         <f>"+X Panel"</f>
         <v>+X Panel</v>
@@ -4077,39 +4076,39 @@
         <v>24</v>
       </c>
       <c r="D16" s="47">
-        <v>43368</v>
+        <v>43369</v>
       </c>
       <c r="E16" s="24">
         <v>3</v>
       </c>
       <c r="F16" s="7">
         <f t="shared" si="0"/>
-        <v>43389</v>
+        <v>43390</v>
       </c>
       <c r="G16" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="8">
         <f t="shared" si="1"/>
-        <v>43403</v>
+        <v>43418</v>
       </c>
       <c r="I16" s="31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="2"/>
-        <v>43417</v>
+        <v>43474</v>
       </c>
       <c r="K16" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L16" s="10">
         <f t="shared" si="3"/>
-        <v>43438</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="6" t="str">
         <f>"-Z Panel"</f>
         <v>-Z Panel</v>
@@ -4118,39 +4117,39 @@
         <v>24</v>
       </c>
       <c r="D17" s="47">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="E17" s="24">
         <v>1</v>
       </c>
       <c r="F17" s="7">
         <f t="shared" si="0"/>
-        <v>43410</v>
+        <v>43411</v>
       </c>
       <c r="G17" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H17" s="8">
         <f t="shared" si="1"/>
-        <v>43424</v>
+        <v>43439</v>
       </c>
       <c r="I17" s="31">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="2"/>
-        <v>43438</v>
+        <v>43495</v>
       </c>
       <c r="K17" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17" s="10">
         <f t="shared" si="3"/>
-        <v>43459</v>
+        <v>43523</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="58"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
@@ -4158,39 +4157,39 @@
         <v>24</v>
       </c>
       <c r="D18" s="47">
-        <v>43340</v>
+        <v>43341</v>
       </c>
       <c r="E18" s="24">
         <v>8</v>
       </c>
       <c r="F18" s="7">
         <f t="shared" si="0"/>
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="G18" s="28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" s="8">
         <f t="shared" si="1"/>
-        <v>43410</v>
+        <v>43425</v>
       </c>
       <c r="I18" s="31">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="2"/>
-        <v>43424</v>
+        <v>43474</v>
       </c>
       <c r="K18" s="34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18" s="10">
         <f t="shared" si="3"/>
-        <v>43445</v>
+        <v>43502</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
+      <c r="A19" s="68"/>
       <c r="B19" s="11" t="s">
         <v>31</v>
       </c>
@@ -4198,39 +4197,39 @@
         <v>26</v>
       </c>
       <c r="D19" s="46">
-        <v>43242</v>
+        <v>43243</v>
       </c>
       <c r="E19" s="25">
         <v>3</v>
       </c>
       <c r="F19" s="12">
         <f t="shared" si="0"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G19" s="29">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H19" s="13">
         <f t="shared" si="1"/>
-        <v>43417</v>
+        <v>43446</v>
       </c>
       <c r="I19" s="32">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>43529</v>
+        <v>43579</v>
       </c>
       <c r="K19" s="35">
         <v>7</v>
       </c>
       <c r="L19" s="15">
         <f t="shared" si="3"/>
-        <v>43578</v>
+        <v>43628</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="61" t="s">
+      <c r="A20" s="67" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="16" t="s">
@@ -4240,39 +4239,39 @@
         <v>24</v>
       </c>
       <c r="D20" s="48">
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="E20" s="26">
         <v>3</v>
       </c>
       <c r="F20" s="17">
         <f t="shared" si="0"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="G20" s="30">
         <v>4</v>
       </c>
       <c r="H20" s="18">
         <f t="shared" si="1"/>
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="I20" s="33">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J20" s="19">
         <f t="shared" si="2"/>
-        <v>43473</v>
+        <v>43502</v>
       </c>
       <c r="K20" s="36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L20" s="20">
         <f t="shared" si="3"/>
-        <v>43494</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="59"/>
+      <c r="A21" s="68"/>
       <c r="B21" s="11" t="s">
         <v>20</v>
       </c>
@@ -4280,39 +4279,39 @@
         <v>24</v>
       </c>
       <c r="D21" s="46">
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="E21" s="25">
         <v>3</v>
       </c>
       <c r="F21" s="12">
         <f t="shared" si="0"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="G21" s="29">
         <v>4</v>
       </c>
       <c r="H21" s="13">
         <f t="shared" si="1"/>
-        <v>43445</v>
+        <v>43446</v>
       </c>
       <c r="I21" s="32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J21" s="14">
         <f t="shared" si="2"/>
-        <v>43473</v>
+        <v>43502</v>
       </c>
       <c r="K21" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21" s="15">
         <f t="shared" si="3"/>
-        <v>43494</v>
+        <v>43530</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="67" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
@@ -4322,40 +4321,40 @@
         <v>24</v>
       </c>
       <c r="D22" s="47">
-        <v>43242</v>
+        <v>43243</v>
       </c>
       <c r="E22" s="24">
         <v>3</v>
       </c>
       <c r="F22" s="7">
         <f t="shared" si="0"/>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="G22" s="28">
         <v>22</v>
       </c>
       <c r="H22" s="8">
         <f t="shared" si="1"/>
-        <v>43417</v>
+        <v>43418</v>
       </c>
       <c r="I22" s="31">
         <v>8</v>
       </c>
       <c r="J22" s="9">
         <f t="shared" si="2"/>
-        <v>43473</v>
+        <v>43474</v>
       </c>
       <c r="K22" s="34">
         <v>4</v>
       </c>
       <c r="L22" s="10">
         <f t="shared" si="3"/>
-        <v>43501</v>
+        <v>43502</v>
       </c>
       <c r="M22" s="4"/>
     </row>
     <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="59"/>
+      <c r="A23" s="68"/>
       <c r="B23" s="11" t="s">
         <v>15</v>
       </c>
@@ -4363,44 +4362,44 @@
         <v>24</v>
       </c>
       <c r="D23" s="46">
-        <v>43242</v>
+        <v>43243</v>
       </c>
       <c r="E23" s="25">
         <v>7</v>
       </c>
       <c r="F23" s="12">
         <f t="shared" si="0"/>
-        <v>43291</v>
+        <v>43292</v>
       </c>
       <c r="G23" s="29">
         <v>17</v>
       </c>
       <c r="H23" s="13">
         <f t="shared" si="1"/>
-        <v>43410</v>
+        <v>43411</v>
       </c>
       <c r="I23" s="32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J23" s="14">
         <f t="shared" si="2"/>
-        <v>43431</v>
+        <v>43439</v>
       </c>
       <c r="K23" s="35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L23" s="15">
         <f t="shared" si="3"/>
-        <v>43452</v>
+        <v>43467</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="49"/>
       <c r="F24" s="50"/>
       <c r="G24" s="49"/>
@@ -4411,186 +4410,178 @@
       <c r="L24" s="51"/>
     </row>
     <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A25" s="62" t="s">
+      <c r="A25" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62" t="s">
+      <c r="B25" s="58"/>
+      <c r="C25" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
       <c r="L25" s="52" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="60" t="s">
+      <c r="B26" s="69"/>
+      <c r="C26" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
-      <c r="J26" s="60"/>
-      <c r="K26" s="60"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
       <c r="L26" s="53">
         <f>H4</f>
-        <v>43522</v>
+        <v>43558</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="60" t="s">
+      <c r="B27" s="69"/>
+      <c r="C27" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="60"/>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="70"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
       <c r="L27" s="53">
         <f>MAX(L6:L23)</f>
-        <v>43627</v>
+        <v>43656</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="60" t="s">
+      <c r="B28" s="69"/>
+      <c r="C28" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="60"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
       <c r="L28" s="53">
         <f>H5</f>
-        <v>43634</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="60" t="s">
+      <c r="B29" s="69"/>
+      <c r="C29" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
-      <c r="G29" s="60"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="60"/>
-      <c r="J29" s="60"/>
-      <c r="K29" s="60"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="70"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
       <c r="L29" s="53">
         <f>J5</f>
-        <v>43662</v>
+        <v>43747</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="60" t="s">
+      <c r="B30" s="69"/>
+      <c r="C30" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
       <c r="L30" s="53">
-        <f>L29+14</f>
-        <v>43676</v>
+        <f>L29+21</f>
+        <v>43768</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A31" s="54" t="s">
+      <c r="A31" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="54"/>
-      <c r="C31" s="60" t="s">
+      <c r="B31" s="69"/>
+      <c r="C31" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="60"/>
-      <c r="G31" s="60"/>
-      <c r="H31" s="60"/>
-      <c r="I31" s="60"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="60"/>
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
       <c r="L31" s="53">
-        <f>L30+14</f>
-        <v>43690</v>
+        <f>L30+21</f>
+        <v>43789</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="60" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="60"/>
-      <c r="G32" s="60"/>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
-      <c r="J32" s="60"/>
-      <c r="K32" s="60"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
       <c r="L32" s="53">
-        <f>L31+14</f>
-        <v>43704</v>
+        <f>L31+21</f>
+        <v>43810</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A10:A13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C25:K25"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C26:K26"/>
     <mergeCell ref="C30:K30"/>
@@ -4605,14 +4596,22 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C25:K25"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4621,7 +4620,7 @@
     <brk id="23" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="F4 E5" formula="1"/>
+    <ignoredError sqref="F4" formula="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -4631,7 +4630,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4651,7 +4650,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 04-Nov-18</v>
+        <v>Today: 09-Nov-18</v>
       </c>
       <c r="G1" s="3">
         <v>43816</v>
@@ -4664,7 +4663,7 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43408</v>
+        <v>43413</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4673,7 +4672,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43408</v>
+        <v>43413</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4688,7 +4687,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f>Text!L26</f>
-        <v>43522</v>
+        <v>43558</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4697,7 +4696,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f>Text!L26</f>
-        <v>43522</v>
+        <v>43558</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4712,7 +4711,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f>Text!L27</f>
-        <v>43627</v>
+        <v>43656</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4721,7 +4720,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f>Text!L27</f>
-        <v>43627</v>
+        <v>43656</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4739,7 +4738,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f>Text!L28</f>
-        <v>43634</v>
+        <v>43691</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4748,7 +4747,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f>Text!L28</f>
-        <v>43634</v>
+        <v>43691</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4763,7 +4762,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f>Text!L29</f>
-        <v>43662</v>
+        <v>43747</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4772,7 +4771,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f>Text!L29</f>
-        <v>43662</v>
+        <v>43747</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4787,7 +4786,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f>Text!L30</f>
-        <v>43676</v>
+        <v>43768</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4796,7 +4795,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f>Text!L30</f>
-        <v>43676</v>
+        <v>43768</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4811,7 +4810,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f>Text!L31</f>
-        <v>43690</v>
+        <v>43789</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4820,7 +4819,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f>Text!L31</f>
-        <v>43690</v>
+        <v>43789</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4835,7 +4834,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f>Text!L32</f>
-        <v>43704</v>
+        <v>43810</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4844,7 +4843,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f>Text!L32</f>
-        <v>43704</v>
+        <v>43810</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,35 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Readme\Native\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E576C315-737D-4CD1-9054-BC3CD292DB28}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D963D1-31E0-4823-A389-35C98584F524}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="7" r:id="rId1"/>
     <sheet name="Gantt" sheetId="8" r:id="rId2"/>
-    <sheet name="Gantt Lines" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="Gantt Lines" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Design">Text!$E$4:$E$23</definedName>
+    <definedName name="Design">Text!$E$4:$E$26</definedName>
     <definedName name="Design_Days">Design*7</definedName>
-    <definedName name="Implement_1">Text!$G$4:$G$23</definedName>
+    <definedName name="Implement_1">Text!$G$4:$G$26</definedName>
     <definedName name="Implement_1_Days">Implement_1*7</definedName>
-    <definedName name="Implement_2">Text!$I$4:$I$23</definedName>
+    <definedName name="Implement_2">Text!$I$4:$I$26</definedName>
     <definedName name="Implement_2_Days">Implement_2*7</definedName>
-    <definedName name="Labels">Text!$A$4:$B$23</definedName>
-    <definedName name="Start">Text!$D$4:$D$23</definedName>
-    <definedName name="Test">Text!$K$4:$K$23</definedName>
+    <definedName name="Labels">Text!$A$4:$B$26</definedName>
+    <definedName name="Start">Text!$D$4:$D$26</definedName>
+    <definedName name="Test">Text!$K$4:$K$26</definedName>
     <definedName name="Test_Days">Test*7</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,6 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
   <si>
     <t>Start</t>
   </si>
@@ -79,12 +80,6 @@
     <t>Communications</t>
   </si>
   <si>
-    <t>Backplane</t>
-  </si>
-  <si>
-    <t>Mainboard</t>
-  </si>
-  <si>
     <t>CougSat-1</t>
   </si>
   <si>
@@ -106,15 +101,6 @@
     <t>Mechanical</t>
   </si>
   <si>
-    <t>Germination PCB</t>
-  </si>
-  <si>
-    <t>Camera PCB</t>
-  </si>
-  <si>
-    <t>Ground Station</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -127,9 +113,6 @@
     <t>Software</t>
   </si>
   <si>
-    <t>Comms PCB</t>
-  </si>
-  <si>
     <t>Comms Controller</t>
   </si>
   <si>
@@ -229,7 +212,37 @@
     <t>Review of the mission to determine its readiness to execute</t>
   </si>
   <si>
-    <t>V1.1.3</t>
+    <t>Mainboard V2.0</t>
+  </si>
+  <si>
+    <t>V1.2.0</t>
+  </si>
+  <si>
+    <t>Mainboard V2.1</t>
+  </si>
+  <si>
+    <t>Backplane V2.0</t>
+  </si>
+  <si>
+    <t>Backplane V3.0</t>
+  </si>
+  <si>
+    <t>Mainboard V1.1</t>
+  </si>
+  <si>
+    <t>Comms PCB V1.0</t>
+  </si>
+  <si>
+    <t>Comms PCB V1.1</t>
+  </si>
+  <si>
+    <t>Ground Station V1.0</t>
+  </si>
+  <si>
+    <t>Germination PCB V1.0</t>
+  </si>
+  <si>
+    <t>Camera PCB V1.1</t>
   </si>
 </sst>
 </file>
@@ -641,12 +654,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -695,7 +706,7 @@
     <xf numFmtId="165" fontId="7" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +734,7 @@
     <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,7 +743,7 @@
     <xf numFmtId="166" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -782,6 +793,24 @@
     <xf numFmtId="165" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -794,9 +823,6 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -821,18 +847,6 @@
     <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -842,8 +856,17 @@
     <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -910,7 +933,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -919,57 +942,66 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard</c:v>
+                    <c:v>Mainboard V2.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>Mainboard V2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Backplane</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>Backplane V2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Backplane V3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>PMIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Mainboard</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
+                    <c:v>Mainboard V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="10">
                     <c:v>IFJR Controller</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="11">
                     <c:v>IHU</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Comms PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
+                    <c:v>Comms PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Comms PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>+X Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>-Z Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Ground Station</c:v>
-                  </c:pt>
                   <c:pt idx="15">
+                    <c:v>+X Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Ground Station V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Camera PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Germination PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
+                    <c:v>Camera PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Germination PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -980,16 +1012,16 @@
                   <c:pt idx="2">
                     <c:v>EPS</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>Avionics</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="19">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="21">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1001,65 +1033,74 @@
               <c:f>[0]!Start</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>43222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43586</c:v>
+                  <c:v>43740</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43243</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>43439</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>43313</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
+                  <c:v>43446</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>43397</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>43369</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>43418</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>43369</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43369</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>43341</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>43418</c:v>
-                </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
+                  <c:v>43558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43502</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>43369</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="16">
                   <c:v>43404</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="17">
                   <c:v>43341</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>43243</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>43397</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>43397</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>43243</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>43397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43397</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43243</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
@@ -1099,7 +1140,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1108,57 +1149,66 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard</c:v>
+                    <c:v>Mainboard V2.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>Mainboard V2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Backplane</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>Backplane V2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Backplane V3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>PMIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Mainboard</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
+                    <c:v>Mainboard V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="10">
                     <c:v>IFJR Controller</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="11">
                     <c:v>IHU</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Comms PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
+                    <c:v>Comms PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Comms PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>+X Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>-Z Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Ground Station</c:v>
-                  </c:pt>
                   <c:pt idx="15">
+                    <c:v>+X Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Ground Station V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Camera PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Germination PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
+                    <c:v>Camera PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Germination PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1169,16 +1219,16 @@
                   <c:pt idx="2">
                     <c:v>EPS</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>Avionics</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="19">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="21">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1190,48 +1240,48 @@
               <c:f>[0]!Design_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="8">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>56</c:v>
@@ -1240,15 +1290,24 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>21</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
@@ -1307,7 +1366,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1316,57 +1375,66 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard</c:v>
+                    <c:v>Mainboard V2.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>Mainboard V2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Backplane</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>Backplane V2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Backplane V3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>PMIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Mainboard</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
+                    <c:v>Mainboard V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="10">
                     <c:v>IFJR Controller</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="11">
                     <c:v>IHU</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Comms PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
+                    <c:v>Comms PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Comms PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>+X Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>-Z Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Ground Station</c:v>
-                  </c:pt>
                   <c:pt idx="15">
+                    <c:v>+X Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Ground Station V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Camera PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Germination PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
+                    <c:v>Camera PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Germination PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1377,16 +1445,16 @@
                   <c:pt idx="2">
                     <c:v>EPS</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>Avionics</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="19">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="21">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1398,66 +1466,75 @@
               <c:f>[0]!Implement_1_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>315</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>70</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>182</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>154</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>119</c:v>
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,7 +1573,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1505,57 +1582,66 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard</c:v>
+                    <c:v>Mainboard V2.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>Mainboard V2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Backplane</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>Backplane V2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Backplane V3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>PMIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Mainboard</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
+                    <c:v>Mainboard V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="10">
                     <c:v>IFJR Controller</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="11">
                     <c:v>IHU</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Comms PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
+                    <c:v>Comms PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Comms PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>+X Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>-Z Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Ground Station</c:v>
-                  </c:pt>
                   <c:pt idx="15">
+                    <c:v>+X Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Ground Station V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Camera PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Germination PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
+                    <c:v>Camera PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Germination PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1566,16 +1652,16 @@
                   <c:pt idx="2">
                     <c:v>EPS</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>Avionics</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="19">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="21">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1587,66 +1673,75 @@
               <c:f>[0]!Implement_2_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="9">
                   <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>98</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="20">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28</c:v>
+                <c:pt idx="21">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1685,7 +1780,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>Engineering Model</c:v>
@@ -1694,57 +1789,66 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard</c:v>
+                    <c:v>Mainboard V2.0</c:v>
                   </c:pt>
                   <c:pt idx="3">
+                    <c:v>Mainboard V2.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
                   </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Backplane</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>Backplane V2.0</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Backplane V3.0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
                     <c:v>PMIC</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Mainboard</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
+                    <c:v>Mainboard V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="10">
                     <c:v>IFJR Controller</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="11">
                     <c:v>IHU</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>Comms PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
+                    <c:v>Comms PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Comms PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="12">
-                    <c:v>+X Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>-Z Panel</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Ground Station</c:v>
-                  </c:pt>
                   <c:pt idx="15">
+                    <c:v>+X Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Ground Station V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
                     <c:v>Ground Computer</c:v>
                   </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Camera PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Germination PCB</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="19">
+                    <c:v>Camera PCB V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Germination PCB V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
                     <c:v>Structure</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1755,16 +1859,16 @@
                   <c:pt idx="2">
                     <c:v>EPS</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="8">
                     <c:v>Avionics</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="19">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="18">
+                  <c:pt idx="21">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1776,66 +1880,75 @@
               <c:f>[0]!Test_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
+                <c:ptCount val="23"/>
                 <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>63</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1895,10 +2008,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43558</c:v>
+                  <c:v>43726</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43558</c:v>
+                  <c:v>43726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1958,10 +2071,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43656</c:v>
+                  <c:v>43782</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43656</c:v>
+                  <c:v>43782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2021,10 +2134,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43691</c:v>
+                  <c:v>43810</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43691</c:v>
+                  <c:v>43810</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2084,10 +2197,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43747</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43747</c:v>
+                  <c:v>43866</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2147,10 +2260,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43768</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43768</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2210,10 +2323,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43789</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43789</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,10 +2386,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43810</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43810</c:v>
+                  <c:v>43929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2369,8 +2482,8 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43817"/>
-          <c:min val="43397"/>
+          <c:max val="43957"/>
+          <c:min val="43467"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -3124,7 +3237,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F73B681A-446B-457B-BF90-6D6DC29765F8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -3136,7 +3249,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12239625" cy="7210425"/>
+    <xdr:ext cx="12225338" cy="7196138"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3462,1143 +3575,1245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" style="25" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="24.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43" t="s">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="41"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="62">
+        <f>L5</f>
+        <v>43929</v>
+      </c>
+      <c r="L1" s="63"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="59">
-        <f>L5</f>
-        <v>43810</v>
-      </c>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:16" s="5" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="71" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="72" t="s">
+      <c r="D3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="66" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="66"/>
-    </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="62"/>
-      <c r="G3" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="63"/>
-      <c r="I3" s="64" t="s">
+      <c r="E3" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="65"/>
-      <c r="M3" s="44"/>
-    </row>
-    <row r="4" spans="1:16" ht="21.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="45">
+      <c r="F3" s="65"/>
+      <c r="G3" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="66"/>
+      <c r="I3" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="68"/>
+      <c r="M3" s="42"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="43">
         <v>43222</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="22">
         <f>(F4-D4)/7</f>
         <v>3</v>
       </c>
-      <c r="F4" s="7">
-        <f>MIN(D6:D23)</f>
+      <c r="F4" s="5">
+        <f>MIN(D6:D26)</f>
         <v>43243</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <f>(H4-F4)/7</f>
-        <v>45</v>
-      </c>
-      <c r="H4" s="8">
-        <f>_xlfn.MAXIFS(L6:L23,C6:C23,"Hardware")</f>
-        <v>43558</v>
-      </c>
-      <c r="I4" s="31">
+        <v>69</v>
+      </c>
+      <c r="H4" s="6">
+        <f>_xlfn.MAXIFS(L6:L26,C6:C26,"Hardware")</f>
+        <v>43726</v>
+      </c>
+      <c r="I4" s="29">
+        <v>2</v>
+      </c>
+      <c r="J4" s="7">
+        <f>H4+I4*7</f>
+        <v>43740</v>
+      </c>
+      <c r="K4" s="32">
+        <f>(L4-J4)/7</f>
+        <v>10</v>
+      </c>
+      <c r="L4" s="8">
+        <f>MAX(L6:L26)+28</f>
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="54"/>
+      <c r="B5" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="44">
+        <f>J4</f>
+        <v>43740</v>
+      </c>
+      <c r="E5" s="23">
         <v>4</v>
       </c>
-      <c r="J4" s="9">
-        <f>H4+I4*7</f>
-        <v>43586</v>
-      </c>
-      <c r="K4" s="34">
-        <f>(L4-J4)/7</f>
+      <c r="F5" s="10">
+        <f>D5+E5*7</f>
+        <v>43768</v>
+      </c>
+      <c r="G5" s="27">
+        <f>(H5-F5)/7</f>
+        <v>6</v>
+      </c>
+      <c r="H5" s="11">
+        <f>L4</f>
+        <v>43810</v>
+      </c>
+      <c r="I5" s="30">
+        <v>8</v>
+      </c>
+      <c r="J5" s="12">
+        <f>H5+I5*7</f>
+        <v>43866</v>
+      </c>
+      <c r="K5" s="33">
         <v>12</v>
       </c>
-      <c r="L4" s="10">
-        <f>MAX(L6:L23)+14</f>
-        <v>43670</v>
-      </c>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="46">
-        <f>J4</f>
-        <v>43586</v>
-      </c>
-      <c r="E5" s="25">
-        <v>7</v>
-      </c>
-      <c r="F5" s="12">
-        <f>D5+E5*7</f>
-        <v>43635</v>
-      </c>
-      <c r="G5" s="29">
-        <v>8</v>
-      </c>
-      <c r="H5" s="13">
-        <f>F5+G5*7</f>
-        <v>43691</v>
-      </c>
-      <c r="I5" s="32">
-        <v>8</v>
-      </c>
-      <c r="J5" s="14">
-        <f>H5+I5*7</f>
-        <v>43747</v>
-      </c>
-      <c r="K5" s="35">
-        <f>(L5-J5)/7</f>
-        <v>9</v>
-      </c>
-      <c r="L5" s="15">
-        <f>L32</f>
-        <v>43810</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="74" t="s">
+      <c r="L5" s="13">
+        <f>L35</f>
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="47">
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="45">
         <v>43243</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="5">
         <f>D6+E6*7</f>
         <v>43257</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G6" s="26">
         <v>8</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <f>F6+G6*7</f>
         <v>43313</v>
       </c>
-      <c r="I6" s="31">
-        <v>16</v>
-      </c>
-      <c r="J6" s="9">
+      <c r="I6" s="29">
+        <v>18</v>
+      </c>
+      <c r="J6" s="7">
         <f>H6+I6*7</f>
-        <v>43425</v>
-      </c>
-      <c r="K6" s="34">
+        <v>43439</v>
+      </c>
+      <c r="K6" s="32">
+        <v>17</v>
+      </c>
+      <c r="L6" s="8">
+        <f>J6+K6*7</f>
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="53"/>
+      <c r="B7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="45">
+        <f>J6</f>
+        <v>43439</v>
+      </c>
+      <c r="E7" s="22">
+        <f>(F7-D7)/7</f>
+        <v>17</v>
+      </c>
+      <c r="F7" s="5">
+        <f>L6</f>
+        <v>43558</v>
+      </c>
+      <c r="G7" s="26">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6">
+        <f>F7+G7*7</f>
+        <v>43572</v>
+      </c>
+      <c r="I7" s="29">
+        <v>6</v>
+      </c>
+      <c r="J7" s="7">
+        <f>H7+I7*7</f>
+        <v>43614</v>
+      </c>
+      <c r="K7" s="32">
         <v>4</v>
       </c>
-      <c r="L6" s="10">
-        <f>J6+K6*7</f>
-        <v>43453</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="74"/>
-      <c r="B7" s="6" t="s">
+      <c r="L7" s="8">
+        <f>J7+K7*7</f>
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="53"/>
+      <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="47">
+      <c r="C8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="45">
         <v>43313</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E8" s="22">
         <v>2</v>
       </c>
-      <c r="F7" s="7">
-        <f t="shared" ref="F7:F23" si="0">D7+E7*7</f>
+      <c r="F8" s="5">
+        <f t="shared" ref="F8:F26" si="0">D8+E8*7</f>
         <v>43327</v>
       </c>
-      <c r="G7" s="28">
+      <c r="G8" s="26">
         <v>8</v>
       </c>
-      <c r="H7" s="8">
-        <f t="shared" ref="H7:H23" si="1">F7+G7*7</f>
+      <c r="H8" s="6">
+        <f t="shared" ref="H8:H26" si="1">F8+G8*7</f>
         <v>43383</v>
       </c>
-      <c r="I7" s="31">
+      <c r="I8" s="29">
+        <v>22</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" ref="J8:J26" si="2">H8+I8*7</f>
+        <v>43537</v>
+      </c>
+      <c r="K8" s="32">
         <v>8</v>
       </c>
-      <c r="J7" s="9">
-        <f t="shared" ref="J7:J23" si="2">H7+I7*7</f>
-        <v>43439</v>
-      </c>
-      <c r="K7" s="34">
-        <v>4</v>
-      </c>
-      <c r="L7" s="10">
-        <f t="shared" ref="L7:L23" si="3">J7+K7*7</f>
-        <v>43467</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="47">
+      <c r="L8" s="8">
+        <f t="shared" ref="L8:L26" si="3">J8+K8*7</f>
+        <v>43593</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="53"/>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="45">
         <v>43341</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E9" s="22">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>43355</v>
       </c>
-      <c r="G8" s="28">
+      <c r="G9" s="26">
         <v>3</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H9" s="6">
         <f t="shared" si="1"/>
         <v>43376</v>
       </c>
-      <c r="I8" s="31">
-        <v>8</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="I9" s="29">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
         <f t="shared" si="2"/>
-        <v>43432</v>
-      </c>
-      <c r="K8" s="34">
-        <v>4</v>
-      </c>
-      <c r="L8" s="10">
+        <v>43446</v>
+      </c>
+      <c r="K9" s="32">
+        <v>11</v>
+      </c>
+      <c r="L9" s="8">
         <f t="shared" si="3"/>
-        <v>43460</v>
-      </c>
-      <c r="O8" s="3"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="11" t="s">
+        <v>43523</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="53"/>
+      <c r="B10" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="45">
+        <f>J9</f>
+        <v>43446</v>
+      </c>
+      <c r="E10" s="22">
+        <f>(F10-D10)/7</f>
+        <v>11</v>
+      </c>
+      <c r="F10" s="5">
+        <f>L9</f>
+        <v>43523</v>
+      </c>
+      <c r="G10" s="26">
+        <v>2</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" ref="H10" si="4">F10+G10*7</f>
+        <v>43537</v>
+      </c>
+      <c r="I10" s="29">
         <v>6</v>
       </c>
-      <c r="C9" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="46">
+      <c r="J10" s="7">
+        <f t="shared" ref="J10" si="5">H10+I10*7</f>
+        <v>43579</v>
+      </c>
+      <c r="K10" s="32">
+        <v>2</v>
+      </c>
+      <c r="L10" s="8">
+        <f t="shared" ref="L10" si="6">J10+K10*7</f>
+        <v>43593</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="54"/>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="44">
         <v>43397</v>
       </c>
-      <c r="E9" s="25">
+      <c r="E11" s="23">
         <v>3</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F11" s="10">
         <f t="shared" si="0"/>
         <v>43418</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G11" s="27">
+        <v>20</v>
+      </c>
+      <c r="H11" s="11">
+        <f t="shared" si="1"/>
+        <v>43558</v>
+      </c>
+      <c r="I11" s="30">
         <v>8</v>
       </c>
-      <c r="H9" s="13">
+      <c r="J11" s="12">
+        <f t="shared" si="2"/>
+        <v>43614</v>
+      </c>
+      <c r="K11" s="33">
+        <v>8</v>
+      </c>
+      <c r="L11" s="13">
+        <f t="shared" si="3"/>
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="46">
+        <v>43404</v>
+      </c>
+      <c r="E12" s="24">
+        <v>3</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>43425</v>
+      </c>
+      <c r="G12" s="28">
+        <v>19</v>
+      </c>
+      <c r="H12" s="16">
+        <f t="shared" si="1"/>
+        <v>43558</v>
+      </c>
+      <c r="I12" s="31">
+        <v>16</v>
+      </c>
+      <c r="J12" s="17">
+        <f t="shared" si="2"/>
+        <v>43670</v>
+      </c>
+      <c r="K12" s="34">
+        <v>8</v>
+      </c>
+      <c r="L12" s="18">
+        <f t="shared" si="3"/>
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="53"/>
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="45">
+        <v>43369</v>
+      </c>
+      <c r="E13" s="22">
+        <v>10</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>43439</v>
+      </c>
+      <c r="G13" s="26">
+        <v>17</v>
+      </c>
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>43558</v>
+      </c>
+      <c r="I13" s="29">
+        <v>14</v>
+      </c>
+      <c r="J13" s="7">
+        <f t="shared" si="2"/>
+        <v>43656</v>
+      </c>
+      <c r="K13" s="32">
+        <v>8</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="3"/>
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="53"/>
+      <c r="B14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="45">
+        <v>43558</v>
+      </c>
+      <c r="E14" s="22">
+        <v>8</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>43614</v>
+      </c>
+      <c r="G14" s="26">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>43670</v>
+      </c>
+      <c r="I14" s="29">
+        <v>8</v>
+      </c>
+      <c r="J14" s="7">
+        <f t="shared" si="2"/>
+        <v>43726</v>
+      </c>
+      <c r="K14" s="32">
+        <v>8</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="3"/>
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="54"/>
+      <c r="B15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="44">
+        <v>43369</v>
+      </c>
+      <c r="E15" s="23">
+        <v>14</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="0"/>
+        <v>43467</v>
+      </c>
+      <c r="G15" s="27">
+        <v>20</v>
+      </c>
+      <c r="H15" s="11">
+        <f t="shared" si="1"/>
+        <v>43607</v>
+      </c>
+      <c r="I15" s="30">
+        <v>8</v>
+      </c>
+      <c r="J15" s="12">
+        <f t="shared" si="2"/>
+        <v>43663</v>
+      </c>
+      <c r="K15" s="33">
+        <v>8</v>
+      </c>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>43719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="73" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="46">
+        <v>43341</v>
+      </c>
+      <c r="E16" s="24">
+        <v>11</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>43418</v>
+      </c>
+      <c r="G16" s="28">
+        <v>8</v>
+      </c>
+      <c r="H16" s="16">
         <f t="shared" si="1"/>
         <v>43474</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I16" s="75">
+        <v>12</v>
+      </c>
+      <c r="J16" s="17">
+        <f t="shared" si="2"/>
+        <v>43558</v>
+      </c>
+      <c r="K16" s="76">
+        <v>8</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="3"/>
+        <v>43614</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="53"/>
+      <c r="B17" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="45">
+        <f>J16</f>
+        <v>43558</v>
+      </c>
+      <c r="E17" s="22">
+        <f>(F17-D17)/7</f>
+        <v>8</v>
+      </c>
+      <c r="F17" s="5">
+        <f>L16</f>
+        <v>43614</v>
+      </c>
+      <c r="G17" s="26">
+        <v>2</v>
+      </c>
+      <c r="H17" s="6">
+        <f t="shared" ref="H17" si="7">F17+G17*7</f>
+        <v>43628</v>
+      </c>
+      <c r="I17" s="29">
+        <v>6</v>
+      </c>
+      <c r="J17" s="7">
+        <f t="shared" ref="J17" si="8">H17+I17*7</f>
+        <v>43670</v>
+      </c>
+      <c r="K17" s="32">
         <v>4</v>
       </c>
-      <c r="J9" s="14">
+      <c r="L17" s="8">
+        <f t="shared" ref="L17" si="9">J17+K17*7</f>
+        <v>43698</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="53"/>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="45">
+        <v>43502</v>
+      </c>
+      <c r="E18" s="22">
+        <v>8</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>43558</v>
+      </c>
+      <c r="G18" s="26">
+        <v>4</v>
+      </c>
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>43586</v>
+      </c>
+      <c r="I18" s="29">
+        <v>12</v>
+      </c>
+      <c r="J18" s="7">
         <f t="shared" si="2"/>
-        <v>43502</v>
-      </c>
-      <c r="K9" s="35">
+        <v>43670</v>
+      </c>
+      <c r="K18" s="32">
+        <v>8</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="3"/>
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="53"/>
+      <c r="B19" s="4" t="str">
+        <f>"+X Panel V1.0"</f>
+        <v>+X Panel V1.0</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="45">
+        <v>43369</v>
+      </c>
+      <c r="E19" s="22">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>43390</v>
+      </c>
+      <c r="G19" s="26">
+        <v>24</v>
+      </c>
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>43558</v>
+      </c>
+      <c r="I19" s="29">
+        <v>6</v>
+      </c>
+      <c r="J19" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
+      </c>
+      <c r="K19" s="32">
+        <v>6</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="3"/>
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="53"/>
+      <c r="B20" s="4" t="str">
+        <f>"-Z Panel V1.0"</f>
+        <v>-Z Panel V1.0</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="45">
+        <v>43404</v>
+      </c>
+      <c r="E20" s="22">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>43411</v>
+      </c>
+      <c r="G20" s="26">
+        <v>21</v>
+      </c>
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>43558</v>
+      </c>
+      <c r="I20" s="29">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7">
+        <f t="shared" si="2"/>
+        <v>43600</v>
+      </c>
+      <c r="K20" s="32">
+        <v>6</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="3"/>
+        <v>43642</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="53"/>
+      <c r="B21" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="45">
+        <v>43341</v>
+      </c>
+      <c r="E21" s="22">
+        <v>8</v>
+      </c>
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>43397</v>
+      </c>
+      <c r="G21" s="26">
         <v>4</v>
       </c>
-      <c r="L9" s="15">
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>43425</v>
+      </c>
+      <c r="I21" s="29">
+        <v>22</v>
+      </c>
+      <c r="J21" s="7">
+        <f t="shared" si="2"/>
+        <v>43579</v>
+      </c>
+      <c r="K21" s="32">
+        <v>2</v>
+      </c>
+      <c r="L21" s="8">
         <f t="shared" si="3"/>
-        <v>43530</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+        <v>43593</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="54"/>
+      <c r="B22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="44">
+        <v>43243</v>
+      </c>
+      <c r="E22" s="23">
+        <v>3</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="0"/>
+        <v>43264</v>
+      </c>
+      <c r="G22" s="27">
+        <v>44</v>
+      </c>
+      <c r="H22" s="11">
+        <f t="shared" si="1"/>
+        <v>43572</v>
+      </c>
+      <c r="I22" s="30">
+        <v>20</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="2"/>
+        <v>43712</v>
+      </c>
+      <c r="K22" s="33">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="L22" s="13">
+        <f t="shared" si="3"/>
+        <v>43768</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="B23" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="46">
+        <v>43397</v>
+      </c>
+      <c r="E23" s="24">
+        <v>3</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>43418</v>
+      </c>
+      <c r="G23" s="28">
         <v>24</v>
       </c>
-      <c r="D10" s="48">
-        <v>43404</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="H23" s="16">
+        <f t="shared" si="1"/>
+        <v>43586</v>
+      </c>
+      <c r="I23" s="31">
+        <v>8</v>
+      </c>
+      <c r="J23" s="17">
+        <f t="shared" si="2"/>
+        <v>43642</v>
+      </c>
+      <c r="K23" s="34">
+        <v>4</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="3"/>
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="54"/>
+      <c r="B24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="44">
+        <v>43397</v>
+      </c>
+      <c r="E24" s="23">
         <v>3</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F24" s="10">
         <f t="shared" si="0"/>
-        <v>43425</v>
-      </c>
-      <c r="G10" s="30">
+        <v>43418</v>
+      </c>
+      <c r="G24" s="27">
+        <v>24</v>
+      </c>
+      <c r="H24" s="11">
+        <f t="shared" si="1"/>
+        <v>43586</v>
+      </c>
+      <c r="I24" s="30">
         <v>8</v>
       </c>
-      <c r="H10" s="18">
+      <c r="J24" s="12">
+        <f t="shared" si="2"/>
+        <v>43642</v>
+      </c>
+      <c r="K24" s="33">
+        <v>4</v>
+      </c>
+      <c r="L24" s="13">
+        <f t="shared" si="3"/>
+        <v>43670</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A25" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="45">
+        <v>43243</v>
+      </c>
+      <c r="E25" s="22">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>43264</v>
+      </c>
+      <c r="G25" s="26">
+        <v>36</v>
+      </c>
+      <c r="H25" s="6">
         <f t="shared" si="1"/>
-        <v>43481</v>
-      </c>
-      <c r="I10" s="33">
-        <v>7</v>
-      </c>
-      <c r="J10" s="19">
+        <v>43516</v>
+      </c>
+      <c r="I25" s="29">
+        <v>12</v>
+      </c>
+      <c r="J25" s="7">
         <f t="shared" si="2"/>
-        <v>43530</v>
-      </c>
-      <c r="K10" s="36">
-        <v>4</v>
-      </c>
-      <c r="L10" s="20">
-        <f t="shared" si="3"/>
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="47">
-        <v>43369</v>
-      </c>
-      <c r="E11" s="24">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7">
-        <f t="shared" si="0"/>
-        <v>43439</v>
-      </c>
-      <c r="G11" s="28">
-        <v>10</v>
-      </c>
-      <c r="H11" s="8">
-        <f t="shared" si="1"/>
-        <v>43509</v>
-      </c>
-      <c r="I11" s="31">
-        <v>14</v>
-      </c>
-      <c r="J11" s="9">
-        <f t="shared" si="2"/>
-        <v>43607</v>
-      </c>
-      <c r="K11" s="34">
-        <v>7</v>
-      </c>
-      <c r="L11" s="10">
+        <v>43600</v>
+      </c>
+      <c r="K25" s="32">
+        <v>8</v>
+      </c>
+      <c r="L25" s="8">
         <f t="shared" si="3"/>
         <v>43656</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="74"/>
-      <c r="B12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="47">
-        <v>43418</v>
-      </c>
-      <c r="E12" s="24">
-        <v>4</v>
-      </c>
-      <c r="F12" s="7">
-        <f t="shared" si="0"/>
-        <v>43446</v>
-      </c>
-      <c r="G12" s="28">
-        <v>8</v>
-      </c>
-      <c r="H12" s="8">
-        <f t="shared" si="1"/>
-        <v>43502</v>
-      </c>
-      <c r="I12" s="31">
-        <v>9</v>
-      </c>
-      <c r="J12" s="9">
-        <f t="shared" si="2"/>
-        <v>43565</v>
-      </c>
-      <c r="K12" s="34">
-        <v>9</v>
-      </c>
-      <c r="L12" s="10">
-        <f t="shared" si="3"/>
-        <v>43628</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="46">
-        <v>43369</v>
-      </c>
-      <c r="E13" s="25">
-        <v>10</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
-        <v>43439</v>
-      </c>
-      <c r="G13" s="29">
+    <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A26" s="54"/>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="44">
+        <v>43243</v>
+      </c>
+      <c r="E26" s="23">
         <v>7</v>
       </c>
-      <c r="H13" s="13">
-        <f t="shared" si="1"/>
-        <v>43488</v>
-      </c>
-      <c r="I13" s="32">
-        <v>5</v>
-      </c>
-      <c r="J13" s="14">
-        <f t="shared" si="2"/>
-        <v>43523</v>
-      </c>
-      <c r="K13" s="35">
-        <v>10</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="3"/>
-        <v>43593</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="48">
-        <v>43341</v>
-      </c>
-      <c r="E14" s="26">
-        <v>7</v>
-      </c>
-      <c r="F14" s="17">
-        <f t="shared" si="0"/>
-        <v>43390</v>
-      </c>
-      <c r="G14" s="30">
-        <v>8</v>
-      </c>
-      <c r="H14" s="18">
-        <f t="shared" si="1"/>
-        <v>43446</v>
-      </c>
-      <c r="I14" s="33">
-        <v>8</v>
-      </c>
-      <c r="J14" s="19">
-        <f t="shared" si="2"/>
-        <v>43502</v>
-      </c>
-      <c r="K14" s="36">
-        <v>4</v>
-      </c>
-      <c r="L14" s="20">
-        <f t="shared" si="3"/>
-        <v>43530</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="74"/>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="47">
-        <v>43418</v>
-      </c>
-      <c r="E15" s="24">
-        <v>7</v>
-      </c>
-      <c r="F15" s="7">
-        <f t="shared" si="0"/>
-        <v>43467</v>
-      </c>
-      <c r="G15" s="28">
-        <v>6</v>
-      </c>
-      <c r="H15" s="8">
-        <f t="shared" si="1"/>
-        <v>43509</v>
-      </c>
-      <c r="I15" s="31">
-        <v>14</v>
-      </c>
-      <c r="J15" s="9">
-        <f t="shared" si="2"/>
-        <v>43607</v>
-      </c>
-      <c r="K15" s="34">
-        <v>7</v>
-      </c>
-      <c r="L15" s="10">
-        <f t="shared" si="3"/>
-        <v>43656</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="6" t="str">
-        <f>"+X Panel"</f>
-        <v>+X Panel</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="47">
-        <v>43369</v>
-      </c>
-      <c r="E16" s="24">
-        <v>3</v>
-      </c>
-      <c r="F16" s="7">
-        <f t="shared" si="0"/>
-        <v>43390</v>
-      </c>
-      <c r="G16" s="28">
-        <v>4</v>
-      </c>
-      <c r="H16" s="8">
-        <f t="shared" si="1"/>
-        <v>43418</v>
-      </c>
-      <c r="I16" s="31">
-        <v>8</v>
-      </c>
-      <c r="J16" s="9">
-        <f t="shared" si="2"/>
-        <v>43474</v>
-      </c>
-      <c r="K16" s="34">
-        <v>4</v>
-      </c>
-      <c r="L16" s="10">
-        <f t="shared" si="3"/>
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
-      <c r="B17" s="6" t="str">
-        <f>"-Z Panel"</f>
-        <v>-Z Panel</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="47">
-        <v>43404</v>
-      </c>
-      <c r="E17" s="24">
-        <v>1</v>
-      </c>
-      <c r="F17" s="7">
-        <f t="shared" si="0"/>
-        <v>43411</v>
-      </c>
-      <c r="G17" s="28">
-        <v>4</v>
-      </c>
-      <c r="H17" s="8">
-        <f t="shared" si="1"/>
-        <v>43439</v>
-      </c>
-      <c r="I17" s="31">
-        <v>8</v>
-      </c>
-      <c r="J17" s="9">
-        <f t="shared" si="2"/>
-        <v>43495</v>
-      </c>
-      <c r="K17" s="34">
-        <v>4</v>
-      </c>
-      <c r="L17" s="10">
-        <f t="shared" si="3"/>
-        <v>43523</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" s="47">
-        <v>43341</v>
-      </c>
-      <c r="E18" s="24">
-        <v>8</v>
-      </c>
-      <c r="F18" s="7">
-        <f t="shared" si="0"/>
-        <v>43397</v>
-      </c>
-      <c r="G18" s="28">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8">
-        <f t="shared" si="1"/>
-        <v>43425</v>
-      </c>
-      <c r="I18" s="31">
-        <v>7</v>
-      </c>
-      <c r="J18" s="9">
-        <f t="shared" si="2"/>
-        <v>43474</v>
-      </c>
-      <c r="K18" s="34">
-        <v>4</v>
-      </c>
-      <c r="L18" s="10">
-        <f t="shared" si="3"/>
-        <v>43502</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
-      <c r="B19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="46">
-        <v>43243</v>
-      </c>
-      <c r="E19" s="25">
-        <v>3</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="0"/>
-        <v>43264</v>
-      </c>
-      <c r="G19" s="29">
-        <v>26</v>
-      </c>
-      <c r="H19" s="13">
-        <f t="shared" si="1"/>
-        <v>43446</v>
-      </c>
-      <c r="I19" s="32">
-        <v>19</v>
-      </c>
-      <c r="J19" s="14">
-        <f t="shared" si="2"/>
-        <v>43579</v>
-      </c>
-      <c r="K19" s="35">
-        <v>7</v>
-      </c>
-      <c r="L19" s="15">
-        <f t="shared" si="3"/>
-        <v>43628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" s="48">
-        <v>43397</v>
-      </c>
-      <c r="E20" s="26">
-        <v>3</v>
-      </c>
-      <c r="F20" s="17">
-        <f t="shared" si="0"/>
-        <v>43418</v>
-      </c>
-      <c r="G20" s="30">
-        <v>4</v>
-      </c>
-      <c r="H20" s="18">
-        <f t="shared" si="1"/>
-        <v>43446</v>
-      </c>
-      <c r="I20" s="33">
-        <v>8</v>
-      </c>
-      <c r="J20" s="19">
-        <f t="shared" si="2"/>
-        <v>43502</v>
-      </c>
-      <c r="K20" s="36">
-        <v>4</v>
-      </c>
-      <c r="L20" s="20">
-        <f t="shared" si="3"/>
-        <v>43530</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="68"/>
-      <c r="B21" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="46">
-        <v>43397</v>
-      </c>
-      <c r="E21" s="25">
-        <v>3</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" si="0"/>
-        <v>43418</v>
-      </c>
-      <c r="G21" s="29">
-        <v>4</v>
-      </c>
-      <c r="H21" s="13">
-        <f t="shared" si="1"/>
-        <v>43446</v>
-      </c>
-      <c r="I21" s="32">
-        <v>8</v>
-      </c>
-      <c r="J21" s="14">
-        <f t="shared" si="2"/>
-        <v>43502</v>
-      </c>
-      <c r="K21" s="35">
-        <v>4</v>
-      </c>
-      <c r="L21" s="15">
-        <f t="shared" si="3"/>
-        <v>43530</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="47">
-        <v>43243</v>
-      </c>
-      <c r="E22" s="24">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7">
-        <f t="shared" si="0"/>
-        <v>43264</v>
-      </c>
-      <c r="G22" s="28">
-        <v>22</v>
-      </c>
-      <c r="H22" s="8">
-        <f t="shared" si="1"/>
-        <v>43418</v>
-      </c>
-      <c r="I22" s="31">
-        <v>8</v>
-      </c>
-      <c r="J22" s="9">
-        <f t="shared" si="2"/>
-        <v>43474</v>
-      </c>
-      <c r="K22" s="34">
-        <v>4</v>
-      </c>
-      <c r="L22" s="10">
-        <f t="shared" si="3"/>
-        <v>43502</v>
-      </c>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="68"/>
-      <c r="B23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" s="46">
-        <v>43243</v>
-      </c>
-      <c r="E23" s="25">
-        <v>7</v>
-      </c>
-      <c r="F23" s="12">
+      <c r="F26" s="10">
         <f t="shared" si="0"/>
         <v>43292</v>
       </c>
-      <c r="G23" s="29">
-        <v>17</v>
-      </c>
-      <c r="H23" s="13">
+      <c r="G26" s="27">
+        <v>40</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>43411</v>
-      </c>
-      <c r="I23" s="32">
-        <v>4</v>
-      </c>
-      <c r="J23" s="14">
+        <v>43572</v>
+      </c>
+      <c r="I26" s="30">
+        <v>12</v>
+      </c>
+      <c r="J26" s="12">
         <f t="shared" si="2"/>
-        <v>43439</v>
-      </c>
-      <c r="K23" s="35">
-        <v>4</v>
-      </c>
-      <c r="L23" s="15">
+        <v>43656</v>
+      </c>
+      <c r="K26" s="33">
+        <v>8</v>
+      </c>
+      <c r="L26" s="13">
         <f t="shared" si="3"/>
-        <v>43467</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="24.75" x14ac:dyDescent="0.4">
-      <c r="A24" s="56" t="s">
+        <v>43712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="23.25" x14ac:dyDescent="0.65">
+      <c r="A27" s="60" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="49"/>
+    </row>
+    <row r="28" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A28" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A29" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="51">
+        <f>H4</f>
+        <v>43726</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A30" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+      <c r="K30" s="57"/>
+      <c r="L30" s="51">
+        <f>MAX(L6:L26)</f>
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A31" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="51">
+        <f>H5</f>
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A32" s="56" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="56"/>
+      <c r="C32" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="51">
+        <f>J5</f>
+        <v>43866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A33" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="56"/>
+      <c r="C33" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="51">
+        <f>L32+21</f>
+        <v>43887</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A34" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="50"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="51"/>
-    </row>
-    <row r="25" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A25" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58" t="s">
+      <c r="B34" s="56"/>
+      <c r="C34" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="51">
+        <f>L33+21</f>
+        <v>43908</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A35" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="52" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A26" s="69" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="69"/>
-      <c r="C26" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="53">
-        <f>H4</f>
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A27" s="69" t="s">
-        <v>52</v>
-      </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="53">
-        <f>MAX(L6:L23)</f>
-        <v>43656</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A28" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="53">
-        <f>H5</f>
-        <v>43691</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A29" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29" s="69"/>
-      <c r="C29" s="70" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="53">
-        <f>J5</f>
-        <v>43747</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A30" s="69" t="s">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="69"/>
-      <c r="C30" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="53">
-        <f>L29+21</f>
-        <v>43768</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A31" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="69"/>
-      <c r="C31" s="70" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="53">
-        <f>L30+21</f>
-        <v>43789</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="21" x14ac:dyDescent="0.45">
-      <c r="A32" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="B32" s="69"/>
-      <c r="C32" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="53">
-        <f>L31+21</f>
-        <v>43810</v>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="51">
+        <f>L34+21</f>
+        <v>43929</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A10:A13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A25:B25"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E3:F3"/>
@@ -4606,18 +4821,39 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="C33:K33"/>
+    <mergeCell ref="C34:K34"/>
+    <mergeCell ref="C35:K35"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:K32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:K31"/>
+    <mergeCell ref="A29:B29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="23" max="16383" man="1"/>
+    <brk id="26" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="F4" formula="1"/>
@@ -4630,220 +4866,220 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.1328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.265625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 09-Nov-18</v>
-      </c>
-      <c r="G1" s="3">
-        <v>43816</v>
-      </c>
-      <c r="H1" s="2">
+        <v>Today: 26-Mar-19</v>
+      </c>
+      <c r="G1" s="2">
+        <v>43957</v>
+      </c>
+      <c r="H1">
         <f>INT(G1)</f>
-        <v>43816</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43413</v>
+        <v>43550</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43413</v>
+        <v>43550</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B5" t="str">
-        <f>Text!A26</f>
+        <f>Text!A29</f>
         <v>EM Integration</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>Text!L26</f>
-        <v>43558</v>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <f>Text!L29</f>
+        <v>43726</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f>Text!L26</f>
-        <v>43558</v>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <f>Text!L29</f>
+        <v>43726</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B9" t="str">
-        <f>Text!A27</f>
+        <f>Text!A30</f>
         <v>EM Day in the Life Test</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f>Text!L27</f>
-        <v>43656</v>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <f>Text!L30</f>
+        <v>43782</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f>Text!L27</f>
-        <v>43656</v>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <f>Text!L30</f>
+        <v>43782</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B13" t="str">
-        <f>Text!A28</f>
+        <f>Text!A31</f>
         <v>FU Integration</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f>Text!L28</f>
-        <v>43691</v>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <f>Text!L31</f>
+        <v>43810</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <f>Text!L28</f>
-        <v>43691</v>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <f>Text!L31</f>
+        <v>43810</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="str">
-        <f>Text!A29</f>
+        <f>Text!A32</f>
         <v>FU Day in the Life Test</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f>Text!L29</f>
-        <v>43747</v>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <f>Text!L32</f>
+        <v>43866</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f>Text!L29</f>
-        <v>43747</v>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="2">
+        <f>Text!L32</f>
+        <v>43866</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="str">
-        <f>Text!A30</f>
+        <f>Text!A33</f>
         <v>FRR</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <f>Text!L30</f>
-        <v>43768</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="2">
+        <f>Text!L33</f>
+        <v>43887</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <f>Text!L30</f>
-        <v>43768</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="2">
+        <f>Text!L33</f>
+        <v>43887</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
-        <f>Text!A31</f>
+        <f>Text!A34</f>
         <v>MRR</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <f>Text!L31</f>
-        <v>43789</v>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="2">
+        <f>Text!L34</f>
+        <v>43908</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <f>Text!L31</f>
-        <v>43789</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="2">
+        <f>Text!L34</f>
+        <v>43908</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
-        <f>Text!A32</f>
+        <f>Text!A35</f>
         <v>ILC</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <f>Text!L32</f>
-        <v>43810</v>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="2">
+        <f>Text!L35</f>
+        <v>43929</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <f>Text!L32</f>
-        <v>43810</v>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="2">
+        <f>Text!L35</f>
+        <v>43929</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D963D1-31E0-4823-A389-35C98584F524}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A880844-2D4D-4D97-8887-2563A4DE577A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
@@ -212,12 +212,6 @@
     <t>Review of the mission to determine its readiness to execute</t>
   </si>
   <si>
-    <t>Mainboard V2.0</t>
-  </si>
-  <si>
-    <t>V1.2.0</t>
-  </si>
-  <si>
     <t>Mainboard V2.1</t>
   </si>
   <si>
@@ -243,6 +237,12 @@
   </si>
   <si>
     <t>Camera PCB V1.1</t>
+  </si>
+  <si>
+    <t>Mainboard V2.2</t>
+  </si>
+  <si>
+    <t>V1.2.1</t>
   </si>
 </sst>
 </file>
@@ -793,36 +793,48 @@
     <xf numFmtId="165" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="5" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -855,18 +867,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -942,10 +942,10 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.0</c:v>
+                    <c:v>Mainboard V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Mainboard V2.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
@@ -1038,7 +1038,7 @@
                   <c:v>43222</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43740</c:v>
+                  <c:v>43824</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>43243</c:v>
@@ -1149,10 +1149,10 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.0</c:v>
+                    <c:v>Mainboard V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Mainboard V2.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
@@ -1299,10 +1299,10 @@
                   <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>21</c:v>
@@ -1375,10 +1375,10 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.0</c:v>
+                    <c:v>Mainboard V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Mainboard V2.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
@@ -1468,10 +1468,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>483</c:v>
+                  <c:v>574</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>56</c:v>
@@ -1525,10 +1525,10 @@
                   <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>168</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>168</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>252</c:v>
@@ -1582,10 +1582,10 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.0</c:v>
+                    <c:v>Mainboard V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Mainboard V2.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
@@ -1675,7 +1675,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>56</c:v>
@@ -1687,7 +1687,7 @@
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>154</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>70</c:v>
@@ -1705,7 +1705,7 @@
                   <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>56</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>56</c:v>
@@ -1789,10 +1789,10 @@
                     <c:v>Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.0</c:v>
+                    <c:v>Mainboard V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Mainboard V2.2</c:v>
                   </c:pt>
                   <c:pt idx="4">
                     <c:v>Solar Panel</c:v>
@@ -1882,7 +1882,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="23"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>84</c:v>
@@ -2008,10 +2008,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43726</c:v>
+                  <c:v>43817</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43726</c:v>
+                  <c:v>43817</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2071,10 +2071,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43782</c:v>
+                  <c:v>43824</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43782</c:v>
+                  <c:v>43824</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2134,10 +2134,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43810</c:v>
+                  <c:v>43880</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43810</c:v>
+                  <c:v>43880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,10 +2197,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43866</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43866</c:v>
+                  <c:v>43936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,10 +2260,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43887</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43887</c:v>
+                  <c:v>43950</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,10 +2323,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43908</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43908</c:v>
+                  <c:v>43964</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,10 +2386,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43929</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43929</c:v>
+                  <c:v>43978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,7 +2482,7 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43957"/>
+          <c:max val="43978"/>
           <c:min val="43467"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3577,8 +3577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3605,20 +3605,20 @@
       <c r="C1" s="59"/>
       <c r="D1" s="59"/>
       <c r="E1" s="40" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="F1" s="41"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="64"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="68"/>
       <c r="I1" s="40"/>
       <c r="J1" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="62">
+      <c r="K1" s="66">
         <f>L5</f>
-        <v>43929</v>
-      </c>
-      <c r="L1" s="63"/>
+        <v>43978</v>
+      </c>
+      <c r="L1" s="67"/>
     </row>
     <row r="2" spans="1:15" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A2" s="36" t="s">
@@ -3633,22 +3633,22 @@
       <c r="D2" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="69" t="s">
+      <c r="J2" s="76"/>
+      <c r="K2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="69"/>
+      <c r="L2" s="73"/>
     </row>
     <row r="3" spans="1:15" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="38" t="s">
@@ -3663,26 +3663,26 @@
       <c r="D3" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="65"/>
-      <c r="G3" s="66" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="70" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="68"/>
+      <c r="L3" s="72"/>
       <c r="M3" s="42"/>
     </row>
     <row r="4" spans="1:15" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -3704,30 +3704,30 @@
       </c>
       <c r="G4" s="26">
         <f>(H4-F4)/7</f>
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="H4" s="6">
         <f>_xlfn.MAXIFS(L6:L26,C6:C26,"Hardware")</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="I4" s="29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" s="7">
         <f>H4+I4*7</f>
-        <v>43740</v>
+        <v>43824</v>
       </c>
       <c r="K4" s="32">
         <f>(L4-J4)/7</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4" s="8">
-        <f>MAX(L6:L26)+28</f>
-        <v>43810</v>
+        <f>MAX(L6:L26)+42</f>
+        <v>43859</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="54"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="35" t="s">
         <v>16</v>
       </c>
@@ -3736,40 +3736,39 @@
       </c>
       <c r="D5" s="44">
         <f>J4</f>
-        <v>43740</v>
+        <v>43824</v>
       </c>
       <c r="E5" s="23">
         <v>4</v>
       </c>
       <c r="F5" s="10">
         <f>D5+E5*7</f>
-        <v>43768</v>
+        <v>43852</v>
       </c>
       <c r="G5" s="27">
-        <f>(H5-F5)/7</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H5" s="11">
-        <f>L4</f>
-        <v>43810</v>
+        <f>F5+G5*7</f>
+        <v>43880</v>
       </c>
       <c r="I5" s="30">
         <v>8</v>
       </c>
       <c r="J5" s="12">
         <f>H5+I5*7</f>
-        <v>43866</v>
+        <v>43936</v>
       </c>
       <c r="K5" s="33">
         <v>12</v>
       </c>
       <c r="L5" s="13">
         <f>L35</f>
-        <v>43929</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="65" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -3811,9 +3810,9 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="53"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C7" s="19" t="s">
         <v>19</v>
@@ -3853,7 +3852,7 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="53"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="4" t="s">
         <v>7</v>
       </c>
@@ -3878,25 +3877,25 @@
         <v>43383</v>
       </c>
       <c r="I8" s="29">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J8" s="7">
         <f t="shared" ref="J8:J26" si="2">H8+I8*7</f>
-        <v>43537</v>
+        <v>43565</v>
       </c>
       <c r="K8" s="32">
         <v>8</v>
       </c>
       <c r="L8" s="8">
         <f t="shared" ref="L8:L26" si="3">J8+K8*7</f>
-        <v>43593</v>
+        <v>43621</v>
       </c>
       <c r="O8" s="2"/>
     </row>
     <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="53"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="19" t="s">
         <v>19</v>
@@ -3935,9 +3934,9 @@
       <c r="O9" s="2"/>
     </row>
     <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="53"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>19</v>
@@ -3978,7 +3977,7 @@
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="54"/>
+      <c r="A11" s="64"/>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
@@ -4018,11 +4017,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="63" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C12" s="21" t="s">
         <v>19</v>
@@ -4060,7 +4059,7 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="53"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="4" t="s">
         <v>24</v>
       </c>
@@ -4100,7 +4099,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="53"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="4" t="s">
         <v>23</v>
       </c>
@@ -4125,22 +4124,22 @@
         <v>43670</v>
       </c>
       <c r="I14" s="29">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J14" s="7">
         <f t="shared" si="2"/>
-        <v>43726</v>
+        <v>43754</v>
       </c>
       <c r="K14" s="32">
         <v>8</v>
       </c>
       <c r="L14" s="8">
         <f t="shared" si="3"/>
-        <v>43782</v>
+        <v>43810</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
+      <c r="A15" s="64"/>
       <c r="B15" s="9" t="s">
         <v>9</v>
       </c>
@@ -4180,13 +4179,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="52" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="46">
@@ -4206,14 +4205,14 @@
         <f t="shared" si="1"/>
         <v>43474</v>
       </c>
-      <c r="I16" s="75">
+      <c r="I16" s="54">
         <v>12</v>
       </c>
       <c r="J16" s="17">
         <f t="shared" si="2"/>
         <v>43558</v>
       </c>
-      <c r="K16" s="76">
+      <c r="K16" s="55">
         <v>8</v>
       </c>
       <c r="L16" s="18">
@@ -4222,9 +4221,9 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="53"/>
-      <c r="B17" s="74" t="s">
-        <v>62</v>
+      <c r="A17" s="65"/>
+      <c r="B17" s="53" t="s">
+        <v>60</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>19</v>
@@ -4264,7 +4263,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="53"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="4" t="s">
         <v>22</v>
       </c>
@@ -4304,7 +4303,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="53"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="4" t="str">
         <f>"+X Panel V1.0"</f>
         <v>+X Panel V1.0</v>
@@ -4345,7 +4344,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="53"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="4" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
@@ -4386,9 +4385,9 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="53"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>19</v>
@@ -4426,7 +4425,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="54"/>
+      <c r="A22" s="64"/>
       <c r="B22" s="9" t="s">
         <v>25</v>
       </c>
@@ -4466,11 +4465,11 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="63" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C23" s="21" t="s">
         <v>19</v>
@@ -4479,38 +4478,38 @@
         <v>43397</v>
       </c>
       <c r="E23" s="24">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="F23" s="15">
         <f t="shared" si="0"/>
-        <v>43418</v>
+        <v>43579</v>
       </c>
       <c r="G23" s="28">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H23" s="16">
         <f t="shared" si="1"/>
-        <v>43586</v>
+        <v>43607</v>
       </c>
       <c r="I23" s="31">
         <v>8</v>
       </c>
       <c r="J23" s="17">
         <f t="shared" si="2"/>
-        <v>43642</v>
+        <v>43663</v>
       </c>
       <c r="K23" s="34">
         <v>4</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" si="3"/>
-        <v>43670</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="54"/>
+      <c r="A24" s="64"/>
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>19</v>
@@ -4519,36 +4518,36 @@
         <v>43397</v>
       </c>
       <c r="E24" s="23">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="F24" s="10">
         <f t="shared" si="0"/>
-        <v>43418</v>
+        <v>43705</v>
       </c>
       <c r="G24" s="27">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="1"/>
-        <v>43586</v>
+        <v>43733</v>
       </c>
       <c r="I24" s="30">
         <v>8</v>
       </c>
       <c r="J24" s="12">
         <f t="shared" si="2"/>
-        <v>43642</v>
+        <v>43789</v>
       </c>
       <c r="K24" s="33">
         <v>4</v>
       </c>
       <c r="L24" s="13">
         <f t="shared" si="3"/>
-        <v>43670</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="63" t="s">
         <v>17</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -4590,7 +4589,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A26" s="54"/>
+      <c r="A26" s="64"/>
       <c r="B26" s="9" t="s">
         <v>13</v>
       </c>
@@ -4646,21 +4645,21 @@
       <c r="L27" s="49"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A28" s="55" t="s">
+      <c r="A28" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
       <c r="L28" s="50" t="s">
         <v>39</v>
       </c>
@@ -4683,7 +4682,7 @@
       <c r="K29" s="57"/>
       <c r="L29" s="51">
         <f>H4</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
@@ -4703,8 +4702,8 @@
       <c r="J30" s="57"/>
       <c r="K30" s="57"/>
       <c r="L30" s="51">
-        <f>MAX(L6:L26)</f>
-        <v>43782</v>
+        <f>MAX(L6:L26, L29 + 7)</f>
+        <v>43824</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
@@ -4725,7 +4724,7 @@
       <c r="K31" s="57"/>
       <c r="L31" s="51">
         <f>H5</f>
-        <v>43810</v>
+        <v>43880</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
@@ -4746,7 +4745,7 @@
       <c r="K32" s="57"/>
       <c r="L32" s="51">
         <f>J5</f>
-        <v>43866</v>
+        <v>43936</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
@@ -4766,8 +4765,8 @@
       <c r="J33" s="57"/>
       <c r="K33" s="57"/>
       <c r="L33" s="51">
-        <f>L32+21</f>
-        <v>43887</v>
+        <f>L32+14</f>
+        <v>43950</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
@@ -4787,8 +4786,8 @@
       <c r="J34" s="57"/>
       <c r="K34" s="57"/>
       <c r="L34" s="51">
-        <f>L33+21</f>
-        <v>43908</v>
+        <f>L33+14</f>
+        <v>43964</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
@@ -4808,24 +4807,16 @@
       <c r="J35" s="57"/>
       <c r="K35" s="57"/>
       <c r="L35" s="51">
-        <f>L34+21</f>
-        <v>43929</v>
+        <f>L34+14</f>
+        <v>43978</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
     <mergeCell ref="K2:L2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:B28"/>
@@ -4836,6 +4827,12 @@
     <mergeCell ref="A16:A22"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="C28:K28"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
     <mergeCell ref="A35:B35"/>
     <mergeCell ref="C29:K29"/>
     <mergeCell ref="C33:K33"/>
@@ -4848,6 +4845,8 @@
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:K31"/>
     <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
@@ -4866,7 +4865,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4886,20 +4885,20 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 26-Mar-19</v>
+        <v>Today: 07-Apr-19</v>
       </c>
       <c r="G1" s="2">
-        <v>43957</v>
+        <v>43978</v>
       </c>
       <c r="H1">
         <f>INT(G1)</f>
-        <v>43957</v>
+        <v>43978</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43550</v>
+        <v>43562</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4908,7 +4907,7 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43550</v>
+        <v>43562</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4923,7 +4922,7 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <f>Text!L29</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -4932,7 +4931,7 @@
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <f>Text!L29</f>
-        <v>43726</v>
+        <v>43817</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -4947,7 +4946,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <f>Text!L30</f>
-        <v>43782</v>
+        <v>43824</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4956,7 +4955,7 @@
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <f>Text!L30</f>
-        <v>43782</v>
+        <v>43824</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4974,7 +4973,7 @@
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f>Text!L31</f>
-        <v>43810</v>
+        <v>43880</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4983,7 +4982,7 @@
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f>Text!L31</f>
-        <v>43810</v>
+        <v>43880</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4998,7 +4997,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f>Text!L32</f>
-        <v>43866</v>
+        <v>43936</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5007,7 +5006,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f>Text!L32</f>
-        <v>43866</v>
+        <v>43936</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5022,7 +5021,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f>Text!L33</f>
-        <v>43887</v>
+        <v>43950</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5031,7 +5030,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f>Text!L33</f>
-        <v>43887</v>
+        <v>43950</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5046,7 +5045,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f>Text!L34</f>
-        <v>43908</v>
+        <v>43964</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5055,7 +5054,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f>Text!L34</f>
-        <v>43908</v>
+        <v>43964</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5070,7 +5069,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f>Text!L35</f>
-        <v>43929</v>
+        <v>43978</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5079,7 +5078,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f>Text!L35</f>
-        <v>43929</v>
+        <v>43978</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -5087,5 +5086,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,32 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A880844-2D4D-4D97-8887-2563A4DE577A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765F113-21FE-4D04-9049-F2012422D157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="7" r:id="rId1"/>
     <sheet name="Gantt" sheetId="8" r:id="rId2"/>
-    <sheet name="Gantt Lines" sheetId="9" r:id="rId3"/>
+    <sheet name="Gantt Lines" sheetId="9" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Design">Text!$E$4:$E$26</definedName>
+    <definedName name="Design">Text!$E$4:$E$21</definedName>
     <definedName name="Design_Days">Design*7</definedName>
-    <definedName name="Implement_1">Text!$G$4:$G$26</definedName>
+    <definedName name="Implement_1">Text!$G$4:$G$21</definedName>
     <definedName name="Implement_1_Days">Implement_1*7</definedName>
-    <definedName name="Implement_2">Text!$I$4:$I$26</definedName>
+    <definedName name="Implement_2">Text!$I$4:$I$21</definedName>
     <definedName name="Implement_2_Days">Implement_2*7</definedName>
-    <definedName name="Labels">Text!$A$4:$B$26</definedName>
-    <definedName name="Start">Text!$D$4:$D$26</definedName>
-    <definedName name="Test">Text!$K$4:$K$26</definedName>
+    <definedName name="Labels">Text!$A$4:$B$21</definedName>
+    <definedName name="Start">Text!$D$4:$D$21</definedName>
+    <definedName name="Test">Text!$K$4:$K$21</definedName>
     <definedName name="Test_Days">Test*7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -37,7 +37,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
   <si>
     <t>Start</t>
   </si>
@@ -68,9 +70,6 @@
     <t>PMIC</t>
   </si>
   <si>
-    <t>Solar Panel</t>
-  </si>
-  <si>
     <t>Avionics</t>
   </si>
   <si>
@@ -89,15 +88,6 @@
     <t>Germination</t>
   </si>
   <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Engineering Model</t>
-  </si>
-  <si>
-    <t>Flight Unit</t>
-  </si>
-  <si>
     <t>Mechanical</t>
   </si>
   <si>
@@ -170,9 +160,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>EM Integration</t>
-  </si>
-  <si>
     <t>FRR</t>
   </si>
   <si>
@@ -185,21 +172,12 @@
     <t>FU Day in the Life Test</t>
   </si>
   <si>
-    <t>EM Day in the Life Test</t>
-  </si>
-  <si>
     <t>FU Integration</t>
   </si>
   <si>
     <t>Initial launch capabilities</t>
   </si>
   <si>
-    <t>A duration test of the satellite in simulated space environment. Requires: all software done</t>
-  </si>
-  <si>
-    <t>Assembly of all subsystems and components. Requires: all hardware done</t>
-  </si>
-  <si>
     <t>Assembly of all flight ready subsystems and components</t>
   </si>
   <si>
@@ -212,24 +190,9 @@
     <t>Review of the mission to determine its readiness to execute</t>
   </si>
   <si>
-    <t>Mainboard V2.1</t>
-  </si>
-  <si>
-    <t>Backplane V2.0</t>
-  </si>
-  <si>
-    <t>Backplane V3.0</t>
-  </si>
-  <si>
     <t>Mainboard V1.1</t>
   </si>
   <si>
-    <t>Comms PCB V1.0</t>
-  </si>
-  <si>
-    <t>Comms PCB V1.1</t>
-  </si>
-  <si>
     <t>Ground Station V1.0</t>
   </si>
   <si>
@@ -239,10 +202,22 @@
     <t>Camera PCB V1.1</t>
   </si>
   <si>
-    <t>Mainboard V2.2</t>
-  </si>
-  <si>
-    <t>V1.2.1</t>
+    <t>Solar Panel V2.1</t>
+  </si>
+  <si>
+    <t>V1.4.0</t>
+  </si>
+  <si>
+    <t>Comms PCB V1.2</t>
+  </si>
+  <si>
+    <t>Structure V1.1</t>
+  </si>
+  <si>
+    <t>Mainboard V2.3</t>
+  </si>
+  <si>
+    <t>CougSat-1 Flight Unit</t>
   </si>
 </sst>
 </file>
@@ -433,7 +408,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -626,10 +601,12 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -639,7 +616,44 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -654,7 +668,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -740,9 +754,6 @@
     <xf numFmtId="166" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,9 +763,6 @@
     <xf numFmtId="166" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -775,9 +783,6 @@
     </xf>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="17" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="17" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -791,25 +796,79 @@
     <xf numFmtId="166" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="16" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="5" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -817,56 +876,41 @@
     <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -933,95 +977,77 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Engineering Model</c:v>
+                    <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Flight Unit</c:v>
+                    <c:v>Mainboard V2.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.2</c:v>
+                    <c:v>PMIC</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Solar Panel</c:v>
+                    <c:v>Mainboard V1.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Backplane V2.0</c:v>
+                    <c:v>ADCS Controller</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Backplane V3.0</c:v>
+                    <c:v>IFJR Controller</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>PMIC</c:v>
+                    <c:v>IHU</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mainboard V1.1</c:v>
+                    <c:v>Comms PCB V1.2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>ADCS Controller</c:v>
+                    <c:v>Comms Controller</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>IFJR Controller</c:v>
+                    <c:v>+X Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>IHU</c:v>
+                    <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Comms PCB V1.0</c:v>
+                    <c:v>Ground Station V1.0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Comms PCB V1.1</c:v>
+                    <c:v>Ground Computer</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Comms Controller</c:v>
+                    <c:v>Camera PCB V1.1</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>+X Panel V1.0</c:v>
+                    <c:v>Germination PCB V1.0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>-Z Panel V1.0</c:v>
+                    <c:v>Structure V1.1</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Structure</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CougSat-1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="1">
                     <c:v>EPS</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Avionics</c:v>
+                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="14">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="16">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1033,74 +1059,59 @@
               <c:f>[0]!Start</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>43222</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43824</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43243</c:v>
+                  <c:v>43313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43439</c:v>
+                  <c:v>43397</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43313</c:v>
+                  <c:v>43404</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43341</c:v>
+                  <c:v>43369</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43446</c:v>
+                  <c:v>43558</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43397</c:v>
+                  <c:v>43369</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>43761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43502</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43369</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>43404</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>43369</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43558</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>43369</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>43341</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43558</c:v>
+                  <c:v>43243</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43502</c:v>
+                  <c:v>43397</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43369</c:v>
+                  <c:v>43397</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43404</c:v>
+                  <c:v>43877</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43341</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>43243</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>43397</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>43397</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>43243</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>43243</c:v>
                 </c:pt>
               </c:numCache>
@@ -1140,95 +1151,77 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Engineering Model</c:v>
+                    <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Flight Unit</c:v>
+                    <c:v>Mainboard V2.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.2</c:v>
+                    <c:v>PMIC</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Solar Panel</c:v>
+                    <c:v>Mainboard V1.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Backplane V2.0</c:v>
+                    <c:v>ADCS Controller</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Backplane V3.0</c:v>
+                    <c:v>IFJR Controller</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>PMIC</c:v>
+                    <c:v>IHU</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mainboard V1.1</c:v>
+                    <c:v>Comms PCB V1.2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>ADCS Controller</c:v>
+                    <c:v>Comms Controller</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>IFJR Controller</c:v>
+                    <c:v>+X Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>IHU</c:v>
+                    <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Comms PCB V1.0</c:v>
+                    <c:v>Ground Station V1.0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Comms PCB V1.1</c:v>
+                    <c:v>Ground Computer</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Comms Controller</c:v>
+                    <c:v>Camera PCB V1.1</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>+X Panel V1.0</c:v>
+                    <c:v>Germination PCB V1.0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>-Z Panel V1.0</c:v>
+                    <c:v>Structure V1.1</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Structure</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CougSat-1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="1">
                     <c:v>EPS</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Avionics</c:v>
+                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="14">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="16">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1240,74 +1233,59 @@
               <c:f>[0]!Design_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="9">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
                   <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
@@ -1366,95 +1344,77 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Engineering Model</c:v>
+                    <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Flight Unit</c:v>
+                    <c:v>Mainboard V2.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.2</c:v>
+                    <c:v>PMIC</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Solar Panel</c:v>
+                    <c:v>Mainboard V1.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Backplane V2.0</c:v>
+                    <c:v>ADCS Controller</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Backplane V3.0</c:v>
+                    <c:v>IFJR Controller</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>PMIC</c:v>
+                    <c:v>IHU</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mainboard V1.1</c:v>
+                    <c:v>Comms PCB V1.2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>ADCS Controller</c:v>
+                    <c:v>Comms Controller</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>IFJR Controller</c:v>
+                    <c:v>+X Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>IHU</c:v>
+                    <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Comms PCB V1.0</c:v>
+                    <c:v>Ground Station V1.0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Comms PCB V1.1</c:v>
+                    <c:v>Ground Computer</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Comms Controller</c:v>
+                    <c:v>Camera PCB V1.1</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>+X Panel V1.0</c:v>
+                    <c:v>Germination PCB V1.0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>-Z Panel V1.0</c:v>
+                    <c:v>Structure V1.1</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Structure</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CougSat-1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="1">
                     <c:v>EPS</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Avionics</c:v>
+                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="14">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="16">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1466,75 +1426,60 @@
               <c:f>[0]!Implement_1_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>574</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>518</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>168</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>147</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>280</c:v>
+                  <c:v>599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1573,95 +1518,77 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Engineering Model</c:v>
+                    <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Flight Unit</c:v>
+                    <c:v>Mainboard V2.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.2</c:v>
+                    <c:v>PMIC</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Solar Panel</c:v>
+                    <c:v>Mainboard V1.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Backplane V2.0</c:v>
+                    <c:v>ADCS Controller</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Backplane V3.0</c:v>
+                    <c:v>IFJR Controller</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>PMIC</c:v>
+                    <c:v>IHU</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mainboard V1.1</c:v>
+                    <c:v>Comms PCB V1.2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>ADCS Controller</c:v>
+                    <c:v>Comms Controller</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>IFJR Controller</c:v>
+                    <c:v>+X Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>IHU</c:v>
+                    <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Comms PCB V1.0</c:v>
+                    <c:v>Ground Station V1.0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Comms PCB V1.1</c:v>
+                    <c:v>Ground Computer</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Comms Controller</c:v>
+                    <c:v>Camera PCB V1.1</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>+X Panel V1.0</c:v>
+                    <c:v>Germination PCB V1.0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>-Z Panel V1.0</c:v>
+                    <c:v>Structure V1.1</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Structure</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CougSat-1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="1">
                     <c:v>EPS</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Avionics</c:v>
+                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="14">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="16">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1673,75 +1600,60 @@
               <c:f>[0]!Implement_2_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>126</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>182</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>84</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,95 +1692,77 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>Engineering Model</c:v>
+                    <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Flight Unit</c:v>
+                    <c:v>Mainboard V2.3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>Mainboard V2.1</c:v>
+                    <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>Mainboard V2.2</c:v>
+                    <c:v>PMIC</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>Solar Panel</c:v>
+                    <c:v>Mainboard V1.1</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>Backplane V2.0</c:v>
+                    <c:v>ADCS Controller</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>Backplane V3.0</c:v>
+                    <c:v>IFJR Controller</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>PMIC</c:v>
+                    <c:v>IHU</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>Mainboard V1.1</c:v>
+                    <c:v>Comms PCB V1.2</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>ADCS Controller</c:v>
+                    <c:v>Comms Controller</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>IFJR Controller</c:v>
+                    <c:v>+X Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>IHU</c:v>
+                    <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>Comms PCB V1.0</c:v>
+                    <c:v>Ground Station V1.0</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>Comms PCB V1.1</c:v>
+                    <c:v>Ground Computer</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>Comms Controller</c:v>
+                    <c:v>Camera PCB V1.1</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>+X Panel V1.0</c:v>
+                    <c:v>Germination PCB V1.0</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>-Z Panel V1.0</c:v>
+                    <c:v>Structure V1.1</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="20">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="21">
-                    <c:v>Structure</c:v>
-                  </c:pt>
-                  <c:pt idx="22">
                     <c:v>Germination</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CougSat-1</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
+                  <c:pt idx="1">
                     <c:v>EPS</c:v>
                   </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Avionics</c:v>
+                  </c:pt>
                   <c:pt idx="8">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
                     <c:v>Communications</c:v>
                   </c:pt>
-                  <c:pt idx="19">
+                  <c:pt idx="14">
                     <c:v>Payload</c:v>
                   </c:pt>
-                  <c:pt idx="21">
+                  <c:pt idx="16">
                     <c:v>Mechanical</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1880,75 +1774,60 @@
               <c:f>[0]!Test_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="23"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>77</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>56</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="19">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1983,9 +1862,6 @@
               <c:f>'Gantt Lines'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EM Integration</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2007,12 +1883,6 @@
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43817</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43817</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2022,12 +1892,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2046,9 +1910,6 @@
               <c:f>'Gantt Lines'!$B$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>EM Day in the Life Test</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -2070,12 +1931,6 @@
               <c:numCache>
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>43824</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>43824</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2085,12 +1940,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2134,10 +1983,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43880</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43880</c:v>
+                  <c:v>43947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2197,10 +2046,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43936</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43936</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2260,10 +2109,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43950</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43950</c:v>
+                  <c:v>44003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2323,10 +2172,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43964</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43964</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2386,10 +2235,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43978</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43978</c:v>
+                  <c:v>44012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,8 +2331,8 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="43978"/>
-          <c:min val="43467"/>
+          <c:max val="44027"/>
+          <c:min val="43835"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2549,7 +2398,7 @@
         <c:crossAx val="413356223"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="28"/>
+        <c:majorUnit val="14"/>
         <c:minorUnit val="7"/>
       </c:valAx>
       <c:valAx>
@@ -3575,10 +3424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3598,1274 +3447,1010 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="58" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41" t="s">
+      <c r="A1" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="39"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="57">
+        <f>L28</f>
+        <v>44012</v>
+      </c>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="72"/>
+      <c r="K2" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="69"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="66">
-        <f>L5</f>
-        <v>43978</v>
-      </c>
-      <c r="L1" s="67"/>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
+      <c r="H3" s="61"/>
+      <c r="I3" s="62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="62"/>
+      <c r="K3" s="63" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="63"/>
+      <c r="M3" s="40"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="50"/>
+      <c r="B4" s="76" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="78">
+        <v>43919</v>
+      </c>
+      <c r="E4" s="79">
+        <f>(F4-D4)/7</f>
         <v>2</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="74" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="75"/>
-      <c r="I2" s="76" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" s="76"/>
-      <c r="K2" s="73" t="s">
+      <c r="F4" s="80">
+        <v>43933</v>
+      </c>
+      <c r="G4" s="81">
+        <f>(H4-F4)/7</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="82">
+        <v>43947</v>
+      </c>
+      <c r="I4" s="83">
+        <v>1</v>
+      </c>
+      <c r="J4" s="84">
+        <f>H4+I4*7</f>
+        <v>43954</v>
+      </c>
+      <c r="K4" s="85">
+        <v>6</v>
+      </c>
+      <c r="L4" s="86">
+        <f>J4+K4*7</f>
+        <v>43996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="42">
+        <v>43905</v>
+      </c>
+      <c r="E5" s="22">
+        <f>(F5-D5)/7</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>43912</v>
+      </c>
+      <c r="G5" s="26">
+        <f>(H5-F5)/7</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
+        <v>43919</v>
+      </c>
+      <c r="I5" s="29">
         <v>4</v>
       </c>
-      <c r="L2" s="73"/>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="72" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="72"/>
-      <c r="M3" s="42"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="65" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="J5" s="7">
+        <f>H5+I5*7</f>
+        <v>43947</v>
+      </c>
+      <c r="K5" s="31">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <f>J5+K5*7</f>
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="54"/>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="43">
-        <v>43222</v>
-      </c>
-      <c r="E4" s="22">
-        <f>(F4-D4)/7</f>
-        <v>3</v>
-      </c>
-      <c r="F4" s="5">
-        <f>MIN(D6:D26)</f>
-        <v>43243</v>
-      </c>
-      <c r="G4" s="26">
-        <f>(H4-F4)/7</f>
-        <v>82</v>
-      </c>
-      <c r="H4" s="6">
-        <f>_xlfn.MAXIFS(L6:L26,C6:C26,"Hardware")</f>
-        <v>43817</v>
-      </c>
-      <c r="I4" s="29">
-        <v>1</v>
-      </c>
-      <c r="J4" s="7">
-        <f>H4+I4*7</f>
-        <v>43824</v>
-      </c>
-      <c r="K4" s="32">
-        <f>(L4-J4)/7</f>
-        <v>5</v>
-      </c>
-      <c r="L4" s="8">
-        <f>MAX(L6:L26)+42</f>
-        <v>43859</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="64"/>
-      <c r="B5" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="44">
-        <f>J4</f>
-        <v>43824</v>
-      </c>
-      <c r="E5" s="23">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10">
-        <f>D5+E5*7</f>
-        <v>43852</v>
-      </c>
-      <c r="G5" s="27">
-        <v>4</v>
-      </c>
-      <c r="H5" s="11">
-        <f>F5+G5*7</f>
-        <v>43880</v>
-      </c>
-      <c r="I5" s="30">
-        <v>8</v>
-      </c>
-      <c r="J5" s="12">
-        <f>H5+I5*7</f>
-        <v>43936</v>
-      </c>
-      <c r="K5" s="33">
-        <v>12</v>
-      </c>
-      <c r="L5" s="13">
-        <f>L35</f>
-        <v>43978</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="45">
-        <v>43243</v>
+      <c r="D6" s="42">
+        <v>43313</v>
       </c>
       <c r="E6" s="22">
         <v>2</v>
       </c>
       <c r="F6" s="5">
-        <f>D6+E6*7</f>
-        <v>43257</v>
+        <f t="shared" ref="F6:F21" si="0">D6+E6*7</f>
+        <v>43327</v>
       </c>
       <c r="G6" s="26">
+        <f>(H6-F6)/7</f>
+        <v>74</v>
+      </c>
+      <c r="H6" s="6">
+        <v>43845</v>
+      </c>
+      <c r="I6" s="29">
+        <f>(J6-H6)/7</f>
+        <v>2.5714285714285716</v>
+      </c>
+      <c r="J6" s="7">
+        <v>43863</v>
+      </c>
+      <c r="K6" s="31">
         <v>8</v>
       </c>
-      <c r="H6" s="6">
-        <f>F6+G6*7</f>
-        <v>43313</v>
-      </c>
-      <c r="I6" s="29">
-        <v>18</v>
-      </c>
-      <c r="J6" s="7">
-        <f>H6+I6*7</f>
-        <v>43439</v>
-      </c>
-      <c r="K6" s="32">
+      <c r="L6" s="8">
+        <f t="shared" ref="L6:L21" si="1">J6+K6*7</f>
+        <v>43919</v>
+      </c>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="55"/>
+      <c r="B7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="L6" s="8">
-        <f>J6+K6*7</f>
-        <v>43558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="65"/>
-      <c r="B7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="45">
-        <f>J6</f>
-        <v>43439</v>
-      </c>
-      <c r="E7" s="22">
-        <f>(F7-D7)/7</f>
-        <v>17</v>
-      </c>
-      <c r="F7" s="5">
-        <f>L6</f>
-        <v>43558</v>
+      <c r="D7" s="41">
+        <v>43397</v>
+      </c>
+      <c r="E7" s="23">
+        <v>3</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="0"/>
+        <v>43418</v>
       </c>
       <c r="G7" s="26">
-        <v>2</v>
-      </c>
-      <c r="H7" s="6">
-        <f>F7+G7*7</f>
-        <v>43572</v>
-      </c>
-      <c r="I7" s="29">
+        <f>(H7-F7)/7</f>
+        <v>71.571428571428569</v>
+      </c>
+      <c r="H7" s="11">
+        <v>43919</v>
+      </c>
+      <c r="I7" s="30">
         <v>6</v>
       </c>
-      <c r="J7" s="7">
-        <f>H7+I7*7</f>
-        <v>43614</v>
+      <c r="J7" s="12">
+        <f t="shared" ref="J7:J21" si="2">H7+I7*7</f>
+        <v>43961</v>
       </c>
       <c r="K7" s="32">
         <v>4</v>
       </c>
-      <c r="L7" s="8">
-        <f>J7+K7*7</f>
-        <v>43642</v>
+      <c r="L7" s="13">
+        <f t="shared" si="1"/>
+        <v>43989</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="65"/>
-      <c r="B8" s="4" t="s">
+      <c r="A8" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="45">
-        <v>43313</v>
-      </c>
-      <c r="E8" s="22">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5">
-        <f t="shared" ref="F8:F26" si="0">D8+E8*7</f>
-        <v>43327</v>
-      </c>
-      <c r="G8" s="26">
-        <v>8</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" ref="H8:H26" si="1">F8+G8*7</f>
-        <v>43383</v>
+      <c r="B8" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="43">
+        <v>43404</v>
+      </c>
+      <c r="E8" s="24">
+        <v>3</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>43425</v>
+      </c>
+      <c r="G8" s="28">
+        <v>43</v>
+      </c>
+      <c r="H8" s="16">
+        <f t="shared" ref="H8:H20" si="3">F8+G8*7</f>
+        <v>43726</v>
       </c>
       <c r="I8" s="29">
-        <v>26</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" ref="J8:J26" si="2">H8+I8*7</f>
-        <v>43565</v>
-      </c>
-      <c r="K8" s="32">
-        <v>8</v>
-      </c>
-      <c r="L8" s="8">
-        <f t="shared" ref="L8:L26" si="3">J8+K8*7</f>
-        <v>43621</v>
-      </c>
-      <c r="O8" s="2"/>
+        <f>(J8-H8)/7</f>
+        <v>19.571428571428573</v>
+      </c>
+      <c r="J8" s="17">
+        <v>43863</v>
+      </c>
+      <c r="K8" s="33">
+        <v>6</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="1"/>
+        <v>43905</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="65"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="4" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="45">
-        <v>43341</v>
+        <v>17</v>
+      </c>
+      <c r="D9" s="42">
+        <v>43369</v>
       </c>
       <c r="E9" s="22">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="0"/>
-        <v>43355</v>
+        <v>43775</v>
       </c>
       <c r="G9" s="26">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="H9" s="6">
+        <f t="shared" si="3"/>
+        <v>43887</v>
+      </c>
+      <c r="I9" s="29">
+        <f>(J9-H9)/7</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="J9" s="7">
+        <v>43947</v>
+      </c>
+      <c r="K9" s="31">
+        <v>6</v>
+      </c>
+      <c r="L9" s="8">
         <f t="shared" si="1"/>
-        <v>43376</v>
-      </c>
-      <c r="I9" s="29">
-        <v>10</v>
-      </c>
-      <c r="J9" s="7">
-        <f t="shared" si="2"/>
-        <v>43446</v>
-      </c>
-      <c r="K9" s="32">
-        <v>11</v>
-      </c>
-      <c r="L9" s="8">
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="54"/>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="42">
+        <v>43558</v>
+      </c>
+      <c r="E10" s="22">
+        <v>31</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>43775</v>
+      </c>
+      <c r="G10" s="26">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" si="3"/>
-        <v>43523</v>
-      </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="65"/>
-      <c r="B10" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="45">
-        <f>J9</f>
-        <v>43446</v>
-      </c>
-      <c r="E10" s="22">
-        <f>(F10-D10)/7</f>
-        <v>11</v>
-      </c>
-      <c r="F10" s="5">
-        <f>L9</f>
-        <v>43523</v>
-      </c>
-      <c r="G10" s="26">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" ref="H10" si="4">F10+G10*7</f>
-        <v>43537</v>
+        <v>43887</v>
       </c>
       <c r="I10" s="29">
-        <v>6</v>
+        <f>(J10-H10)/7</f>
+        <v>6.5714285714285712</v>
       </c>
       <c r="J10" s="7">
-        <f t="shared" ref="J10" si="5">H10+I10*7</f>
-        <v>43579</v>
-      </c>
-      <c r="K10" s="32">
-        <v>2</v>
+        <v>43933</v>
+      </c>
+      <c r="K10" s="31">
+        <v>4</v>
       </c>
       <c r="L10" s="8">
-        <f t="shared" ref="L10" si="6">J10+K10*7</f>
-        <v>43593</v>
-      </c>
-      <c r="O10" s="2"/>
+        <f t="shared" si="1"/>
+        <v>43961</v>
+      </c>
     </row>
     <row r="11" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="64"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="44">
-        <v>43397</v>
+        <v>17</v>
+      </c>
+      <c r="D11" s="41">
+        <v>43369</v>
       </c>
       <c r="E11" s="23">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="F11" s="10">
         <f t="shared" si="0"/>
-        <v>43418</v>
+        <v>43775</v>
       </c>
       <c r="G11" s="27">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H11" s="11">
+        <f t="shared" si="3"/>
+        <v>43887</v>
+      </c>
+      <c r="I11" s="75">
+        <f>(J11-H11)/7</f>
+        <v>10.571428571428571</v>
+      </c>
+      <c r="J11" s="12">
+        <v>43961</v>
+      </c>
+      <c r="K11" s="32">
+        <v>4</v>
+      </c>
+      <c r="L11" s="13">
         <f t="shared" si="1"/>
-        <v>43558</v>
-      </c>
-      <c r="I11" s="30">
-        <v>8</v>
-      </c>
-      <c r="J11" s="12">
-        <f t="shared" si="2"/>
-        <v>43614</v>
-      </c>
-      <c r="K11" s="33">
-        <v>8</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="3"/>
-        <v>43670</v>
+        <v>43989</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="63" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="46">
-        <v>43404</v>
-      </c>
-      <c r="E12" s="24">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15">
-        <f t="shared" si="0"/>
-        <v>43425</v>
-      </c>
-      <c r="G12" s="28">
-        <v>19</v>
-      </c>
-      <c r="H12" s="16">
-        <f t="shared" si="1"/>
-        <v>43558</v>
-      </c>
-      <c r="I12" s="31">
-        <v>16</v>
-      </c>
-      <c r="J12" s="17">
-        <f t="shared" si="2"/>
-        <v>43670</v>
-      </c>
-      <c r="K12" s="34">
-        <v>8</v>
-      </c>
-      <c r="L12" s="18">
-        <f t="shared" si="3"/>
-        <v>43726</v>
+      <c r="A12" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42">
+        <v>43761</v>
+      </c>
+      <c r="E12" s="22">
+        <f>(F12-D12)/7</f>
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>43775</v>
+      </c>
+      <c r="G12" s="26">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" ref="H12" si="4">F12+G12*7</f>
+        <v>43789</v>
+      </c>
+      <c r="I12" s="29">
+        <f>(J12-H12)/7</f>
+        <v>10.571428571428571</v>
+      </c>
+      <c r="J12" s="7">
+        <v>43863</v>
+      </c>
+      <c r="K12" s="31">
+        <v>4</v>
+      </c>
+      <c r="L12" s="8">
+        <f t="shared" ref="L12" si="5">J12+K12*7</f>
+        <v>43891</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="65"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="45">
-        <v>43369</v>
+        <v>17</v>
+      </c>
+      <c r="D13" s="42">
+        <v>43502</v>
       </c>
       <c r="E13" s="22">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>43439</v>
+        <v>43719</v>
       </c>
       <c r="G13" s="26">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H13" s="6">
+        <f t="shared" si="3"/>
+        <v>43901</v>
+      </c>
+      <c r="I13" s="29">
+        <f>(J13-H13)/7</f>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="J13" s="7">
+        <v>43947</v>
+      </c>
+      <c r="K13" s="31">
+        <v>6</v>
+      </c>
+      <c r="L13" s="8">
         <f t="shared" si="1"/>
-        <v>43558</v>
-      </c>
-      <c r="I13" s="29">
-        <v>14</v>
-      </c>
-      <c r="J13" s="7">
-        <f t="shared" si="2"/>
-        <v>43656</v>
-      </c>
-      <c r="K13" s="32">
-        <v>8</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="3"/>
-        <v>43712</v>
+        <v>43989</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="65"/>
-      <c r="B14" s="4" t="s">
-        <v>23</v>
+      <c r="A14" s="54"/>
+      <c r="B14" s="4" t="str">
+        <f>"+X Panel V1.0"</f>
+        <v>+X Panel V1.0</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="45">
-        <v>43558</v>
+        <v>15</v>
+      </c>
+      <c r="D14" s="42">
+        <v>43369</v>
       </c>
       <c r="E14" s="22">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
-        <v>43614</v>
+        <v>43397</v>
       </c>
       <c r="G14" s="26">
+        <v>23</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>43558</v>
+      </c>
+      <c r="I14" s="29">
+        <f>(J14-H14)/7</f>
+        <v>35</v>
+      </c>
+      <c r="J14" s="7">
+        <v>43803</v>
+      </c>
+      <c r="K14" s="31">
+        <f>(L14-J14)/7</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="L14" s="8">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="54"/>
+      <c r="B15" s="4" t="str">
+        <f>"-Z Panel V1.0"</f>
+        <v>-Z Panel V1.0</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="42">
+        <v>43404</v>
+      </c>
+      <c r="E15" s="22">
+        <v>4</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>43432</v>
+      </c>
+      <c r="G15" s="26">
+        <v>43</v>
+      </c>
+      <c r="H15" s="6">
+        <f t="shared" si="3"/>
+        <v>43733</v>
+      </c>
+      <c r="I15" s="29">
+        <f>(J15-H15)/7</f>
+        <v>18.571428571428573</v>
+      </c>
+      <c r="J15" s="7">
+        <v>43863</v>
+      </c>
+      <c r="K15" s="31">
+        <v>6</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="54"/>
+      <c r="B16" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="42">
+        <v>43341</v>
+      </c>
+      <c r="E16" s="22">
         <v>8</v>
       </c>
-      <c r="H14" s="6">
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>43397</v>
+      </c>
+      <c r="G16" s="26">
+        <v>4</v>
+      </c>
+      <c r="H16" s="6">
+        <f t="shared" si="3"/>
+        <v>43425</v>
+      </c>
+      <c r="I16" s="29">
+        <f>(J16-H16)/7</f>
+        <v>66.571428571428569</v>
+      </c>
+      <c r="J16" s="7">
+        <v>43891</v>
+      </c>
+      <c r="K16" s="31">
+        <v>2</v>
+      </c>
+      <c r="L16" s="8">
         <f t="shared" si="1"/>
-        <v>43670</v>
-      </c>
-      <c r="I14" s="29">
+        <v>43905</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="55"/>
+      <c r="B17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="41">
+        <v>43243</v>
+      </c>
+      <c r="E17" s="23">
+        <v>68</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="0"/>
+        <v>43719</v>
+      </c>
+      <c r="G17" s="27">
+        <v>16</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" si="3"/>
+        <v>43831</v>
+      </c>
+      <c r="I17" s="30">
         <v>12</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J17" s="12">
         <f t="shared" si="2"/>
-        <v>43754</v>
-      </c>
-      <c r="K14" s="32">
+        <v>43915</v>
+      </c>
+      <c r="K17" s="32">
+        <v>6</v>
+      </c>
+      <c r="L17" s="13">
+        <f t="shared" si="1"/>
+        <v>43957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="43">
+        <v>43397</v>
+      </c>
+      <c r="E18" s="24">
+        <v>44</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>43705</v>
+      </c>
+      <c r="G18" s="28">
+        <v>4</v>
+      </c>
+      <c r="H18" s="16">
+        <f t="shared" si="3"/>
+        <v>43733</v>
+      </c>
+      <c r="I18" s="29">
+        <f>(J18-H18)/7</f>
         <v>8</v>
       </c>
-      <c r="L14" s="8">
-        <f t="shared" si="3"/>
-        <v>43810</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="64"/>
-      <c r="B15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="44">
-        <v>43369</v>
-      </c>
-      <c r="E15" s="23">
-        <v>14</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="J18" s="17">
+        <v>43789</v>
+      </c>
+      <c r="K18" s="31">
+        <f>(L18-J18)/7</f>
+        <v>10.571428571428571</v>
+      </c>
+      <c r="L18" s="18">
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="55"/>
+      <c r="B19" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="41">
+        <v>43397</v>
+      </c>
+      <c r="E19" s="23">
+        <v>46</v>
+      </c>
+      <c r="F19" s="10">
         <f t="shared" si="0"/>
-        <v>43467</v>
-      </c>
-      <c r="G15" s="27">
-        <v>20</v>
-      </c>
-      <c r="H15" s="11">
-        <f t="shared" si="1"/>
-        <v>43607</v>
-      </c>
-      <c r="I15" s="30">
-        <v>8</v>
-      </c>
-      <c r="J15" s="12">
+        <v>43719</v>
+      </c>
+      <c r="G19" s="27">
+        <f>(H19-F19)/7</f>
+        <v>20.571428571428573</v>
+      </c>
+      <c r="H19" s="11">
+        <v>43863</v>
+      </c>
+      <c r="I19" s="30">
+        <v>6</v>
+      </c>
+      <c r="J19" s="12">
         <f t="shared" si="2"/>
-        <v>43663</v>
-      </c>
-      <c r="K15" s="33">
-        <v>8</v>
-      </c>
-      <c r="L15" s="13">
-        <f t="shared" si="3"/>
-        <v>43719</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="46">
-        <v>43341</v>
-      </c>
-      <c r="E16" s="24">
-        <v>11</v>
-      </c>
-      <c r="F16" s="15">
-        <f t="shared" si="0"/>
-        <v>43418</v>
-      </c>
-      <c r="G16" s="28">
-        <v>8</v>
-      </c>
-      <c r="H16" s="16">
-        <f t="shared" si="1"/>
-        <v>43474</v>
-      </c>
-      <c r="I16" s="54">
-        <v>12</v>
-      </c>
-      <c r="J16" s="17">
-        <f t="shared" si="2"/>
-        <v>43558</v>
-      </c>
-      <c r="K16" s="55">
-        <v>8</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="3"/>
-        <v>43614</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="65"/>
-      <c r="B17" s="53" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="45">
-        <f>J16</f>
-        <v>43558</v>
-      </c>
-      <c r="E17" s="22">
-        <f>(F17-D17)/7</f>
-        <v>8</v>
-      </c>
-      <c r="F17" s="5">
-        <f>L16</f>
-        <v>43614</v>
-      </c>
-      <c r="G17" s="26">
-        <v>2</v>
-      </c>
-      <c r="H17" s="6">
-        <f t="shared" ref="H17" si="7">F17+G17*7</f>
-        <v>43628</v>
-      </c>
-      <c r="I17" s="29">
-        <v>6</v>
-      </c>
-      <c r="J17" s="7">
-        <f t="shared" ref="J17" si="8">H17+I17*7</f>
-        <v>43670</v>
-      </c>
-      <c r="K17" s="32">
-        <v>4</v>
-      </c>
-      <c r="L17" s="8">
-        <f t="shared" ref="L17" si="9">J17+K17*7</f>
-        <v>43698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
-      <c r="B18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="45">
-        <v>43502</v>
-      </c>
-      <c r="E18" s="22">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5">
-        <f t="shared" si="0"/>
-        <v>43558</v>
-      </c>
-      <c r="G18" s="26">
-        <v>4</v>
-      </c>
-      <c r="H18" s="6">
-        <f t="shared" si="1"/>
-        <v>43586</v>
-      </c>
-      <c r="I18" s="29">
-        <v>12</v>
-      </c>
-      <c r="J18" s="7">
-        <f t="shared" si="2"/>
-        <v>43670</v>
-      </c>
-      <c r="K18" s="32">
-        <v>8</v>
-      </c>
-      <c r="L18" s="8">
-        <f t="shared" si="3"/>
-        <v>43726</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="65"/>
-      <c r="B19" s="4" t="str">
-        <f>"+X Panel V1.0"</f>
-        <v>+X Panel V1.0</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="45">
-        <v>43369</v>
-      </c>
-      <c r="E19" s="22">
-        <v>3</v>
-      </c>
-      <c r="F19" s="5">
-        <f t="shared" si="0"/>
-        <v>43390</v>
-      </c>
-      <c r="G19" s="26">
-        <v>24</v>
-      </c>
-      <c r="H19" s="6">
-        <f t="shared" si="1"/>
-        <v>43558</v>
-      </c>
-      <c r="I19" s="29">
-        <v>6</v>
-      </c>
-      <c r="J19" s="7">
-        <f t="shared" si="2"/>
-        <v>43600</v>
+        <v>43905</v>
       </c>
       <c r="K19" s="32">
         <v>6</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="13">
+        <f t="shared" si="1"/>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="64" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="42">
+        <v>43877</v>
+      </c>
+      <c r="E20" s="22">
+        <f>(F20-D20)/7</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="5">
+        <v>43891</v>
+      </c>
+      <c r="G20" s="26">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6">
         <f t="shared" si="3"/>
-        <v>43642</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="65"/>
-      <c r="B20" s="4" t="str">
-        <f>"-Z Panel V1.0"</f>
-        <v>-Z Panel V1.0</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="45">
-        <v>43404</v>
-      </c>
-      <c r="E20" s="22">
-        <v>1</v>
-      </c>
-      <c r="F20" s="5">
-        <f t="shared" si="0"/>
-        <v>43411</v>
-      </c>
-      <c r="G20" s="26">
-        <v>21</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="1"/>
-        <v>43558</v>
+        <v>43905</v>
       </c>
       <c r="I20" s="29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J20" s="7">
         <f t="shared" si="2"/>
-        <v>43600</v>
-      </c>
-      <c r="K20" s="32">
-        <v>6</v>
+        <v>43933</v>
+      </c>
+      <c r="K20" s="31">
+        <v>2</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="3"/>
-        <v>43642</v>
+        <f t="shared" si="1"/>
+        <v>43947</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="65"/>
-      <c r="B21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="45">
-        <v>43341</v>
-      </c>
-      <c r="E21" s="22">
-        <v>8</v>
-      </c>
-      <c r="F21" s="5">
-        <f t="shared" si="0"/>
-        <v>43397</v>
-      </c>
-      <c r="G21" s="26">
-        <v>4</v>
-      </c>
-      <c r="H21" s="6">
-        <f t="shared" si="1"/>
-        <v>43425</v>
-      </c>
-      <c r="I21" s="29">
-        <v>22</v>
-      </c>
-      <c r="J21" s="7">
-        <f t="shared" si="2"/>
-        <v>43579</v>
-      </c>
-      <c r="K21" s="32">
-        <v>2</v>
-      </c>
-      <c r="L21" s="8">
-        <f t="shared" si="3"/>
-        <v>43593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="64"/>
-      <c r="B22" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="44">
+      <c r="A21" s="55"/>
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="41">
         <v>43243</v>
       </c>
-      <c r="E22" s="23">
-        <v>3</v>
-      </c>
-      <c r="F22" s="10">
-        <f t="shared" si="0"/>
-        <v>43264</v>
-      </c>
-      <c r="G22" s="27">
-        <v>44</v>
-      </c>
-      <c r="H22" s="11">
-        <f t="shared" si="1"/>
-        <v>43572</v>
-      </c>
-      <c r="I22" s="30">
-        <v>20</v>
-      </c>
-      <c r="J22" s="12">
-        <f t="shared" si="2"/>
-        <v>43712</v>
-      </c>
-      <c r="K22" s="33">
-        <v>8</v>
-      </c>
-      <c r="L22" s="13">
-        <f t="shared" si="3"/>
-        <v>43768</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="63" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="46">
-        <v>43397</v>
-      </c>
-      <c r="E23" s="24">
-        <v>26</v>
-      </c>
-      <c r="F23" s="15">
-        <f t="shared" si="0"/>
-        <v>43579</v>
-      </c>
-      <c r="G23" s="28">
-        <v>4</v>
-      </c>
-      <c r="H23" s="16">
-        <f t="shared" si="1"/>
-        <v>43607</v>
-      </c>
-      <c r="I23" s="31">
-        <v>8</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="2"/>
-        <v>43663</v>
-      </c>
-      <c r="K23" s="34">
-        <v>4</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="3"/>
-        <v>43691</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="64"/>
-      <c r="B24" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="44">
-        <v>43397</v>
-      </c>
-      <c r="E24" s="23">
-        <v>44</v>
-      </c>
-      <c r="F24" s="10">
-        <f t="shared" si="0"/>
-        <v>43705</v>
-      </c>
-      <c r="G24" s="27">
-        <v>4</v>
-      </c>
-      <c r="H24" s="11">
-        <f t="shared" si="1"/>
-        <v>43733</v>
-      </c>
-      <c r="I24" s="30">
-        <v>8</v>
-      </c>
-      <c r="J24" s="12">
-        <f t="shared" si="2"/>
-        <v>43789</v>
-      </c>
-      <c r="K24" s="33">
-        <v>4</v>
-      </c>
-      <c r="L24" s="13">
-        <f t="shared" si="3"/>
-        <v>43817</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A25" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="45">
-        <v>43243</v>
-      </c>
-      <c r="E25" s="22">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5">
-        <f t="shared" si="0"/>
-        <v>43264</v>
-      </c>
-      <c r="G25" s="26">
-        <v>36</v>
-      </c>
-      <c r="H25" s="6">
-        <f t="shared" si="1"/>
-        <v>43516</v>
-      </c>
-      <c r="I25" s="29">
-        <v>12</v>
-      </c>
-      <c r="J25" s="7">
-        <f t="shared" si="2"/>
-        <v>43600</v>
-      </c>
-      <c r="K25" s="32">
-        <v>8</v>
-      </c>
-      <c r="L25" s="8">
-        <f t="shared" si="3"/>
-        <v>43656</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A26" s="64"/>
-      <c r="B26" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D26" s="44">
-        <v>43243</v>
-      </c>
-      <c r="E26" s="23">
+      <c r="E21" s="23">
         <v>7</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F21" s="10">
         <f t="shared" si="0"/>
         <v>43292</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G21" s="27">
+        <f>(H21-F21)/7</f>
+        <v>85.571428571428569</v>
+      </c>
+      <c r="H21" s="11">
+        <v>43891</v>
+      </c>
+      <c r="I21" s="75">
+        <v>4</v>
+      </c>
+      <c r="J21" s="12">
+        <f t="shared" si="2"/>
+        <v>43919</v>
+      </c>
+      <c r="K21" s="32">
+        <v>4</v>
+      </c>
+      <c r="L21" s="13">
+        <f t="shared" si="1"/>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.65">
+      <c r="A22" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="66"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="46"/>
+    </row>
+    <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A23" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="68"/>
+      <c r="C23" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="47" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A24" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="48">
+        <f>H4</f>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A25" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="11">
-        <f t="shared" si="1"/>
-        <v>43572</v>
-      </c>
-      <c r="I26" s="30">
-        <v>12</v>
-      </c>
-      <c r="J26" s="12">
-        <f t="shared" si="2"/>
-        <v>43656</v>
-      </c>
-      <c r="K26" s="33">
-        <v>8</v>
-      </c>
-      <c r="L26" s="13">
-        <f t="shared" si="3"/>
-        <v>43712</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="23.25" x14ac:dyDescent="0.65">
-      <c r="A27" s="60" t="s">
+      <c r="B25" s="52"/>
+      <c r="C25" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="53"/>
+      <c r="K25" s="53"/>
+      <c r="L25" s="48">
+        <f>J4</f>
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A26" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="49"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
+      <c r="I26" s="53"/>
+      <c r="J26" s="53"/>
+      <c r="K26" s="53"/>
+      <c r="L26" s="48">
+        <f>L4+7</f>
+        <v>44003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A27" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="53"/>
+      <c r="J27" s="53"/>
+      <c r="K27" s="53"/>
+      <c r="L27" s="48">
+        <f>L26+7</f>
+        <v>44010</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A28" s="62" t="s">
-        <v>40</v>
-      </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="50" t="s">
+      <c r="A28" s="51" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A29" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="57"/>
-      <c r="L29" s="51">
-        <f>H4</f>
-        <v>43817</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A30" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="57"/>
-      <c r="L30" s="51">
-        <f>MAX(L6:L26, L29 + 7)</f>
-        <v>43824</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A31" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="51">
-        <f>H5</f>
-        <v>43880</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A32" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-      <c r="K32" s="57"/>
-      <c r="L32" s="51">
-        <f>J5</f>
-        <v>43936</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A33" s="56" t="s">
+      <c r="B28" s="52"/>
+      <c r="C28" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="51">
-        <f>L32+14</f>
-        <v>43950</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A34" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-      <c r="K34" s="57"/>
-      <c r="L34" s="51">
-        <f>L33+14</f>
-        <v>43964</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A35" s="56" t="s">
-        <v>44</v>
-      </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="57" t="s">
-        <v>48</v>
-      </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-      <c r="K35" s="57"/>
-      <c r="L35" s="51">
-        <f>L34+14</f>
-        <v>43978</v>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="53"/>
+      <c r="L28" s="48">
+        <f>L27+2</f>
+        <v>44012</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="K2:L2"/>
+  <mergeCells count="29">
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="C23:K23"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="C33:K33"/>
-    <mergeCell ref="C34:K34"/>
-    <mergeCell ref="C35:K35"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:K32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:K31"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C26:K26"/>
+    <mergeCell ref="C27:K27"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:K25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="26" max="16383" man="1"/>
+    <brk id="21" max="16383" man="1"/>
   </rowBreaks>
-  <ignoredErrors>
-    <ignoredError sqref="F4" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591EF12-12B5-44D5-911E-15D67C3B63C7}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4882,107 +4467,75 @@
     <col min="17" max="17" width="18.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 07-Apr-19</v>
+        <v>Today: 26-Jan-20</v>
       </c>
       <c r="G1" s="2">
-        <v>43978</v>
+        <v>43835</v>
       </c>
       <c r="H1">
         <f>INT(G1)</f>
-        <v>43978</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+        <v>43835</v>
+      </c>
+      <c r="I1">
+        <f>H1+28</f>
+        <v>43863</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43562</v>
+        <v>43856</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43562</v>
+        <v>43856</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B5" t="str">
-        <f>Text!A29</f>
-        <v>EM Integration</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="2">
-        <f>Text!L29</f>
-        <v>43817</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="2">
-        <f>Text!L29</f>
-        <v>43817</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="B9" t="str">
-        <f>Text!A30</f>
-        <v>EM Day in the Life Test</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="2">
-        <f>Text!L30</f>
-        <v>43824</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="2">
-        <f>Text!L30</f>
-        <v>43824</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" t="str">
-        <f>Text!A31</f>
+        <f>Text!A24</f>
         <v>FU Integration</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <f>Text!L31</f>
-        <v>43880</v>
+        <f>Text!L24</f>
+        <v>43947</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <f>Text!L31</f>
-        <v>43880</v>
+        <f>Text!L24</f>
+        <v>43947</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4990,14 +4543,14 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="str">
-        <f>Text!A32</f>
+        <f>Text!A25</f>
         <v>FU Day in the Life Test</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <f>Text!L32</f>
-        <v>43936</v>
+        <f>Text!L25</f>
+        <v>43954</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -5005,8 +4558,8 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <f>Text!L32</f>
-        <v>43936</v>
+        <f>Text!L25</f>
+        <v>43954</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -5014,14 +4567,14 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="str">
-        <f>Text!A33</f>
+        <f>Text!A26</f>
         <v>FRR</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <f>Text!L33</f>
-        <v>43950</v>
+        <f>Text!L26</f>
+        <v>44003</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -5029,8 +4582,8 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <f>Text!L33</f>
-        <v>43950</v>
+        <f>Text!L26</f>
+        <v>44003</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -5038,14 +4591,14 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
-        <f>Text!A34</f>
+        <f>Text!A27</f>
         <v>MRR</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <f>Text!L34</f>
-        <v>43964</v>
+        <f>Text!L27</f>
+        <v>44010</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -5053,8 +4606,8 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <f>Text!L34</f>
-        <v>43964</v>
+        <f>Text!L27</f>
+        <v>44010</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -5062,14 +4615,14 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
-        <f>Text!A35</f>
+        <f>Text!A28</f>
         <v>ILC</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <f>Text!L35</f>
-        <v>43978</v>
+        <f>Text!L28</f>
+        <v>44012</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -5077,8 +4630,8 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <f>Text!L35</f>
-        <v>43978</v>
+        <f>Text!L28</f>
+        <v>44012</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,32 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A765F113-21FE-4D04-9049-F2012422D157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0253B5CE-F60E-4D0D-9E70-22E3D7193B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
-    <sheet name="Text" sheetId="7" r:id="rId1"/>
-    <sheet name="Gantt" sheetId="8" r:id="rId2"/>
+    <sheet name="Gantt" sheetId="8" r:id="rId1"/>
+    <sheet name="Text" sheetId="7" r:id="rId2"/>
     <sheet name="Gantt Lines" sheetId="9" state="hidden" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Design">Text!$E$4:$E$21</definedName>
+    <definedName name="Build">Text!$H$4:$H$21</definedName>
+    <definedName name="Build_Days">Build*7</definedName>
+    <definedName name="Design">Text!$F$4:$F$21</definedName>
     <definedName name="Design_Days">Design*7</definedName>
-    <definedName name="Implement_1">Text!$G$4:$G$21</definedName>
-    <definedName name="Implement_1_Days">Implement_1*7</definedName>
-    <definedName name="Implement_2">Text!$I$4:$I$21</definedName>
-    <definedName name="Implement_2_Days">Implement_2*7</definedName>
     <definedName name="Labels">Text!$A$4:$B$21</definedName>
-    <definedName name="Start">Text!$D$4:$D$21</definedName>
-    <definedName name="Test">Text!$K$4:$K$21</definedName>
+    <definedName name="Start">Text!$E$4:$E$21</definedName>
+    <definedName name="Test">Text!$J$4:$J$21</definedName>
     <definedName name="Test_Days">Test*7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -47,50 +45,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
   <si>
     <t>Start</t>
   </si>
   <si>
-    <t>EPS</t>
-  </si>
-  <si>
-    <t>Subsystem</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
     <t>Component</t>
   </si>
   <si>
-    <t>PMIC</t>
-  </si>
-  <si>
-    <t>Avionics</t>
-  </si>
-  <si>
-    <t>IHU</t>
-  </si>
-  <si>
-    <t>Communications</t>
-  </si>
-  <si>
     <t>CougSat-1</t>
   </si>
   <si>
-    <t>Payload</t>
-  </si>
-  <si>
-    <t>Germination</t>
-  </si>
-  <si>
-    <t>Mechanical</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -106,30 +74,12 @@
     <t>Comms Controller</t>
   </si>
   <si>
-    <t>IFJR Controller</t>
-  </si>
-  <si>
     <t>ADCS Controller</t>
   </si>
   <si>
-    <t>Ground Computer</t>
-  </si>
-  <si>
     <t>End:</t>
   </si>
   <si>
-    <t>Implement Part 1</t>
-  </si>
-  <si>
-    <t>Implement Part 2</t>
-  </si>
-  <si>
-    <t>Board layout, machining, backend, assembly, etc.</t>
-  </si>
-  <si>
-    <t>Schematic, mCAD, front end, interfacing, etc.</t>
-  </si>
-  <si>
     <t>Functional, performance, validation, etc.</t>
   </si>
   <si>
@@ -139,18 +89,6 @@
     <t>Component commencing</t>
   </si>
   <si>
-    <t>Subassembly of the subsystem</t>
-  </si>
-  <si>
-    <t>Outlining, prototyping, planning, diagraming, etc.</t>
-  </si>
-  <si>
-    <t>Self-contained system within the satellite</t>
-  </si>
-  <si>
-    <t>Milestones</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -160,64 +98,131 @@
     <t>Name</t>
   </si>
   <si>
-    <t>FRR</t>
-  </si>
-  <si>
-    <t>MRR</t>
-  </si>
-  <si>
-    <t>ILC</t>
-  </si>
-  <si>
-    <t>FU Day in the Life Test</t>
-  </si>
-  <si>
-    <t>FU Integration</t>
-  </si>
-  <si>
-    <t>Initial launch capabilities</t>
-  </si>
-  <si>
-    <t>Assembly of all flight ready subsystems and components</t>
-  </si>
-  <si>
     <t>A duration test of the flight unit in simulated space environment</t>
   </si>
   <si>
-    <t>Review of the flight unit to determine its readiness to fly</t>
-  </si>
-  <si>
-    <t>Review of the mission to determine its readiness to execute</t>
-  </si>
-  <si>
-    <t>Mainboard V1.1</t>
-  </si>
-  <si>
-    <t>Ground Station V1.0</t>
-  </si>
-  <si>
-    <t>Germination PCB V1.0</t>
-  </si>
-  <si>
-    <t>Camera PCB V1.1</t>
-  </si>
-  <si>
     <t>Solar Panel V2.1</t>
   </si>
   <si>
-    <t>V1.4.0</t>
-  </si>
-  <si>
-    <t>Comms PCB V1.2</t>
-  </si>
-  <si>
     <t>Structure V1.1</t>
   </si>
   <si>
-    <t>Mainboard V2.3</t>
-  </si>
-  <si>
     <t>CougSat-1 Flight Unit</t>
+  </si>
+  <si>
+    <t>Margin</t>
+  </si>
+  <si>
+    <t>Excess buffer for the unexpected</t>
+  </si>
+  <si>
+    <t>EPS V3.1</t>
+  </si>
+  <si>
+    <t>Comms V1.1</t>
+  </si>
+  <si>
+    <t>Avionics V1.1</t>
+  </si>
+  <si>
+    <t>Backplane V3.2</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Design, implement, fabricate, assemble, etc.</t>
+  </si>
+  <si>
+    <t>Subsystem assembly</t>
+  </si>
+  <si>
+    <t>Critical Path</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>Last component of the milestone</t>
+  </si>
+  <si>
+    <t>V1.5.0</t>
+  </si>
+  <si>
+    <t>Day in the Life Test</t>
+  </si>
+  <si>
+    <t>PMIC - EPS Controller</t>
+  </si>
+  <si>
+    <t>IHU - C&amp;DH Controller</t>
+  </si>
+  <si>
+    <t>Germination Chamber</t>
+  </si>
+  <si>
+    <t>Camera Board V1.1</t>
+  </si>
+  <si>
+    <t>Germination Board V1.0</t>
+  </si>
+  <si>
+    <t>Software Test</t>
+  </si>
+  <si>
+    <t>IFJR</t>
+  </si>
+  <si>
+    <t>Vibration Test</t>
+  </si>
+  <si>
+    <t>Important Dates</t>
+  </si>
+  <si>
+    <t>Flight Unit Integration</t>
+  </si>
+  <si>
+    <t>Software Integration</t>
+  </si>
+  <si>
+    <t>Nanoracks Handover</t>
+  </si>
+  <si>
+    <t>All flight ready hardware assembled, wiring harnesses installed</t>
+  </si>
+  <si>
+    <t>Delivery to launch provider</t>
+  </si>
+  <si>
+    <r>
+      <t>All flight ready software installed,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Comfortaa"/>
+      </rPr>
+      <t xml:space="preserve"> only critical bug fixes will be installed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mechanical test to ensure launch surviability, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Comfortaa"/>
+      </rPr>
+      <t>only critical hardware fixes will be installed</t>
+    </r>
+  </si>
+  <si>
+    <t>Collection of tasks that mark important dates</t>
   </si>
 </sst>
 </file>
@@ -229,7 +234,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0\ &quot;weeks&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -291,8 +296,14 @@
       <color theme="0"/>
       <name val="Neuton"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="20">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,12 +324,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,18 +337,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -408,7 +401,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -661,6 +654,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -668,249 +696,223 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="9" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="12" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="13" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="13" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="11" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="166" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="16" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="16" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="16" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="15" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="17" borderId="18" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="11" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="13" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -919,7 +921,38 @@
     <cellStyle name="Title" xfId="1" builtinId="15"/>
     <cellStyle name="Total" xfId="2" builtinId="25"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="2"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -983,72 +1016,63 @@
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Mainboard V2.3</c:v>
+                    <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Structure V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Avionics V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>PMIC</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Mainboard V1.1</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>+X Panel V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Comms V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Backplane V3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Germination Chamber</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Germination Board V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Camera Board V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Day in the Life Test</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IHU - C&amp;DH Controller</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>IFJR Controller</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>IHU</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Comms PCB V1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="15">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>+X Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>-Z Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
                   <c:pt idx="16">
-                    <c:v>Structure V1.1</c:v>
+                    <c:v>IFJR</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Germination</c:v>
+                    <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>EPS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Communications</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Payload</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Mechanical</c:v>
+                  <c:pt idx="0">
+                    <c:v>CougSat-1 Flight Unit</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1061,58 +1085,58 @@
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>43919</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43905</c:v>
+                  <c:v>43877</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43313</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43397</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43404</c:v>
+                  <c:v>43711</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43369</c:v>
+                  <c:v>43877</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43558</c:v>
+                  <c:v>43831</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43369</c:v>
+                  <c:v>43863</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43761</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43502</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43369</c:v>
+                  <c:v>43733</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43404</c:v>
+                  <c:v>43719</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43341</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43243</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43397</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43397</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43877</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43243</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1128,11 +1152,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Text!$E$2</c:f>
+              <c:f>Text!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Design</c:v>
+                  <c:v>Build</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1157,72 +1181,63 @@
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Mainboard V2.3</c:v>
+                    <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Structure V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Avionics V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>PMIC</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Mainboard V1.1</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>+X Panel V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Comms V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Backplane V3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Germination Chamber</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Germination Board V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Camera Board V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Day in the Life Test</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IHU - C&amp;DH Controller</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>IFJR Controller</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>IHU</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Comms PCB V1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="15">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>+X Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>-Z Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
                   <c:pt idx="16">
-                    <c:v>Structure V1.1</c:v>
+                    <c:v>IFJR</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Germination</c:v>
+                    <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>EPS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Communications</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Payload</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Mechanical</c:v>
+                  <c:pt idx="0">
+                    <c:v>CougSat-1 Flight Unit</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1235,58 +1250,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21</c:v>
+                  <c:v>187</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>406</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>217</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>406</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>217</c:v>
+                  <c:v>333</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>56</c:v>
-                </c:pt>
                 <c:pt idx="13">
-                  <c:v>476</c:v>
+                  <c:v>354</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>308</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>322</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14</c:v>
+                  <c:v>347</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1298,208 +1313,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Text!$G$2</c:f>
+              <c:f>Text!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Implement Part 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-E215-4EB4-ADC5-841657C8B916}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>[0]!Labels</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>CougSat-1 Flight Unit</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Mainboard V2.3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Solar Panel V2.1</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>PMIC</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Mainboard V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>ADCS Controller</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>IFJR Controller</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>IHU</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Comms PCB V1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>Comms Controller</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>+X Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>-Z Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Structure V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>Germination</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>EPS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Communications</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Payload</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Mechanical</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[0]!Implement_1_Days</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>518</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>599</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E215-4EB4-ADC5-841657C8B916}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Text!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Implement Part 2</c:v>
+                  <c:v>Test</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1524,72 +1346,63 @@
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Mainboard V2.3</c:v>
+                    <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Structure V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Avionics V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>PMIC</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Mainboard V1.1</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>+X Panel V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Comms V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Backplane V3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Germination Chamber</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Germination Board V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Camera Board V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Day in the Life Test</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IHU - C&amp;DH Controller</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>IFJR Controller</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>IHU</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Comms PCB V1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="15">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>+X Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>-Z Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
                   <c:pt idx="16">
-                    <c:v>Structure V1.1</c:v>
+                    <c:v>IFJR</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Germination</c:v>
+                    <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>EPS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Communications</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Payload</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Mechanical</c:v>
+                  <c:pt idx="0">
+                    <c:v>CougSat-1 Flight Unit</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1597,54 +1410,54 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>[0]!Implement_2_Days</c:f>
+              <c:f>[0]!Build_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>466</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>42</c:v>
@@ -1666,14 +1479,14 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Text!$K$2</c:f>
+              <c:f>Text!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Test</c:v>
+                  <c:v>Margin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1698,72 +1511,63 @@
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>Mainboard V2.3</c:v>
+                    <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Structure V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Avionics V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
-                    <c:v>PMIC</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Mainboard V1.1</c:v>
-                  </c:pt>
                   <c:pt idx="5">
+                    <c:v>+X Panel V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Comms V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Backplane V3.2</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>-Z Panel V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Germination Chamber</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Germination Board V1.0</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Camera Board V1.1</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Day in the Life Test</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>IHU - C&amp;DH Controller</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="6">
-                    <c:v>IFJR Controller</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>IHU</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Comms PCB V1.2</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="15">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="10">
-                    <c:v>+X Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>-Z Panel V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>Ground Station V1.0</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>Ground Computer</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Camera PCB V1.1</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>Germination PCB V1.0</c:v>
-                  </c:pt>
                   <c:pt idx="16">
-                    <c:v>Structure V1.1</c:v>
+                    <c:v>IFJR</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>Germination</c:v>
+                    <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
-                  <c:pt idx="1">
-                    <c:v>EPS</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Avionics</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>Communications</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>Payload</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>Mechanical</c:v>
+                  <c:pt idx="0">
+                    <c:v>CougSat-1 Flight Unit</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1776,58 +1580,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>42</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>60</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>42</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>74</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1855,119 +1659,23 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gantt Lines'!$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gantt Lines'!$A$6:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gantt Lines'!$B$6:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BB20-477D-9AD2-367277961686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Gantt Lines'!$B$9</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Gantt Lines'!$A$10:$A$11</c:f>
-              <c:numCache>
-                <c:formatCode>d\-mmm\-yy</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Gantt Lines'!$B$10:$B$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-BB20-477D-9AD2-367277961686}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="7"/>
+          <c:idx val="2"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FU Integration</c:v>
+                  <c:v>Flight Unit Integration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFC000"/>
+                <a:schemeClr val="bg2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1983,10 +1691,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43947</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43947</c:v>
+                  <c:v>43954</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2009,28 +1717,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-BB20-477D-9AD2-367277961686}"/>
+              <c16:uniqueId val="{00000002-14B5-4421-901A-CDAC45DA7E17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="9"/>
-          <c:order val="8"/>
+          <c:idx val="5"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$17</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FU Day in the Life Test</c:v>
+                  <c:v>Vibration Test</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="FFFF00"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2046,10 +1754,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43954</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43954</c:v>
+                  <c:v>43961</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2072,28 +1780,28 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-BB20-477D-9AD2-367277961686}"/>
+              <c16:uniqueId val="{00000003-14B5-4421-901A-CDAC45DA7E17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="10"/>
-          <c:order val="9"/>
+          <c:idx val="6"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FRR</c:v>
+                  <c:v>Software Integration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2109,10 +1817,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44003</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44003</c:v>
+                  <c:v>43982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,28 +1843,31 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-BB20-477D-9AD2-367277961686}"/>
+              <c16:uniqueId val="{00000004-14B5-4421-901A-CDAC45DA7E17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="11"/>
-          <c:order val="10"/>
+          <c:idx val="7"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MRR</c:v>
+                  <c:v>Day in the Life Test</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2172,10 +1883,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44010</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44010</c:v>
+                  <c:v>43989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2198,28 +1909,31 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-BB20-477D-9AD2-367277961686}"/>
+              <c16:uniqueId val="{00000005-14B5-4421-901A-CDAC45DA7E17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="12"/>
-          <c:order val="11"/>
+          <c:idx val="8"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ILC</c:v>
+                  <c:v>Nanoracks Handover</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2235,10 +1949,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44012</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44012</c:v>
+                  <c:v>44010</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2261,7 +1975,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000C-BB20-477D-9AD2-367277961686}"/>
+              <c16:uniqueId val="{00000006-14B5-4421-901A-CDAC45DA7E17}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2273,8 +1987,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226793872"/>
-        <c:axId val="2047381920"/>
+        <c:axId val="1872427727"/>
+        <c:axId val="1872424815"/>
       </c:scatterChart>
       <c:catAx>
         <c:axId val="413356223"/>
@@ -2332,7 +2046,7 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44027"/>
-          <c:min val="43835"/>
+          <c:min val="43863"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2402,50 +2116,23 @@
         <c:minorUnit val="7"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2047381920"/>
+        <c:axId val="1872424815"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:delete val="1"/>
+        <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="226793872"/>
-        <c:crosses val="autoZero"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1872427727"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226793872"/>
+        <c:axId val="1872427727"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +2142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2047381920"/>
+        <c:crossAx val="1872424815"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3424,1024 +3111,949 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.59765625" style="25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="26"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="39"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="69">
+        <f>MAX(E4:K21)</f>
+        <v>44010</v>
+      </c>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="68"/>
+      <c r="J2" s="58" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="73"/>
+      <c r="J3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="57">
-        <f>L28</f>
-        <v>44012</v>
-      </c>
-      <c r="L1" s="58"/>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="34" t="s">
+      <c r="K3" s="74"/>
+      <c r="L3" s="27"/>
+    </row>
+    <row r="4" spans="1:12" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="34">
+        <v>43586</v>
+      </c>
+      <c r="F4" s="35">
+        <f t="shared" ref="F4:F21" si="0">(G4-E4)/7</f>
+        <v>52.571428571428569</v>
+      </c>
+      <c r="G4" s="36">
+        <f>MAX(K5:K15)</f>
+        <v>43954</v>
+      </c>
+      <c r="H4" s="37">
         <v>2</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="I4" s="38">
+        <f t="shared" ref="I4:I21" si="1">G4+H4*7</f>
+        <v>43968</v>
+      </c>
+      <c r="J4" s="39">
+        <v>3</v>
+      </c>
+      <c r="K4" s="40">
+        <f t="shared" ref="K4:K15" si="2">I4+J4*7</f>
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A5" s="63"/>
+      <c r="B5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="71"/>
-      <c r="I2" s="72" t="s">
+      <c r="D5" s="46" t="str">
+        <f t="shared" ref="D5:D15" si="3">IF(K5=$G$4,"Critical Path","")</f>
+        <v>Critical Path</v>
+      </c>
+      <c r="E5" s="29">
+        <v>43877</v>
+      </c>
+      <c r="F5" s="15">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H5" s="41">
+        <v>2</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="1"/>
+        <v>43940</v>
+      </c>
+      <c r="J5" s="42">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="2"/>
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A6" s="63"/>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E6" s="29">
+        <v>43891</v>
+      </c>
+      <c r="F6" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G6" s="5">
+        <v>43919</v>
+      </c>
+      <c r="H6" s="41">
+        <v>2</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>43933</v>
+      </c>
+      <c r="J6" s="42">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="63"/>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E7" s="29">
+        <v>43586</v>
+      </c>
+      <c r="F7" s="15">
+        <f t="shared" si="0"/>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="G7" s="5">
+        <v>43898</v>
+      </c>
+      <c r="H7" s="41">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>43926</v>
+      </c>
+      <c r="J7" s="42">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>43940</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="63"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E8" s="29">
+        <v>43711</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="0"/>
+        <v>26.714285714285715</v>
+      </c>
+      <c r="G8" s="5">
+        <v>43898</v>
+      </c>
+      <c r="H8" s="41">
+        <v>2</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="1"/>
+        <v>43912</v>
+      </c>
+      <c r="J8" s="42">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="2"/>
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="63"/>
+      <c r="B9" s="4" t="str">
+        <f>"+X Panel V1.1"</f>
+        <v>+X Panel V1.1</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E9" s="29">
+        <v>43877</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <v>43905</v>
+      </c>
+      <c r="H9" s="41">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
+        <v>43912</v>
+      </c>
+      <c r="J9" s="42">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
+        <f t="shared" si="2"/>
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A10" s="63"/>
+      <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="72"/>
-      <c r="K2" s="69" t="s">
+      <c r="C10" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E10" s="29">
+        <v>43831</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>6.5714285714285712</v>
+      </c>
+      <c r="G10" s="5">
+        <v>43877</v>
+      </c>
+      <c r="H10" s="41">
         <v>4</v>
       </c>
-      <c r="L2" s="69"/>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61" t="s">
+      <c r="I10" s="6">
+        <f t="shared" si="1"/>
+        <v>43905</v>
+      </c>
+      <c r="J10" s="42">
+        <v>2</v>
+      </c>
+      <c r="K10" s="7">
+        <f t="shared" si="2"/>
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A11" s="63"/>
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62" t="s">
-        <v>25</v>
-      </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:15" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
-      <c r="B4" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="77" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="78">
+      <c r="C11" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E11" s="29">
+        <v>43863</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="5">
+        <v>43898</v>
+      </c>
+      <c r="H11" s="41">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="1"/>
+        <v>43905</v>
+      </c>
+      <c r="J11" s="42">
+        <v>2</v>
+      </c>
+      <c r="K11" s="7">
+        <f t="shared" si="2"/>
         <v>43919</v>
       </c>
-      <c r="E4" s="79">
-        <f>(F4-D4)/7</f>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="63"/>
+      <c r="B12" s="43" t="str">
+        <f>"-Z Panel V1.0"</f>
+        <v>-Z Panel V1.0</v>
+      </c>
+      <c r="C12" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E12" s="28">
+        <v>43586</v>
+      </c>
+      <c r="F12" s="16">
+        <f t="shared" si="0"/>
+        <v>44.571428571428569</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43898</v>
+      </c>
+      <c r="H12" s="32">
+        <v>1</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="1"/>
+        <v>43905</v>
+      </c>
+      <c r="J12" s="19">
         <v>2</v>
       </c>
-      <c r="F4" s="80">
+      <c r="K12" s="11">
+        <f t="shared" si="2"/>
+        <v>43919</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="63"/>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E13" s="29">
+        <v>43586</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>47.571428571428569</v>
+      </c>
+      <c r="G13" s="5">
+        <v>43919</v>
+      </c>
+      <c r="H13" s="41">
+        <v>2</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="1"/>
         <v>43933</v>
       </c>
-      <c r="G4" s="81">
-        <f>(H4-F4)/7</f>
+      <c r="J13" s="44">
         <v>2</v>
       </c>
-      <c r="H4" s="82">
+      <c r="K13" s="7">
+        <f t="shared" si="2"/>
         <v>43947</v>
       </c>
-      <c r="I4" s="83">
+    </row>
+    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="63"/>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="46" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E14" s="29">
+        <v>43733</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>24.571428571428573</v>
+      </c>
+      <c r="G14" s="5">
+        <v>43905</v>
+      </c>
+      <c r="H14" s="41">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="1"/>
+        <v>43919</v>
+      </c>
+      <c r="J14" s="42">
+        <v>2</v>
+      </c>
+      <c r="K14" s="7">
+        <f t="shared" si="2"/>
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A15" s="64"/>
+      <c r="B15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="47" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E15" s="28">
+        <v>43719</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>9.5714285714285712</v>
+      </c>
+      <c r="G15" s="9">
+        <v>43786</v>
+      </c>
+      <c r="H15" s="32">
+        <v>13</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="1"/>
+        <v>43877</v>
+      </c>
+      <c r="J15" s="19">
+        <v>2</v>
+      </c>
+      <c r="K15" s="11">
+        <f t="shared" si="2"/>
+        <v>43891</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="28">
+        <f>G4</f>
+        <v>43954</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="9">
+        <f>MAX(K17:K21)</f>
+        <v>43982</v>
+      </c>
+      <c r="H16" s="32">
         <v>1</v>
       </c>
-      <c r="J4" s="84">
-        <f>H4+I4*7</f>
-        <v>43954</v>
-      </c>
-      <c r="K4" s="85">
-        <v>6</v>
-      </c>
-      <c r="L4" s="86">
-        <f>J4+K4*7</f>
-        <v>43996</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="42">
-        <v>43905</v>
-      </c>
-      <c r="E5" s="22">
-        <f>(F5-D5)/7</f>
-        <v>1</v>
-      </c>
-      <c r="F5" s="5">
-        <v>43912</v>
-      </c>
-      <c r="G5" s="26">
-        <f>(H5-F5)/7</f>
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>43919</v>
-      </c>
-      <c r="I5" s="29">
-        <v>4</v>
-      </c>
-      <c r="J5" s="7">
-        <f>H5+I5*7</f>
-        <v>43947</v>
-      </c>
-      <c r="K5" s="31">
-        <v>1</v>
-      </c>
-      <c r="L5" s="8">
-        <f>J5+K5*7</f>
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="54"/>
-      <c r="B6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="42">
-        <v>43313</v>
-      </c>
-      <c r="E6" s="22">
-        <v>2</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" ref="F6:F21" si="0">D6+E6*7</f>
-        <v>43327</v>
-      </c>
-      <c r="G6" s="26">
-        <f>(H6-F6)/7</f>
-        <v>74</v>
-      </c>
-      <c r="H6" s="6">
-        <v>43845</v>
-      </c>
-      <c r="I6" s="29">
-        <f>(J6-H6)/7</f>
-        <v>2.5714285714285716</v>
-      </c>
-      <c r="J6" s="7">
-        <v>43863</v>
-      </c>
-      <c r="K6" s="31">
-        <v>8</v>
-      </c>
-      <c r="L6" s="8">
-        <f t="shared" ref="L6:L21" si="1">J6+K6*7</f>
-        <v>43919</v>
-      </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="55"/>
-      <c r="B7" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="41">
-        <v>43397</v>
-      </c>
-      <c r="E7" s="23">
-        <v>3</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="0"/>
-        <v>43418</v>
-      </c>
-      <c r="G7" s="26">
-        <f>(H7-F7)/7</f>
-        <v>71.571428571428569</v>
-      </c>
-      <c r="H7" s="11">
-        <v>43919</v>
-      </c>
-      <c r="I7" s="30">
-        <v>6</v>
-      </c>
-      <c r="J7" s="12">
-        <f t="shared" ref="J7:J21" si="2">H7+I7*7</f>
-        <v>43961</v>
-      </c>
-      <c r="K7" s="32">
-        <v>4</v>
-      </c>
-      <c r="L7" s="13">
+      <c r="I16" s="10">
         <f t="shared" si="1"/>
         <v>43989</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="64" t="s">
+      <c r="J16" s="19">
+        <v>3</v>
+      </c>
+      <c r="K16" s="11">
+        <f t="shared" ref="K16" si="4">I16+J16*7</f>
+        <v>44010</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="63"/>
+      <c r="B17" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="43">
-        <v>43404</v>
-      </c>
-      <c r="E8" s="24">
-        <v>3</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D17" s="46" t="str">
+        <f>IF(K17=$G$16,"Critical Path","")</f>
+        <v>Critical Path</v>
+      </c>
+      <c r="E17" s="30">
+        <v>43586</v>
+      </c>
+      <c r="F17" s="17">
         <f t="shared" si="0"/>
-        <v>43425</v>
-      </c>
-      <c r="G8" s="28">
-        <v>43</v>
-      </c>
-      <c r="H8" s="16">
-        <f t="shared" ref="H8:H20" si="3">F8+G8*7</f>
-        <v>43726</v>
-      </c>
-      <c r="I8" s="29">
-        <f>(J8-H8)/7</f>
-        <v>19.571428571428573</v>
-      </c>
-      <c r="J8" s="17">
-        <v>43863</v>
-      </c>
-      <c r="K8" s="33">
+        <v>50.571428571428569</v>
+      </c>
+      <c r="G17" s="12">
+        <v>43940</v>
+      </c>
+      <c r="H17" s="50">
+        <v>4</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="1"/>
+        <v>43968</v>
+      </c>
+      <c r="J17" s="20">
+        <v>2</v>
+      </c>
+      <c r="K17" s="14">
+        <f>I17+J17*7</f>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="63"/>
+      <c r="B18" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="46" t="str">
+        <f>IF(K18=$G$16,"Critical Path","")</f>
+        <v>Critical Path</v>
+      </c>
+      <c r="E18" s="29">
+        <v>43586</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="G18" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H18" s="51">
         <v>6</v>
       </c>
-      <c r="L8" s="18">
+      <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="54"/>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="42">
-        <v>43369</v>
-      </c>
-      <c r="E9" s="22">
-        <v>58</v>
-      </c>
-      <c r="F9" s="5">
+        <v>43968</v>
+      </c>
+      <c r="J18" s="42">
+        <v>2</v>
+      </c>
+      <c r="K18" s="7">
+        <f>I18+J18*7</f>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A19" s="63"/>
+      <c r="B19" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="46" t="str">
+        <f>IF(K19=$G$16,"Critical Path","")</f>
+        <v>Critical Path</v>
+      </c>
+      <c r="E19" s="29">
+        <v>43586</v>
+      </c>
+      <c r="F19" s="15">
         <f t="shared" si="0"/>
-        <v>43775</v>
-      </c>
-      <c r="G9" s="26">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="3"/>
-        <v>43887</v>
-      </c>
-      <c r="I9" s="29">
-        <f>(J9-H9)/7</f>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="J9" s="7">
-        <v>43947</v>
-      </c>
-      <c r="K9" s="31">
+        <v>48.571428571428569</v>
+      </c>
+      <c r="G19" s="5">
+        <v>43926</v>
+      </c>
+      <c r="H19" s="51">
         <v>6</v>
       </c>
-      <c r="L9" s="8">
+      <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="54"/>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="42">
-        <v>43558</v>
-      </c>
-      <c r="E10" s="22">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5">
+        <v>43968</v>
+      </c>
+      <c r="J19" s="42">
+        <v>2</v>
+      </c>
+      <c r="K19" s="7">
+        <f>I19+J19*7</f>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A20" s="63"/>
+      <c r="B20" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="46" t="str">
+        <f>IF(K20=$G$16,"Critical Path","")</f>
+        <v/>
+      </c>
+      <c r="E20" s="29">
+        <v>43586</v>
+      </c>
+      <c r="F20" s="15">
         <f t="shared" si="0"/>
-        <v>43775</v>
-      </c>
-      <c r="G10" s="26">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="3"/>
-        <v>43887</v>
-      </c>
-      <c r="I10" s="29">
-        <f>(J10-H10)/7</f>
-        <v>6.5714285714285712</v>
-      </c>
-      <c r="J10" s="7">
+        <v>49.571428571428569</v>
+      </c>
+      <c r="G20" s="5">
         <v>43933</v>
       </c>
-      <c r="K10" s="31">
+      <c r="H20" s="51">
         <v>4</v>
       </c>
-      <c r="L10" s="8">
+      <c r="I20" s="6">
         <f t="shared" si="1"/>
         <v>43961</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="55"/>
-      <c r="B11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="20" t="s">
+      <c r="J20" s="42">
+        <v>2</v>
+      </c>
+      <c r="K20" s="7">
+        <f>I20+J20*7</f>
+        <v>43975</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A21" s="64"/>
+      <c r="B21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="52" t="str">
+        <f>IF(K21=$G$16,"Critical Path","")</f>
+        <v/>
+      </c>
+      <c r="E21" s="28">
+        <v>43586</v>
+      </c>
+      <c r="F21" s="16">
+        <f t="shared" si="0"/>
+        <v>48.571428571428569</v>
+      </c>
+      <c r="G21" s="9">
+        <v>43926</v>
+      </c>
+      <c r="H21" s="32">
+        <v>4</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="1"/>
+        <v>43954</v>
+      </c>
+      <c r="J21" s="19">
+        <v>2</v>
+      </c>
+      <c r="K21" s="11">
+        <f>I21+J21*7</f>
+        <v>43968</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="61"/>
+      <c r="C23" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A24" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="53">
+        <f>G4</f>
+        <v>43954</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A25" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="53">
+        <f>G4+7</f>
+        <v>43961</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A26" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="53">
+        <f>G16</f>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A27" s="54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="41">
-        <v>43369</v>
-      </c>
-      <c r="E11" s="23">
-        <v>58</v>
-      </c>
-      <c r="F11" s="10">
-        <f t="shared" si="0"/>
-        <v>43775</v>
-      </c>
-      <c r="G11" s="27">
-        <v>16</v>
-      </c>
-      <c r="H11" s="11">
-        <f t="shared" si="3"/>
-        <v>43887</v>
-      </c>
-      <c r="I11" s="75">
-        <f>(J11-H11)/7</f>
-        <v>10.571428571428571</v>
-      </c>
-      <c r="J11" s="12">
-        <v>43961</v>
-      </c>
-      <c r="K11" s="32">
-        <v>4</v>
-      </c>
-      <c r="L11" s="13">
-        <f t="shared" si="1"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="53">
+        <f>I16</f>
         <v>43989</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="54" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="42">
-        <v>43761</v>
-      </c>
-      <c r="E12" s="22">
-        <f>(F12-D12)/7</f>
-        <v>2</v>
-      </c>
-      <c r="F12" s="5">
-        <v>43775</v>
-      </c>
-      <c r="G12" s="26">
-        <v>2</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" ref="H12" si="4">F12+G12*7</f>
-        <v>43789</v>
-      </c>
-      <c r="I12" s="29">
-        <f>(J12-H12)/7</f>
-        <v>10.571428571428571</v>
-      </c>
-      <c r="J12" s="7">
-        <v>43863</v>
-      </c>
-      <c r="K12" s="31">
-        <v>4</v>
-      </c>
-      <c r="L12" s="8">
-        <f t="shared" ref="L12" si="5">J12+K12*7</f>
-        <v>43891</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="54"/>
-      <c r="B13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="42">
-        <v>43502</v>
-      </c>
-      <c r="E13" s="22">
-        <v>31</v>
-      </c>
-      <c r="F13" s="5">
-        <f t="shared" si="0"/>
-        <v>43719</v>
-      </c>
-      <c r="G13" s="26">
-        <v>26</v>
-      </c>
-      <c r="H13" s="6">
-        <f t="shared" si="3"/>
-        <v>43901</v>
-      </c>
-      <c r="I13" s="29">
-        <f>(J13-H13)/7</f>
-        <v>6.5714285714285712</v>
-      </c>
-      <c r="J13" s="7">
-        <v>43947</v>
-      </c>
-      <c r="K13" s="31">
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <f t="shared" si="1"/>
-        <v>43989</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="54"/>
-      <c r="B14" s="4" t="str">
-        <f>"+X Panel V1.0"</f>
-        <v>+X Panel V1.0</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="42">
-        <v>43369</v>
-      </c>
-      <c r="E14" s="22">
-        <v>4</v>
-      </c>
-      <c r="F14" s="5">
-        <f t="shared" si="0"/>
-        <v>43397</v>
-      </c>
-      <c r="G14" s="26">
-        <v>23</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="3"/>
-        <v>43558</v>
-      </c>
-      <c r="I14" s="29">
-        <f>(J14-H14)/7</f>
-        <v>35</v>
-      </c>
-      <c r="J14" s="7">
-        <v>43803</v>
-      </c>
-      <c r="K14" s="31">
-        <f>(L14-J14)/7</f>
-        <v>8.5714285714285712</v>
-      </c>
-      <c r="L14" s="8">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="54"/>
-      <c r="B15" s="4" t="str">
-        <f>"-Z Panel V1.0"</f>
-        <v>-Z Panel V1.0</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="42">
-        <v>43404</v>
-      </c>
-      <c r="E15" s="22">
-        <v>4</v>
-      </c>
-      <c r="F15" s="5">
-        <f t="shared" si="0"/>
-        <v>43432</v>
-      </c>
-      <c r="G15" s="26">
-        <v>43</v>
-      </c>
-      <c r="H15" s="6">
-        <f t="shared" si="3"/>
-        <v>43733</v>
-      </c>
-      <c r="I15" s="29">
-        <f>(J15-H15)/7</f>
-        <v>18.571428571428573</v>
-      </c>
-      <c r="J15" s="7">
-        <v>43863</v>
-      </c>
-      <c r="K15" s="31">
-        <v>6</v>
-      </c>
-      <c r="L15" s="8">
-        <f t="shared" si="1"/>
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="54"/>
-      <c r="B16" s="4" t="s">
+    <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A28" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="42">
-        <v>43341</v>
-      </c>
-      <c r="E16" s="22">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5">
-        <f t="shared" si="0"/>
-        <v>43397</v>
-      </c>
-      <c r="G16" s="26">
-        <v>4</v>
-      </c>
-      <c r="H16" s="6">
-        <f t="shared" si="3"/>
-        <v>43425</v>
-      </c>
-      <c r="I16" s="29">
-        <f>(J16-H16)/7</f>
-        <v>66.571428571428569</v>
-      </c>
-      <c r="J16" s="7">
-        <v>43891</v>
-      </c>
-      <c r="K16" s="31">
-        <v>2</v>
-      </c>
-      <c r="L16" s="8">
-        <f t="shared" si="1"/>
-        <v>43905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="55"/>
-      <c r="B17" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="41">
-        <v>43243</v>
-      </c>
-      <c r="E17" s="23">
-        <v>68</v>
-      </c>
-      <c r="F17" s="10">
-        <f t="shared" si="0"/>
-        <v>43719</v>
-      </c>
-      <c r="G17" s="27">
-        <v>16</v>
-      </c>
-      <c r="H17" s="11">
-        <f t="shared" si="3"/>
-        <v>43831</v>
-      </c>
-      <c r="I17" s="30">
-        <v>12</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="2"/>
-        <v>43915</v>
-      </c>
-      <c r="K17" s="32">
-        <v>6</v>
-      </c>
-      <c r="L17" s="13">
-        <f t="shared" si="1"/>
-        <v>43957</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="43">
-        <v>43397</v>
-      </c>
-      <c r="E18" s="24">
-        <v>44</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
-        <v>43705</v>
-      </c>
-      <c r="G18" s="28">
-        <v>4</v>
-      </c>
-      <c r="H18" s="16">
-        <f t="shared" si="3"/>
-        <v>43733</v>
-      </c>
-      <c r="I18" s="29">
-        <f>(J18-H18)/7</f>
-        <v>8</v>
-      </c>
-      <c r="J18" s="17">
-        <v>43789</v>
-      </c>
-      <c r="K18" s="31">
-        <f>(L18-J18)/7</f>
-        <v>10.571428571428571</v>
-      </c>
-      <c r="L18" s="18">
-        <v>43863</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="55"/>
-      <c r="B19" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="41">
-        <v>43397</v>
-      </c>
-      <c r="E19" s="23">
-        <v>46</v>
-      </c>
-      <c r="F19" s="10">
-        <f t="shared" si="0"/>
-        <v>43719</v>
-      </c>
-      <c r="G19" s="27">
-        <f>(H19-F19)/7</f>
-        <v>20.571428571428573</v>
-      </c>
-      <c r="H19" s="11">
-        <v>43863</v>
-      </c>
-      <c r="I19" s="30">
-        <v>6</v>
-      </c>
-      <c r="J19" s="12">
-        <f t="shared" si="2"/>
-        <v>43905</v>
-      </c>
-      <c r="K19" s="32">
-        <v>6</v>
-      </c>
-      <c r="L19" s="13">
-        <f t="shared" si="1"/>
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="42">
-        <v>43877</v>
-      </c>
-      <c r="E20" s="22">
-        <f>(F20-D20)/7</f>
-        <v>2</v>
-      </c>
-      <c r="F20" s="5">
-        <v>43891</v>
-      </c>
-      <c r="G20" s="26">
-        <v>2</v>
-      </c>
-      <c r="H20" s="6">
-        <f t="shared" si="3"/>
-        <v>43905</v>
-      </c>
-      <c r="I20" s="29">
-        <v>4</v>
-      </c>
-      <c r="J20" s="7">
-        <f t="shared" si="2"/>
-        <v>43933</v>
-      </c>
-      <c r="K20" s="31">
-        <v>2</v>
-      </c>
-      <c r="L20" s="8">
-        <f t="shared" si="1"/>
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="55"/>
-      <c r="B21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="41">
-        <v>43243</v>
-      </c>
-      <c r="E21" s="23">
-        <v>7</v>
-      </c>
-      <c r="F21" s="10">
-        <f t="shared" si="0"/>
-        <v>43292</v>
-      </c>
-      <c r="G21" s="27">
-        <f>(H21-F21)/7</f>
-        <v>85.571428571428569</v>
-      </c>
-      <c r="H21" s="11">
-        <v>43891</v>
-      </c>
-      <c r="I21" s="75">
-        <v>4</v>
-      </c>
-      <c r="J21" s="12">
-        <f t="shared" si="2"/>
-        <v>43919</v>
-      </c>
-      <c r="K21" s="32">
-        <v>4</v>
-      </c>
-      <c r="L21" s="13">
-        <f t="shared" si="1"/>
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="23.25" x14ac:dyDescent="0.65">
-      <c r="A22" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="66"/>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="46"/>
-    </row>
-    <row r="23" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A23" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A24" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="48">
-        <f>H4</f>
-        <v>43947</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A25" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="52"/>
-      <c r="C25" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="53"/>
-      <c r="K25" s="53"/>
-      <c r="L25" s="48">
-        <f>J4</f>
-        <v>43954</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A26" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
-      <c r="I26" s="53"/>
-      <c r="J26" s="53"/>
-      <c r="K26" s="53"/>
-      <c r="L26" s="48">
-        <f>L4+7</f>
-        <v>44003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A27" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27" s="52"/>
-      <c r="C27" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-      <c r="J27" s="53"/>
-      <c r="K27" s="53"/>
-      <c r="L27" s="48">
-        <f>L26+7</f>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="53">
+        <f>K16</f>
         <v>44010</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A28" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="53"/>
-      <c r="K28" s="53"/>
-      <c r="L28" s="48">
-        <f>L27+2</f>
-        <v>44012</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A22:D22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:K21">
+    <sortCondition descending="1" ref="K17:K21"/>
+  </sortState>
+  <mergeCells count="23">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:J27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C26:K26"/>
-    <mergeCell ref="C27:K27"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:K25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C28:J28"/>
   </mergeCells>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="D4:D21">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Critical">
+      <formula>NOT(ISERROR(SEARCH("Critical",D4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
-  <rowBreaks count="1" manualBreakCount="1">
-    <brk id="21" max="16383" man="1"/>
-  </rowBreaks>
 </worksheet>
 </file>
 
@@ -4450,7 +4062,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="A29" sqref="A29:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4470,24 +4082,24 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 26-Jan-20</v>
+        <v>Today: 14-Feb-20</v>
       </c>
       <c r="G1" s="2">
-        <v>43835</v>
+        <v>43863</v>
       </c>
       <c r="H1">
         <f>INT(G1)</f>
-        <v>43835</v>
+        <v>43863</v>
       </c>
       <c r="I1">
         <f>H1+28</f>
-        <v>43863</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43856</v>
+        <v>43875</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4496,7 +4108,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43856</v>
+        <v>43875</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4520,13 +4132,13 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" t="str">
         <f>Text!A24</f>
-        <v>FU Integration</v>
+        <v>Flight Unit Integration</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <f>Text!L24</f>
-        <v>43947</v>
+        <f>Text!K24</f>
+        <v>43954</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4534,8 +4146,8 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <f>Text!L24</f>
-        <v>43947</v>
+        <f>Text!K24</f>
+        <v>43954</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4544,13 +4156,13 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="str">
         <f>Text!A25</f>
-        <v>FU Day in the Life Test</v>
+        <v>Vibration Test</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <f>Text!L25</f>
-        <v>43954</v>
+        <f>Text!K25</f>
+        <v>43961</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4558,8 +4170,8 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <f>Text!L25</f>
-        <v>43954</v>
+        <f>Text!K25</f>
+        <v>43961</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4568,13 +4180,13 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="str">
         <f>Text!A26</f>
-        <v>FRR</v>
+        <v>Software Integration</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <f>Text!L26</f>
-        <v>44003</v>
+        <f>Text!K26</f>
+        <v>43982</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4582,8 +4194,8 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <f>Text!L26</f>
-        <v>44003</v>
+        <f>Text!K26</f>
+        <v>43982</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4592,13 +4204,13 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
         <f>Text!A27</f>
-        <v>MRR</v>
+        <v>Day in the Life Test</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <f>Text!L27</f>
-        <v>44010</v>
+        <f>Text!K27</f>
+        <v>43989</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4606,8 +4218,8 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <f>Text!L27</f>
-        <v>44010</v>
+        <f>Text!K27</f>
+        <v>43989</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4616,13 +4228,13 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
         <f>Text!A28</f>
-        <v>ILC</v>
+        <v>Nanoracks Handover</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <f>Text!L28</f>
-        <v>44012</v>
+        <f>Text!K28</f>
+        <v>44010</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4630,8 +4242,8 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <f>Text!L28</f>
-        <v>44012</v>
+        <f>Text!K28</f>
+        <v>44010</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0253B5CE-F60E-4D0D-9E70-22E3D7193B87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55C5DD-1133-47DE-84C3-34991F8D4522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="8" r:id="rId1"/>
     <sheet name="Text" sheetId="7" r:id="rId2"/>
-    <sheet name="Gantt Lines" sheetId="9" state="hidden" r:id="rId3"/>
+    <sheet name="Gantt Lines" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="Build">Text!$H$4:$H$21</definedName>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>Start</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>Last component of the milestone</t>
-  </si>
-  <si>
-    <t>V1.5.0</t>
   </si>
   <si>
     <t>Day in the Life Test</t>
@@ -223,6 +220,21 @@
   </si>
   <si>
     <t>Collection of tasks that mark important dates</t>
+  </si>
+  <si>
+    <t>Battery Qualification</t>
+  </si>
+  <si>
+    <t>Testing the batteries per the testing plan</t>
+  </si>
+  <si>
+    <t>All RF regulatory documents completed and being processed by regulatory bodies (FCC)</t>
+  </si>
+  <si>
+    <t>Radio Licensing Forms</t>
+  </si>
+  <si>
+    <t>V1.5.1</t>
   </si>
 </sst>
 </file>
@@ -1659,8 +1671,140 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Radio Licensing Forms</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$6:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43891</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43891</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$6:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-38E4-4B08-AFB0-72FBDC711CEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Gantt Lines'!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Battery Qualification</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$A$10:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43898</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Gantt Lines'!$B$10:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-38E4-4B08-AFB0-72FBDC711CEC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$13</c:f>
@@ -1723,7 +1867,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$17</c:f>
@@ -1786,7 +1930,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="8"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$21</c:f>
@@ -1849,7 +1993,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="9"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$25</c:f>
@@ -1915,7 +2059,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="8"/>
-          <c:order val="8"/>
+          <c:order val="10"/>
           <c:tx>
             <c:strRef>
               <c:f>'Gantt Lines'!$B$29</c:f>
@@ -3111,10 +3255,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3141,7 +3285,7 @@
       <c r="D1" s="57"/>
       <c r="E1" s="57"/>
       <c r="F1" s="25" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="G1" s="26"/>
       <c r="H1" s="25"/>
@@ -3185,7 +3329,7 @@
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>29</v>
@@ -3551,7 +3695,7 @@
     <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A13" s="63"/>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="31" t="s">
         <v>5</v>
@@ -3588,7 +3732,7 @@
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A14" s="63"/>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="31" t="s">
         <v>5</v>
@@ -3625,7 +3769,7 @@
     <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A15" s="64"/>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="43" t="s">
         <v>5</v>
@@ -3661,10 +3805,10 @@
     </row>
     <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A16" s="65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>7</v>
@@ -3700,7 +3844,7 @@
     <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A17" s="63"/>
       <c r="B17" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C17" s="49" t="s">
         <v>7</v>
@@ -3811,7 +3955,7 @@
     <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A20" s="63"/>
       <c r="B20" s="31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="31" t="s">
         <v>7</v>
@@ -3848,7 +3992,7 @@
     <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A21" s="64"/>
       <c r="B21" s="43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="43" t="s">
         <v>7</v>
@@ -3884,7 +4028,7 @@
     </row>
     <row r="22" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
       <c r="A22" s="56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22" s="57"/>
       <c r="C22" s="57"/>
@@ -3918,11 +4062,11 @@
     </row>
     <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
       <c r="A24" s="54" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B24" s="54"/>
       <c r="C24" s="55" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D24" s="55"/>
       <c r="E24" s="55"/>
@@ -3932,17 +4076,16 @@
       <c r="I24" s="55"/>
       <c r="J24" s="55"/>
       <c r="K24" s="53">
-        <f>G4</f>
-        <v>43954</v>
+        <v>43891</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
       <c r="A25" s="54" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B25" s="54"/>
       <c r="C25" s="55" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D25" s="55"/>
       <c r="E25" s="55"/>
@@ -3952,17 +4095,16 @@
       <c r="I25" s="55"/>
       <c r="J25" s="55"/>
       <c r="K25" s="53">
-        <f>G4+7</f>
-        <v>43961</v>
+        <v>43898</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
       <c r="A26" s="54" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" s="54"/>
       <c r="C26" s="55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D26" s="55"/>
       <c r="E26" s="55"/>
@@ -3972,17 +4114,17 @@
       <c r="I26" s="55"/>
       <c r="J26" s="55"/>
       <c r="K26" s="53">
-        <f>G16</f>
-        <v>43982</v>
+        <f>G4</f>
+        <v>43954</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
       <c r="A27" s="54" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B27" s="54"/>
       <c r="C27" s="55" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="D27" s="55"/>
       <c r="E27" s="55"/>
@@ -3992,13 +4134,13 @@
       <c r="I27" s="55"/>
       <c r="J27" s="55"/>
       <c r="K27" s="53">
-        <f>I16</f>
-        <v>43989</v>
+        <f>G4+7</f>
+        <v>43961</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
       <c r="A28" s="54" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B28" s="54"/>
       <c r="C28" s="55" t="s">
@@ -4012,6 +4154,46 @@
       <c r="I28" s="55"/>
       <c r="J28" s="55"/>
       <c r="K28" s="53">
+        <f>G16</f>
+        <v>43982</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A29" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="53">
+        <f>I16</f>
+        <v>43989</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A30" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="53">
         <f>K16</f>
         <v>44010</v>
       </c>
@@ -4020,7 +4202,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:K21">
     <sortCondition descending="1" ref="K17:K21"/>
   </sortState>
-  <mergeCells count="23">
+  <mergeCells count="27">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="F3:G3"/>
@@ -4028,22 +4210,26 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="A22:K22"/>
     <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A27:B27"/>
     <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="C26:J26"/>
+    <mergeCell ref="C27:J27"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A26:B26"/>
     <mergeCell ref="A4:A15"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:J25"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D4:D21">
@@ -4054,6 +4240,9 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="21" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -4062,7 +4251,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B31"/>
+      <selection activeCell="A9" sqref="A9:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4114,30 +4303,66 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B5" t="str">
+        <f>Text!A24</f>
+        <v>Radio Licensing Forms</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <f>Text!K24</f>
+        <v>43891</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <f>Text!K24</f>
+        <v>43891</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B9" t="str">
+        <f>Text!A25</f>
+        <v>Battery Qualification</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <f>Text!K25</f>
+        <v>43898</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="2"/>
+      <c r="A11" s="2">
+        <f>Text!K25</f>
+        <v>43898</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" t="str">
-        <f>Text!A24</f>
+        <f>Text!A26</f>
         <v>Flight Unit Integration</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <f>Text!K24</f>
+        <f>Text!K26</f>
         <v>43954</v>
       </c>
       <c r="B14">
@@ -4146,7 +4371,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <f>Text!K24</f>
+        <f>Text!K26</f>
         <v>43954</v>
       </c>
       <c r="B15">
@@ -4155,13 +4380,13 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="str">
-        <f>Text!A25</f>
+        <f>Text!A27</f>
         <v>Vibration Test</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <f>Text!K25</f>
+        <f>Text!K27</f>
         <v>43961</v>
       </c>
       <c r="B18">
@@ -4170,7 +4395,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <f>Text!K25</f>
+        <f>Text!K27</f>
         <v>43961</v>
       </c>
       <c r="B19">
@@ -4179,13 +4404,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="str">
-        <f>Text!A26</f>
+        <f>Text!A28</f>
         <v>Software Integration</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <f>Text!K26</f>
+        <f>Text!K28</f>
         <v>43982</v>
       </c>
       <c r="B22">
@@ -4194,7 +4419,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <f>Text!K26</f>
+        <f>Text!K28</f>
         <v>43982</v>
       </c>
       <c r="B23">
@@ -4203,13 +4428,13 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
-        <f>Text!A27</f>
+        <f>Text!A29</f>
         <v>Day in the Life Test</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <f>Text!K27</f>
+        <f>Text!K29</f>
         <v>43989</v>
       </c>
       <c r="B26">
@@ -4218,7 +4443,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <f>Text!K27</f>
+        <f>Text!K29</f>
         <v>43989</v>
       </c>
       <c r="B27">
@@ -4227,13 +4452,13 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
-        <f>Text!A28</f>
+        <f>Text!A30</f>
         <v>Nanoracks Handover</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <f>Text!K28</f>
+        <f>Text!K30</f>
         <v>44010</v>
       </c>
       <c r="B30">
@@ -4242,7 +4467,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <f>Text!K28</f>
+        <f>Text!K30</f>
         <v>44010</v>
       </c>
       <c r="B31">

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougsInSpace\CougSat1-Readme\Native\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\Git\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD55C5DD-1133-47DE-84C3-34991F8D4522}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FEE232-7CEF-47E0-B7CE-E73DCB528B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="8" r:id="rId1"/>
@@ -708,7 +708,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -739,9 +739,6 @@
     <xf numFmtId="165" fontId="7" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +788,6 @@
     <xf numFmtId="165" fontId="7" fillId="14" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="14" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -851,18 +845,27 @@
     <xf numFmtId="0" fontId="7" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -873,6 +876,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1097,58 +1103,58 @@
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43877</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43891</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43711</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43877</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43831</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43863</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43733</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43719</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43954</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43586</c:v>
+                  <c:v>44048</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1262,58 +1268,58 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>368</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>312</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>187</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>46</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>35</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>312</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>333</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>172</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>67</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>354</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>340</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>340</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>347</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>340</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,10 +1436,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
@@ -1442,37 +1448,37 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>91</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>28</c:v>
@@ -1628,7 +1634,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>21</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>14</c:v>
@@ -1835,10 +1841,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43954</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43954</c:v>
+                  <c:v>44146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1898,10 +1904,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43961</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43961</c:v>
+                  <c:v>44153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1961,10 +1967,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43982</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43982</c:v>
+                  <c:v>44160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,10 +2033,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43989</c:v>
+                  <c:v>44181</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43989</c:v>
+                  <c:v>44181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,10 +2099,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44010</c:v>
+                  <c:v>44195</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44010</c:v>
+                  <c:v>44195</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2189,8 +2195,7 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44027"/>
-          <c:min val="43863"/>
+          <c:min val="44048"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2929,7 +2934,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12225338" cy="7196138"/>
+    <xdr:ext cx="12231624" cy="7202424"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3257,8 +3262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3266,936 +3271,935 @@
     <col min="1" max="1" width="20.265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="48" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="46" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1328125" style="17" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="25" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26" t="s">
+      <c r="G1" s="25"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="69">
+      <c r="J1" s="71">
         <f>MAX(E4:K21)</f>
-        <v>44010</v>
-      </c>
-      <c r="K1" s="70"/>
+        <v>44195</v>
+      </c>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="58" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="58"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="74"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="34">
-        <v>43586</v>
-      </c>
-      <c r="F4" s="35">
-        <f t="shared" ref="F4:F21" si="0">(G4-E4)/7</f>
-        <v>52.571428571428569</v>
-      </c>
-      <c r="G4" s="36">
+      <c r="D4" s="43"/>
+      <c r="E4" s="32">
+        <v>44048</v>
+      </c>
+      <c r="F4" s="33">
+        <f t="shared" ref="F4:F16" si="0">(G4-E4)/7</f>
+        <v>14</v>
+      </c>
+      <c r="G4" s="34">
         <f>MAX(K5:K15)</f>
-        <v>43954</v>
-      </c>
-      <c r="H4" s="37">
+        <v>44146</v>
+      </c>
+      <c r="H4" s="35">
         <v>2</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="36">
         <f t="shared" ref="I4:I21" si="1">G4+H4*7</f>
-        <v>43968</v>
-      </c>
-      <c r="J4" s="39">
+        <v>44160</v>
+      </c>
+      <c r="J4" s="37">
         <v>3</v>
       </c>
-      <c r="K4" s="40">
+      <c r="K4" s="38">
         <f t="shared" ref="K4:K15" si="2">I4+J4*7</f>
-        <v>43989</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="46" t="str">
+      <c r="D5" s="44" t="str">
         <f t="shared" ref="D5:D15" si="3">IF(K5=$G$4,"Critical Path","")</f>
-        <v>Critical Path</v>
-      </c>
-      <c r="E5" s="29">
-        <v>43877</v>
-      </c>
-      <c r="F5" s="15">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <v/>
+      </c>
+      <c r="E5" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F5" s="14">
+        <v>4</v>
       </c>
       <c r="G5" s="5">
-        <v>43926</v>
-      </c>
-      <c r="H5" s="41">
-        <v>2</v>
+        <f>E5+F5*7</f>
+        <v>44076</v>
+      </c>
+      <c r="H5" s="39">
+        <v>4</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>43940</v>
-      </c>
-      <c r="J5" s="42">
+        <v>44104</v>
+      </c>
+      <c r="J5" s="40">
         <v>2</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="2"/>
-        <v>43954</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="46" t="str">
+      <c r="D6" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E6" s="29">
-        <v>43891</v>
-      </c>
-      <c r="F6" s="15">
-        <f t="shared" si="0"/>
+      <c r="E6" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F6" s="14">
         <v>4</v>
       </c>
       <c r="G6" s="5">
-        <v>43919</v>
-      </c>
-      <c r="H6" s="41">
-        <v>2</v>
+        <f t="shared" ref="G6:G14" si="4">E6+F6*7</f>
+        <v>44076</v>
+      </c>
+      <c r="H6" s="39">
+        <v>4</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>43933</v>
-      </c>
-      <c r="J6" s="42">
+        <v>44104</v>
+      </c>
+      <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="2"/>
-        <v>43947</v>
+        <v>44118</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="46" t="str">
+      <c r="D7" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v>Critical Path</v>
+      </c>
+      <c r="E7" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F7" s="14">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>44104</v>
+      </c>
+      <c r="H7" s="39">
+        <v>4</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="1"/>
+        <v>44132</v>
+      </c>
+      <c r="J7" s="40">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="2"/>
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="65"/>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E7" s="29">
-        <v>43586</v>
-      </c>
-      <c r="F7" s="15">
-        <f t="shared" si="0"/>
-        <v>44.571428571428569</v>
-      </c>
-      <c r="G7" s="5">
-        <v>43898</v>
-      </c>
-      <c r="H7" s="41">
+      <c r="E8" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F8" s="14">
         <v>4</v>
       </c>
-      <c r="I7" s="6">
-        <f t="shared" si="1"/>
-        <v>43926</v>
-      </c>
-      <c r="J7" s="42">
-        <v>2</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
-        <v>43940</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="63"/>
-      <c r="B8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="46" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E8" s="29">
-        <v>43711</v>
-      </c>
-      <c r="F8" s="15">
-        <f t="shared" si="0"/>
-        <v>26.714285714285715</v>
-      </c>
       <c r="G8" s="5">
-        <v>43898</v>
-      </c>
-      <c r="H8" s="41">
+        <f t="shared" si="4"/>
+        <v>44076</v>
+      </c>
+      <c r="H8" s="39">
         <v>2</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>43912</v>
-      </c>
-      <c r="J8" s="42">
+        <v>44090</v>
+      </c>
+      <c r="J8" s="40">
         <v>2</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="2"/>
-        <v>43926</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="4" t="str">
         <f>"+X Panel V1.1"</f>
         <v>+X Panel V1.1</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="46" t="str">
+      <c r="D9" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E9" s="29">
-        <v>43877</v>
-      </c>
-      <c r="F9" s="15">
-        <f t="shared" si="0"/>
-        <v>4</v>
+      <c r="E9" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F9" s="14">
+        <v>8</v>
       </c>
       <c r="G9" s="5">
-        <v>43905</v>
-      </c>
-      <c r="H9" s="41">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>44104</v>
+      </c>
+      <c r="H9" s="39">
+        <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>43912</v>
-      </c>
-      <c r="J9" s="42">
+        <v>44118</v>
+      </c>
+      <c r="J9" s="40">
         <v>2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>43926</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="46" t="str">
+      <c r="D10" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E10" s="29">
-        <v>43831</v>
-      </c>
-      <c r="F10" s="15">
-        <f t="shared" si="0"/>
-        <v>6.5714285714285712</v>
+      <c r="E10" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F10" s="14">
+        <v>4</v>
       </c>
       <c r="G10" s="5">
-        <v>43877</v>
-      </c>
-      <c r="H10" s="41">
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>44076</v>
+      </c>
+      <c r="H10" s="39">
+        <v>6</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>43905</v>
-      </c>
-      <c r="J10" s="42">
+        <v>44118</v>
+      </c>
+      <c r="J10" s="40">
         <v>2</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
-        <v>43919</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="46" t="str">
+      <c r="D11" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E11" s="29">
-        <v>43863</v>
-      </c>
-      <c r="F11" s="15">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="E11" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2</v>
       </c>
       <c r="G11" s="5">
-        <v>43898</v>
-      </c>
-      <c r="H11" s="41">
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>44062</v>
+      </c>
+      <c r="H11" s="39">
+        <v>2</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>43905</v>
-      </c>
-      <c r="J11" s="42">
+        <v>44076</v>
+      </c>
+      <c r="J11" s="40">
         <v>2</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>43919</v>
+        <v>44090</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="63"/>
-      <c r="B12" s="43" t="str">
+      <c r="A12" s="65"/>
+      <c r="B12" s="41" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="47" t="str">
+      <c r="D12" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E12" s="28">
-        <v>43586</v>
-      </c>
-      <c r="F12" s="16">
-        <f t="shared" si="0"/>
-        <v>44.571428571428569</v>
+      <c r="E12" s="27">
+        <v>44048</v>
+      </c>
+      <c r="F12" s="15">
+        <v>4</v>
       </c>
       <c r="G12" s="9">
-        <v>43898</v>
-      </c>
-      <c r="H12" s="32">
-        <v>1</v>
+        <f>E12+F12*7</f>
+        <v>44076</v>
+      </c>
+      <c r="H12" s="30">
+        <v>2</v>
       </c>
       <c r="I12" s="10">
         <f t="shared" si="1"/>
-        <v>43905</v>
-      </c>
-      <c r="J12" s="19">
+        <v>44090</v>
+      </c>
+      <c r="J12" s="18">
         <v>2</v>
       </c>
       <c r="K12" s="11">
         <f t="shared" si="2"/>
-        <v>43919</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="46" t="str">
+      <c r="D13" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E13" s="29">
-        <v>43586</v>
-      </c>
-      <c r="F13" s="15">
-        <f t="shared" si="0"/>
-        <v>47.571428571428569</v>
+      <c r="E13" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F13" s="14">
+        <v>6</v>
       </c>
       <c r="G13" s="5">
-        <v>43919</v>
-      </c>
-      <c r="H13" s="41">
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>44090</v>
+      </c>
+      <c r="H13" s="39">
+        <v>4</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="1"/>
-        <v>43933</v>
-      </c>
-      <c r="J13" s="44">
+        <v>44118</v>
+      </c>
+      <c r="J13" s="42">
         <v>2</v>
       </c>
       <c r="K13" s="7">
         <f t="shared" si="2"/>
-        <v>43947</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="46" t="str">
+      <c r="D14" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E14" s="29">
-        <v>43733</v>
-      </c>
-      <c r="F14" s="15">
-        <f t="shared" si="0"/>
-        <v>24.571428571428573</v>
+      <c r="E14" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F14" s="14">
+        <v>8</v>
       </c>
       <c r="G14" s="5">
-        <v>43905</v>
-      </c>
-      <c r="H14" s="41">
+        <f t="shared" si="4"/>
+        <v>44104</v>
+      </c>
+      <c r="H14" s="39">
         <v>2</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>43919</v>
-      </c>
-      <c r="J14" s="42">
+        <v>44118</v>
+      </c>
+      <c r="J14" s="40">
         <v>2</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="2"/>
-        <v>43933</v>
+        <v>44132</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="64"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="47" t="str">
+      <c r="D15" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E15" s="28">
-        <v>43719</v>
-      </c>
-      <c r="F15" s="16">
-        <f t="shared" si="0"/>
-        <v>9.5714285714285712</v>
+      <c r="E15" s="27">
+        <v>44048</v>
+      </c>
+      <c r="F15" s="15">
+        <v>4</v>
       </c>
       <c r="G15" s="9">
-        <v>43786</v>
-      </c>
-      <c r="H15" s="32">
-        <v>13</v>
+        <f>E15+F15*7</f>
+        <v>44076</v>
+      </c>
+      <c r="H15" s="30">
+        <v>2</v>
       </c>
       <c r="I15" s="10">
         <f t="shared" si="1"/>
-        <v>43877</v>
-      </c>
-      <c r="J15" s="19">
+        <v>44090</v>
+      </c>
+      <c r="J15" s="18">
         <v>2</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" si="2"/>
-        <v>43891</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="67" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="47"/>
-      <c r="E16" s="28">
-        <f>G4</f>
-        <v>43954</v>
-      </c>
-      <c r="F16" s="16">
+      <c r="D16" s="45"/>
+      <c r="E16" s="27">
+        <v>44048</v>
+      </c>
+      <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="9">
+        <v>16</v>
+      </c>
+      <c r="G16" s="5">
         <f>MAX(K17:K21)</f>
-        <v>43982</v>
-      </c>
-      <c r="H16" s="32">
-        <v>1</v>
+        <v>44160</v>
+      </c>
+      <c r="H16" s="30">
+        <v>3</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>43989</v>
-      </c>
-      <c r="J16" s="19">
-        <v>3</v>
+        <v>44181</v>
+      </c>
+      <c r="J16" s="18">
+        <v>2</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" ref="K16" si="4">I16+J16*7</f>
-        <v>44010</v>
+        <f t="shared" ref="K16" si="5">I16+J16*7</f>
+        <v>44195</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="63"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="46" t="str">
+      <c r="D17" s="44" t="str">
         <f>IF(K17=$G$16,"Critical Path","")</f>
         <v>Critical Path</v>
       </c>
-      <c r="E17" s="30">
-        <v>43586</v>
-      </c>
-      <c r="F17" s="17">
-        <f t="shared" si="0"/>
-        <v>50.571428571428569</v>
-      </c>
-      <c r="G17" s="12">
-        <v>43940</v>
+      <c r="E17" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F17" s="16">
+        <v>10</v>
+      </c>
+      <c r="G17" s="53">
+        <f>E17+F17*7</f>
+        <v>44118</v>
       </c>
       <c r="H17" s="50">
         <v>4</v>
       </c>
-      <c r="I17" s="13">
+      <c r="I17" s="12">
         <f t="shared" si="1"/>
-        <v>43968</v>
-      </c>
-      <c r="J17" s="20">
+        <v>44146</v>
+      </c>
+      <c r="J17" s="19">
         <v>2</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <f>I17+J17*7</f>
-        <v>43982</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="63"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="65"/>
+      <c r="B18" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="46" t="str">
+      <c r="D18" s="44" t="str">
         <f>IF(K18=$G$16,"Critical Path","")</f>
         <v>Critical Path</v>
       </c>
-      <c r="E18" s="29">
-        <v>43586</v>
-      </c>
-      <c r="F18" s="15">
-        <f t="shared" si="0"/>
-        <v>48.571428571428569</v>
-      </c>
-      <c r="G18" s="5">
-        <v>43926</v>
-      </c>
-      <c r="H18" s="51">
-        <v>6</v>
+      <c r="E18" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F18" s="14">
+        <v>10</v>
+      </c>
+      <c r="G18" s="52">
+        <f>E18+F18*7</f>
+        <v>44118</v>
+      </c>
+      <c r="H18" s="39">
+        <v>4</v>
       </c>
       <c r="I18" s="6">
         <f t="shared" si="1"/>
-        <v>43968</v>
-      </c>
-      <c r="J18" s="42">
+        <v>44146</v>
+      </c>
+      <c r="J18" s="40">
         <v>2</v>
       </c>
       <c r="K18" s="7">
         <f>I18+J18*7</f>
-        <v>43982</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="63"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="65"/>
+      <c r="B19" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="46" t="str">
+      <c r="D19" s="44" t="str">
         <f>IF(K19=$G$16,"Critical Path","")</f>
         <v>Critical Path</v>
       </c>
-      <c r="E19" s="29">
-        <v>43586</v>
-      </c>
-      <c r="F19" s="15">
-        <f t="shared" si="0"/>
-        <v>48.571428571428569</v>
-      </c>
-      <c r="G19" s="5">
-        <v>43926</v>
-      </c>
-      <c r="H19" s="51">
-        <v>6</v>
+      <c r="E19" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F19" s="14">
+        <v>10</v>
+      </c>
+      <c r="G19" s="52">
+        <f>E19+F19*7</f>
+        <v>44118</v>
+      </c>
+      <c r="H19" s="39">
+        <v>4</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>43968</v>
-      </c>
-      <c r="J19" s="42">
+        <v>44146</v>
+      </c>
+      <c r="J19" s="40">
         <v>2</v>
       </c>
       <c r="K19" s="7">
         <f>I19+J19*7</f>
-        <v>43982</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="63"/>
-      <c r="B20" s="31" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="46" t="str">
+      <c r="D20" s="44" t="str">
         <f>IF(K20=$G$16,"Critical Path","")</f>
-        <v/>
-      </c>
-      <c r="E20" s="29">
-        <v>43586</v>
-      </c>
-      <c r="F20" s="15">
-        <f t="shared" si="0"/>
-        <v>49.571428571428569</v>
-      </c>
-      <c r="G20" s="5">
-        <v>43933</v>
-      </c>
-      <c r="H20" s="51">
+        <v>Critical Path</v>
+      </c>
+      <c r="E20" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F20" s="14">
+        <v>10</v>
+      </c>
+      <c r="G20" s="52">
+        <f>E20+F20*7</f>
+        <v>44118</v>
+      </c>
+      <c r="H20" s="39">
         <v>4</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>43961</v>
-      </c>
-      <c r="J20" s="42">
+        <v>44146</v>
+      </c>
+      <c r="J20" s="40">
         <v>2</v>
       </c>
       <c r="K20" s="7">
         <f>I20+J20*7</f>
-        <v>43975</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="64"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="66"/>
+      <c r="B21" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="52" t="str">
+      <c r="D21" s="48" t="str">
         <f>IF(K21=$G$16,"Critical Path","")</f>
-        <v/>
+        <v>Critical Path</v>
       </c>
       <c r="E21" s="28">
-        <v>43586</v>
-      </c>
-      <c r="F21" s="16">
-        <f t="shared" si="0"/>
-        <v>48.571428571428569</v>
-      </c>
-      <c r="G21" s="9">
-        <v>43926</v>
-      </c>
-      <c r="H21" s="32">
+        <v>44048</v>
+      </c>
+      <c r="F21" s="15">
+        <v>10</v>
+      </c>
+      <c r="G21" s="54">
+        <f>E21+F21*7</f>
+        <v>44118</v>
+      </c>
+      <c r="H21" s="51">
         <v>4</v>
       </c>
       <c r="I21" s="10">
         <f t="shared" si="1"/>
-        <v>43954</v>
-      </c>
-      <c r="J21" s="19">
+        <v>44146</v>
+      </c>
+      <c r="J21" s="18">
         <v>2</v>
       </c>
       <c r="K21" s="11">
         <f>I21+J21*7</f>
-        <v>43968</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
     </row>
     <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="59" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
-      <c r="I23" s="60"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="22" t="s">
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="55" t="s">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="53">
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+      <c r="K24" s="49">
         <v>43891</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A25" s="54" t="s">
+      <c r="A25" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="53">
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+      <c r="K25" s="49">
         <v>43898</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="53">
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="49">
         <f>G4</f>
-        <v>43954</v>
+        <v>44146</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="53">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="49">
         <f>G4+7</f>
-        <v>43961</v>
+        <v>44153</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A28" s="54" t="s">
+      <c r="A28" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="53">
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="49">
         <f>G16</f>
-        <v>43982</v>
+        <v>44160</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="53">
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="49">
         <f>I16</f>
-        <v>43989</v>
+        <v>44181</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="53">
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="49">
         <f>K16</f>
-        <v>44010</v>
+        <v>44195</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +4255,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B11"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4271,24 +4275,24 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 14-Feb-20</v>
+        <v>Today: 04-Jun-20</v>
       </c>
       <c r="G1" s="2">
-        <v>43863</v>
+        <v>44048</v>
       </c>
       <c r="H1">
         <f>INT(G1)</f>
-        <v>43863</v>
+        <v>44048</v>
       </c>
       <c r="I1">
         <f>H1+28</f>
-        <v>43891</v>
+        <v>44076</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43875</v>
+        <v>43986</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4297,7 +4301,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43875</v>
+        <v>43986</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4363,7 +4367,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f>Text!K26</f>
-        <v>43954</v>
+        <v>44146</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4372,7 +4376,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f>Text!K26</f>
-        <v>43954</v>
+        <v>44146</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4387,7 +4391,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f>Text!K27</f>
-        <v>43961</v>
+        <v>44153</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4396,7 +4400,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f>Text!K27</f>
-        <v>43961</v>
+        <v>44153</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4411,7 +4415,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f>Text!K28</f>
-        <v>43982</v>
+        <v>44160</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4420,7 +4424,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f>Text!K28</f>
-        <v>43982</v>
+        <v>44160</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4435,7 +4439,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f>Text!K29</f>
-        <v>43989</v>
+        <v>44181</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4444,7 +4448,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f>Text!K29</f>
-        <v>43989</v>
+        <v>44181</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4459,7 +4463,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f>Text!K30</f>
-        <v>44010</v>
+        <v>44195</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4468,7 +4472,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f>Text!K30</f>
-        <v>44010</v>
+        <v>44195</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\Git\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FEE232-7CEF-47E0-B7CE-E73DCB528B7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3061F6-841B-4712-908F-EC7BA742904F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="8" r:id="rId1"/>
@@ -18,13 +18,13 @@
     <sheet name="Gantt Lines" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Build">Text!$H$4:$H$21</definedName>
+    <definedName name="Build">Text!$H$4:$H$22</definedName>
     <definedName name="Build_Days">Build*7</definedName>
-    <definedName name="Design">Text!$F$4:$F$21</definedName>
+    <definedName name="Design">Text!$F$4:$F$22</definedName>
     <definedName name="Design_Days">Design*7</definedName>
-    <definedName name="Labels">Text!$A$4:$B$21</definedName>
-    <definedName name="Start">Text!$E$4:$E$21</definedName>
-    <definedName name="Test">Text!$J$4:$J$21</definedName>
+    <definedName name="Labels">Text!$A$4:$B$22</definedName>
+    <definedName name="Start">Text!$E$4:$E$22</definedName>
+    <definedName name="Test">Text!$J$4:$J$22</definedName>
     <definedName name="Test_Days">Test*7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="57">
   <si>
     <t>Start</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>V1.5.1</t>
+  </si>
+  <si>
+    <t>Battery Testing</t>
   </si>
 </sst>
 </file>
@@ -866,33 +869,51 @@
     <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -912,24 +933,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1028,7 +1031,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
@@ -1037,51 +1040,54 @@
                     <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Battery Testing</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Structure V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Avionics V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>+X Panel V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>Comms V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>Backplane V3.2</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Germination Chamber</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>Germination Board V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Camera Board V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Day in the Life Test</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>IHU - C&amp;DH Controller</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>IFJR</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1089,7 +1095,7 @@
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1101,7 +1107,7 @@
               <c:f>[0]!Start</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>44048</c:v>
                 </c:pt>
@@ -1154,6 +1160,9 @@
                   <c:v>44048</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>44048</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>44048</c:v>
                 </c:pt>
               </c:numCache>
@@ -1193,7 +1202,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
@@ -1202,51 +1211,54 @@
                     <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Battery Testing</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Structure V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Avionics V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>+X Panel V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>Comms V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>Backplane V3.2</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Germination Chamber</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>Germination Board V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Camera Board V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Day in the Life Test</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>IHU - C&amp;DH Controller</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>IFJR</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1254,7 +1266,7 @@
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1266,7 +1278,7 @@
               <c:f>[0]!Design_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>98</c:v>
                 </c:pt>
@@ -1274,40 +1286,40 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>70</c:v>
@@ -1319,6 +1331,9 @@
                   <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
@@ -1358,7 +1373,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
@@ -1367,51 +1382,54 @@
                     <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Battery Testing</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Structure V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Avionics V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>+X Panel V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>Comms V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>Backplane V3.2</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Germination Chamber</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>Germination Board V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Camera Board V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Day in the Life Test</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>IHU - C&amp;DH Controller</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>IFJR</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1419,7 +1437,7 @@
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1431,7 +1449,7 @@
               <c:f>[0]!Build_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -1445,34 +1463,34 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>28</c:v>
@@ -1484,6 +1502,9 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -1523,7 +1544,7 @@
             <c:multiLvlStrRef>
               <c:f>[0]!Labels</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
@@ -1532,51 +1553,54 @@
                     <c:v>EPS V3.1</c:v>
                   </c:pt>
                   <c:pt idx="2">
+                    <c:v>Battery Testing</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
                     <c:v>Structure V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="3">
+                  <c:pt idx="4">
                     <c:v>Avionics V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="4">
+                  <c:pt idx="5">
                     <c:v>Solar Panel V2.1</c:v>
                   </c:pt>
-                  <c:pt idx="5">
+                  <c:pt idx="6">
                     <c:v>+X Panel V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="6">
+                  <c:pt idx="7">
                     <c:v>Comms V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="7">
+                  <c:pt idx="8">
                     <c:v>Backplane V3.2</c:v>
                   </c:pt>
-                  <c:pt idx="8">
+                  <c:pt idx="9">
                     <c:v>-Z Panel V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="9">
+                  <c:pt idx="10">
                     <c:v>Germination Chamber</c:v>
                   </c:pt>
-                  <c:pt idx="10">
+                  <c:pt idx="11">
                     <c:v>Germination Board V1.0</c:v>
                   </c:pt>
-                  <c:pt idx="11">
+                  <c:pt idx="12">
                     <c:v>Camera Board V1.1</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Day in the Life Test</c:v>
                   </c:pt>
-                  <c:pt idx="13">
+                  <c:pt idx="14">
                     <c:v>IHU - C&amp;DH Controller</c:v>
                   </c:pt>
-                  <c:pt idx="14">
+                  <c:pt idx="15">
                     <c:v>ADCS Controller</c:v>
                   </c:pt>
-                  <c:pt idx="15">
+                  <c:pt idx="16">
                     <c:v>Comms Controller</c:v>
                   </c:pt>
-                  <c:pt idx="16">
+                  <c:pt idx="17">
                     <c:v>IFJR</c:v>
                   </c:pt>
-                  <c:pt idx="17">
+                  <c:pt idx="18">
                     <c:v>PMIC - EPS Controller</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1584,7 +1608,7 @@
                   <c:pt idx="0">
                     <c:v>CougSat-1 Flight Unit</c:v>
                   </c:pt>
-                  <c:pt idx="12">
+                  <c:pt idx="13">
                     <c:v>Software Test</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1596,7 +1620,7 @@
               <c:f>[0]!Test_Days</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="19"/>
                 <c:pt idx="0">
                   <c:v>21</c:v>
                 </c:pt>
@@ -1649,6 +1673,9 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="17">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="18">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -2922,7 +2949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F73B681A-446B-457B-BF90-6D6DC29765F8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -2934,7 +2961,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12231624" cy="7202424"/>
+    <xdr:ext cx="12225338" cy="7196138"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3260,10 +3287,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3282,13 +3309,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="24" t="s">
         <v>55</v>
       </c>
@@ -3297,11 +3324,11 @@
       <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="71">
-        <f>MAX(E4:K21)</f>
+      <c r="J1" s="57">
+        <f>MAX(E4:K22)</f>
         <v>44195</v>
       </c>
-      <c r="K1" s="72"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
@@ -3319,18 +3346,18 @@
       <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
@@ -3348,22 +3375,22 @@
       <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76" t="s">
+      <c r="I3" s="61"/>
+      <c r="J3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="76"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -3377,30 +3404,30 @@
         <v>44048</v>
       </c>
       <c r="F4" s="33">
-        <f t="shared" ref="F4:F16" si="0">(G4-E4)/7</f>
+        <f t="shared" ref="F4:F17" si="0">(G4-E4)/7</f>
         <v>14</v>
       </c>
       <c r="G4" s="34">
-        <f>MAX(K5:K15)</f>
+        <f>MAX(K5:K16)</f>
         <v>44146</v>
       </c>
       <c r="H4" s="35">
         <v>2</v>
       </c>
       <c r="I4" s="36">
-        <f t="shared" ref="I4:I21" si="1">G4+H4*7</f>
+        <f t="shared" ref="I4:I22" si="1">G4+H4*7</f>
         <v>44160</v>
       </c>
       <c r="J4" s="37">
         <v>3</v>
       </c>
       <c r="K4" s="38">
-        <f t="shared" ref="K4:K15" si="2">I4+J4*7</f>
+        <f t="shared" ref="K4:K16" si="2">I4+J4*7</f>
         <v>44181</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="65"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -3408,7 +3435,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="44" t="str">
-        <f t="shared" ref="D5:D15" si="3">IF(K5=$G$4,"Critical Path","")</f>
+        <f t="shared" ref="D5:D16" si="3">IF(K5=$G$4,"Critical Path","")</f>
         <v/>
       </c>
       <c r="E5" s="28">
@@ -3437,121 +3464,117 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="65"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="44" t="str">
+      <c r="D6" s="44"/>
+      <c r="E6" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G15" si="4">E6+F6*7</f>
+        <v>44062</v>
+      </c>
+      <c r="H6" s="39">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="1"/>
+        <v>44090</v>
+      </c>
+      <c r="J6" s="40">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="2"/>
+        <v>44104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A7" s="71"/>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E6" s="28">
+      <c r="E7" s="28">
         <v>44048</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F7" s="14">
         <v>4</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:G14" si="4">E6+F6*7</f>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
         <v>44076</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H7" s="39">
         <v>4</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I7" s="6">
         <f t="shared" si="1"/>
         <v>44104</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J7" s="40">
         <v>2</v>
       </c>
-      <c r="K6" s="7">
+      <c r="K7" s="7">
         <f t="shared" si="2"/>
         <v>44118</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="65"/>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A8" s="71"/>
+      <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C8" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="44" t="str">
+      <c r="D8" s="44" t="str">
         <f t="shared" si="3"/>
         <v>Critical Path</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E8" s="28">
         <v>44048</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="14">
         <v>8</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G8" s="5">
         <f t="shared" si="4"/>
         <v>44104</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H8" s="39">
         <v>4</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I8" s="6">
         <f t="shared" si="1"/>
         <v>44132</v>
       </c>
-      <c r="J7" s="40">
+      <c r="J8" s="40">
         <v>2</v>
       </c>
-      <c r="K7" s="7">
+      <c r="K8" s="7">
         <f t="shared" si="2"/>
         <v>44146</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="65"/>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A9" s="71"/>
+      <c r="B9" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E8" s="28">
-        <v>44048</v>
-      </c>
-      <c r="F8" s="14">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="4"/>
-        <v>44076</v>
-      </c>
-      <c r="H8" s="39">
-        <v>2</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>44090</v>
-      </c>
-      <c r="J8" s="40">
-        <v>2</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="2"/>
-        <v>44104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="65"/>
-      <c r="B9" s="4" t="str">
-        <f>"+X Panel V1.1"</f>
-        <v>+X Panel V1.1</v>
       </c>
       <c r="C9" s="29" t="s">
         <v>5</v>
@@ -3564,31 +3587,32 @@
         <v>44048</v>
       </c>
       <c r="F9" s="14">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="4"/>
-        <v>44104</v>
+        <v>44076</v>
       </c>
       <c r="H9" s="39">
         <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>44118</v>
+        <v>44090</v>
       </c>
       <c r="J9" s="40">
         <v>2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>44132</v>
+        <v>44104</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="65"/>
-      <c r="B10" s="4" t="s">
-        <v>24</v>
+      <c r="A10" s="71"/>
+      <c r="B10" s="4" t="str">
+        <f>"+X Panel V1.1"</f>
+        <v>+X Panel V1.1</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>5</v>
@@ -3601,14 +3625,14 @@
         <v>44048</v>
       </c>
       <c r="F10" s="14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="4"/>
-        <v>44076</v>
+        <v>44104</v>
       </c>
       <c r="H10" s="39">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
@@ -3623,9 +3647,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>5</v>
@@ -3638,106 +3662,106 @@
         <v>44048</v>
       </c>
       <c r="F11" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="4"/>
-        <v>44062</v>
+        <v>44076</v>
       </c>
       <c r="H11" s="39">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>44076</v>
+        <v>44118</v>
       </c>
       <c r="J11" s="40">
         <v>2</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A12" s="71"/>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="44" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E12" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F12" s="14">
+        <v>2</v>
+      </c>
+      <c r="G12" s="5">
+        <f t="shared" si="4"/>
+        <v>44062</v>
+      </c>
+      <c r="H12" s="39">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="1"/>
+        <v>44076</v>
+      </c>
+      <c r="J12" s="40">
+        <v>2</v>
+      </c>
+      <c r="K12" s="7">
+        <f t="shared" si="2"/>
         <v>44090</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="65"/>
-      <c r="B12" s="41" t="str">
+    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A13" s="71"/>
+      <c r="B13" s="41" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C13" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="45" t="str">
+      <c r="D13" s="45" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E12" s="27">
+      <c r="E13" s="27">
         <v>44048</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="15">
         <v>4</v>
       </c>
-      <c r="G12" s="9">
-        <f>E12+F12*7</f>
+      <c r="G13" s="9">
+        <f>E13+F13*7</f>
         <v>44076</v>
       </c>
-      <c r="H12" s="30">
+      <c r="H13" s="30">
         <v>2</v>
       </c>
-      <c r="I12" s="10">
+      <c r="I13" s="10">
         <f t="shared" si="1"/>
         <v>44090</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J13" s="18">
         <v>2</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K13" s="11">
         <f t="shared" si="2"/>
         <v>44104</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="65"/>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A14" s="71"/>
+      <c r="B14" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E13" s="28">
-        <v>44048</v>
-      </c>
-      <c r="F13" s="14">
-        <v>6</v>
-      </c>
-      <c r="G13" s="5">
-        <f t="shared" si="4"/>
-        <v>44090</v>
-      </c>
-      <c r="H13" s="39">
-        <v>4</v>
-      </c>
-      <c r="I13" s="6">
-        <f t="shared" si="1"/>
-        <v>44118</v>
-      </c>
-      <c r="J13" s="42">
-        <v>2</v>
-      </c>
-      <c r="K13" s="7">
-        <f t="shared" si="2"/>
-        <v>44132</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="65"/>
-      <c r="B14" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C14" s="29" t="s">
         <v>5</v>
@@ -3750,20 +3774,20 @@
         <v>44048</v>
       </c>
       <c r="F14" s="14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="4"/>
-        <v>44104</v>
+        <v>44090</v>
       </c>
       <c r="H14" s="39">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
         <v>44118</v>
       </c>
-      <c r="J14" s="40">
+      <c r="J14" s="42">
         <v>2</v>
       </c>
       <c r="K14" s="7">
@@ -3772,163 +3796,163 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="66"/>
-      <c r="B15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="41" t="s">
+      <c r="A15" s="71"/>
+      <c r="B15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="45" t="str">
+      <c r="D15" s="44" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="28">
         <v>44048</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="14">
+        <v>8</v>
+      </c>
+      <c r="G15" s="5">
+        <f t="shared" si="4"/>
+        <v>44104</v>
+      </c>
+      <c r="H15" s="39">
+        <v>2</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="1"/>
+        <v>44118</v>
+      </c>
+      <c r="J15" s="40">
+        <v>2</v>
+      </c>
+      <c r="K15" s="7">
+        <f t="shared" si="2"/>
+        <v>44132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A16" s="72"/>
+      <c r="B16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="45" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="E16" s="27">
+        <v>44048</v>
+      </c>
+      <c r="F16" s="15">
         <v>4</v>
       </c>
-      <c r="G15" s="9">
-        <f>E15+F15*7</f>
+      <c r="G16" s="9">
+        <f>E16+F16*7</f>
         <v>44076</v>
       </c>
-      <c r="H15" s="30">
+      <c r="H16" s="30">
         <v>2</v>
       </c>
-      <c r="I15" s="10">
+      <c r="I16" s="10">
         <f t="shared" si="1"/>
         <v>44090</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J16" s="18">
         <v>2</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K16" s="11">
         <f t="shared" si="2"/>
         <v>44104</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="67" t="s">
+    <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A17" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="41" t="s">
+      <c r="C17" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="45"/>
-      <c r="E16" s="27">
+      <c r="D17" s="45"/>
+      <c r="E17" s="27">
         <v>44048</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G16" s="5">
-        <f>MAX(K17:K21)</f>
+      <c r="G17" s="5">
+        <f>MAX(K18:K22)</f>
         <v>44160</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H17" s="30">
         <v>3</v>
       </c>
-      <c r="I16" s="10">
+      <c r="I17" s="10">
         <f t="shared" si="1"/>
         <v>44181</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J17" s="18">
         <v>2</v>
       </c>
-      <c r="K16" s="11">
-        <f t="shared" ref="K16" si="5">I16+J16*7</f>
+      <c r="K17" s="11">
+        <f t="shared" ref="K17" si="5">I17+J17*7</f>
         <v>44195</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="65"/>
-      <c r="B17" s="47" t="s">
+    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A18" s="71"/>
+      <c r="B18" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="47" t="s">
+      <c r="C18" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="44" t="str">
-        <f>IF(K17=$G$16,"Critical Path","")</f>
+      <c r="D18" s="44" t="str">
+        <f>IF(K18=$G$17,"Critical Path","")</f>
         <v>Critical Path</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E18" s="28">
         <v>44048</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F18" s="16">
         <v>10</v>
       </c>
-      <c r="G17" s="53">
-        <f>E17+F17*7</f>
+      <c r="G18" s="53">
+        <f>E18+F18*7</f>
         <v>44118</v>
       </c>
-      <c r="H17" s="50">
+      <c r="H18" s="50">
         <v>4</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I18" s="12">
         <f t="shared" si="1"/>
         <v>44146</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J18" s="19">
         <v>2</v>
       </c>
-      <c r="K17" s="13">
-        <f>I17+J17*7</f>
-        <v>44160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
-      <c r="B18" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="44" t="str">
-        <f>IF(K18=$G$16,"Critical Path","")</f>
-        <v>Critical Path</v>
-      </c>
-      <c r="E18" s="28">
-        <v>44048</v>
-      </c>
-      <c r="F18" s="14">
-        <v>10</v>
-      </c>
-      <c r="G18" s="52">
-        <f>E18+F18*7</f>
-        <v>44118</v>
-      </c>
-      <c r="H18" s="39">
-        <v>4</v>
-      </c>
-      <c r="I18" s="6">
-        <f t="shared" si="1"/>
-        <v>44146</v>
-      </c>
-      <c r="J18" s="40">
-        <v>2</v>
-      </c>
-      <c r="K18" s="7">
+      <c r="K18" s="13">
         <f>I18+J18*7</f>
         <v>44160</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="65"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="44" t="str">
-        <f>IF(K19=$G$16,"Critical Path","")</f>
+        <f>IF(K19=$G$17,"Critical Path","")</f>
         <v>Critical Path</v>
       </c>
       <c r="E19" s="28">
@@ -3957,15 +3981,15 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="65"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="29" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="C20" s="29" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="44" t="str">
-        <f>IF(K20=$G$16,"Critical Path","")</f>
+        <f>IF(K20=$G$17,"Critical Path","")</f>
         <v>Critical Path</v>
       </c>
       <c r="E20" s="28">
@@ -3994,249 +4018,286 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="66"/>
-      <c r="B21" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="41" t="s">
+      <c r="A21" s="71"/>
+      <c r="B21" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="48" t="str">
-        <f>IF(K21=$G$16,"Critical Path","")</f>
+      <c r="D21" s="44" t="str">
+        <f>IF(K21=$G$17,"Critical Path","")</f>
         <v>Critical Path</v>
       </c>
       <c r="E21" s="28">
         <v>44048</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="14">
         <v>10</v>
       </c>
-      <c r="G21" s="54">
+      <c r="G21" s="52">
         <f>E21+F21*7</f>
         <v>44118</v>
       </c>
-      <c r="H21" s="51">
+      <c r="H21" s="39">
         <v>4</v>
       </c>
-      <c r="I21" s="10">
+      <c r="I21" s="6">
         <f t="shared" si="1"/>
         <v>44146</v>
       </c>
-      <c r="J21" s="18">
+      <c r="J21" s="40">
         <v>2</v>
       </c>
-      <c r="K21" s="11">
+      <c r="K21" s="7">
         <f>I21+J21*7</f>
         <v>44160</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="57" t="s">
+    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A22" s="72"/>
+      <c r="B22" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="48" t="str">
+        <f>IF(K22=$G$17,"Critical Path","")</f>
+        <v>Critical Path</v>
+      </c>
+      <c r="E22" s="28">
+        <v>44048</v>
+      </c>
+      <c r="F22" s="15">
+        <v>10</v>
+      </c>
+      <c r="G22" s="54">
+        <f>E22+F22*7</f>
+        <v>44118</v>
+      </c>
+      <c r="H22" s="51">
+        <v>4</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="1"/>
+        <v>44146</v>
+      </c>
+      <c r="J22" s="18">
+        <v>2</v>
+      </c>
+      <c r="K22" s="11">
+        <f>I22+J22*7</f>
+        <v>44160</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
+      <c r="A23" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="58"/>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-    </row>
-    <row r="23" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="61" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+    </row>
+    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="A24" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="61" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="21" t="s">
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A24" s="55" t="s">
+    <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A25" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="55"/>
-      <c r="C24" s="56" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="49">
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="49">
         <v>43891</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A25" s="55" t="s">
+    <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A26" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
-      <c r="K25" s="49">
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
+      <c r="K26" s="49">
         <v>43898</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A26" s="55" t="s">
+    <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A27" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="49">
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
+      <c r="K27" s="49">
         <f>G4</f>
         <v>44146</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A27" s="55" t="s">
+    <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A28" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="49">
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
+      <c r="K28" s="49">
         <f>G4+7</f>
         <v>44153</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A28" s="55" t="s">
+    <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A29" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="49">
-        <f>G16</f>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="49">
+        <f>G17</f>
         <v>44160</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A29" s="55" t="s">
+    <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="49">
-        <f>I16</f>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
+      <c r="K30" s="49">
+        <f>I17</f>
         <v>44181</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A30" s="55" t="s">
+    <row r="31" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
+      <c r="A31" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="49">
-        <f>K16</f>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="49">
+        <f>K17</f>
         <v>44195</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B17:K21">
-    <sortCondition descending="1" ref="K17:K21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B18:K22">
+    <sortCondition descending="1" ref="K18:K22"/>
   </sortState>
   <mergeCells count="27">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C27:J27"/>
+    <mergeCell ref="C28:J28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A4:A16"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:J26"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C26:J26"/>
-    <mergeCell ref="C27:J27"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:J24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:J30"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
-  <conditionalFormatting sqref="D4:D21">
+  <conditionalFormatting sqref="D4:D22">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Critical">
       <formula>NOT(ISERROR(SEARCH("Critical",D4)))</formula>
     </cfRule>
@@ -4245,7 +4306,7 @@
   <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="21" max="16383" man="1"/>
+    <brk id="22" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -4275,7 +4336,7 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 04-Jun-20</v>
+        <v>Today: 26-Jun-20</v>
       </c>
       <c r="G1" s="2">
         <v>44048</v>
@@ -4292,7 +4353,7 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>43986</v>
+        <v>44008</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4301,7 +4362,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>43986</v>
+        <v>44008</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4309,13 +4370,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B5" t="str">
-        <f>Text!A24</f>
+        <f>Text!A25</f>
         <v>Radio Licensing Forms</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
-        <f>Text!K24</f>
+        <f>Text!K25</f>
         <v>43891</v>
       </c>
       <c r="B6">
@@ -4324,7 +4385,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
-        <f>Text!K24</f>
+        <f>Text!K25</f>
         <v>43891</v>
       </c>
       <c r="B7">
@@ -4333,13 +4394,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B9" t="str">
-        <f>Text!A25</f>
+        <f>Text!A26</f>
         <v>Battery Qualification</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
-        <f>Text!K25</f>
+        <f>Text!K26</f>
         <v>43898</v>
       </c>
       <c r="B10">
@@ -4348,7 +4409,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
-        <f>Text!K25</f>
+        <f>Text!K26</f>
         <v>43898</v>
       </c>
       <c r="B11">
@@ -4360,13 +4421,13 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B13" t="str">
-        <f>Text!A26</f>
+        <f>Text!A27</f>
         <v>Flight Unit Integration</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
-        <f>Text!K26</f>
+        <f>Text!K27</f>
         <v>44146</v>
       </c>
       <c r="B14">
@@ -4375,7 +4436,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
-        <f>Text!K26</f>
+        <f>Text!K27</f>
         <v>44146</v>
       </c>
       <c r="B15">
@@ -4384,13 +4445,13 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" t="str">
-        <f>Text!A27</f>
+        <f>Text!A28</f>
         <v>Vibration Test</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <f>Text!K27</f>
+        <f>Text!K28</f>
         <v>44153</v>
       </c>
       <c r="B18">
@@ -4399,7 +4460,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
-        <f>Text!K27</f>
+        <f>Text!K28</f>
         <v>44153</v>
       </c>
       <c r="B19">
@@ -4408,13 +4469,13 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B21" t="str">
-        <f>Text!A28</f>
+        <f>Text!A29</f>
         <v>Software Integration</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
-        <f>Text!K28</f>
+        <f>Text!K29</f>
         <v>44160</v>
       </c>
       <c r="B22">
@@ -4423,7 +4484,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
-        <f>Text!K28</f>
+        <f>Text!K29</f>
         <v>44160</v>
       </c>
       <c r="B23">
@@ -4432,13 +4493,13 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B25" t="str">
-        <f>Text!A29</f>
+        <f>Text!A30</f>
         <v>Day in the Life Test</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
-        <f>Text!K29</f>
+        <f>Text!K30</f>
         <v>44181</v>
       </c>
       <c r="B26">
@@ -4447,7 +4508,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <f>Text!K29</f>
+        <f>Text!K30</f>
         <v>44181</v>
       </c>
       <c r="B27">
@@ -4456,13 +4517,13 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" t="str">
-        <f>Text!A30</f>
+        <f>Text!A31</f>
         <v>Nanoracks Handover</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
-        <f>Text!K30</f>
+        <f>Text!K31</f>
         <v>44195</v>
       </c>
       <c r="B30">
@@ -4471,7 +4532,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
-        <f>Text!K30</f>
+        <f>Text!K31</f>
         <v>44195</v>
       </c>
       <c r="B31">

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\Git\CougsInSpace\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3061F6-841B-4712-908F-EC7BA742904F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352649C-1DB1-4C76-AEA4-34CB1E5D3FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
@@ -869,12 +869,54 @@
     <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -891,48 +933,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1109,61 +1109,61 @@
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44048</c:v>
+                  <c:v>44067</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,10 +1868,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44146</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44146</c:v>
+                  <c:v>44165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,10 +1931,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44153</c:v>
+                  <c:v>44172</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44153</c:v>
+                  <c:v>44172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,10 +1994,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44160</c:v>
+                  <c:v>44179</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44160</c:v>
+                  <c:v>44179</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,10 +2060,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44181</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44181</c:v>
+                  <c:v>44200</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,10 +2126,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44195</c:v>
+                  <c:v>44214</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44195</c:v>
+                  <c:v>44214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,7 +2222,7 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="44048"/>
+          <c:min val="44067"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -3289,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3309,13 +3309,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="24" t="s">
         <v>55</v>
       </c>
@@ -3324,11 +3324,11 @@
       <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="57">
+      <c r="J1" s="71">
         <f>MAX(E4:K22)</f>
-        <v>44195</v>
-      </c>
-      <c r="K1" s="58"/>
+        <v>44214</v>
+      </c>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
       <c r="A2" s="20" t="s">
@@ -3346,18 +3346,18 @@
       <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="74" t="s">
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="76"/>
-      <c r="J2" s="64" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="64"/>
+      <c r="K2" s="60"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="22" t="s">
@@ -3375,22 +3375,22 @@
       <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="61"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="62"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="32">
-        <v>44048</v>
+        <v>44067</v>
       </c>
       <c r="F4" s="33">
         <f t="shared" ref="F4:F17" si="0">(G4-E4)/7</f>
@@ -3409,25 +3409,25 @@
       </c>
       <c r="G4" s="34">
         <f>MAX(K5:K16)</f>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="H4" s="35">
         <v>2</v>
       </c>
       <c r="I4" s="36">
         <f t="shared" ref="I4:I22" si="1">G4+H4*7</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
       <c r="J4" s="37">
         <v>3</v>
       </c>
       <c r="K4" s="38">
         <f t="shared" ref="K4:K16" si="2">I4+J4*7</f>
-        <v>44181</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="71"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -3439,32 +3439,33 @@
         <v/>
       </c>
       <c r="E5" s="28">
-        <v>44048</v>
+        <f>$E$4</f>
+        <v>44067</v>
       </c>
       <c r="F5" s="14">
         <v>4</v>
       </c>
       <c r="G5" s="5">
         <f>E5+F5*7</f>
-        <v>44076</v>
+        <v>44095</v>
       </c>
       <c r="H5" s="39">
         <v>4</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>44104</v>
+        <v>44123</v>
       </c>
       <c r="J5" s="40">
         <v>2</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="2"/>
-        <v>44118</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="71"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
@@ -3473,32 +3474,33 @@
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="28">
-        <v>44048</v>
+        <f t="shared" ref="E6:E22" si="4">$E$4</f>
+        <v>44067</v>
       </c>
       <c r="F6" s="14">
         <v>2</v>
       </c>
       <c r="G6" s="5">
-        <f t="shared" ref="G6:G15" si="4">E6+F6*7</f>
-        <v>44062</v>
+        <f t="shared" ref="G6:G15" si="5">E6+F6*7</f>
+        <v>44081</v>
       </c>
       <c r="H6" s="39">
         <v>4</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>44090</v>
+        <v>44109</v>
       </c>
       <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="2"/>
-        <v>44104</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="71"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3510,32 +3512,33 @@
         <v/>
       </c>
       <c r="E7" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F7" s="14">
         <v>4</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="4"/>
-        <v>44076</v>
+        <f t="shared" si="5"/>
+        <v>44095</v>
       </c>
       <c r="H7" s="39">
         <v>4</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>44104</v>
+        <v>44123</v>
       </c>
       <c r="J7" s="40">
         <v>2</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="2"/>
-        <v>44118</v>
+        <v>44137</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="71"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3547,32 +3550,33 @@
         <v>Critical Path</v>
       </c>
       <c r="E8" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F8" s="14">
         <v>8</v>
       </c>
       <c r="G8" s="5">
-        <f t="shared" si="4"/>
-        <v>44104</v>
+        <f t="shared" si="5"/>
+        <v>44123</v>
       </c>
       <c r="H8" s="39">
         <v>4</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>44132</v>
+        <v>44151</v>
       </c>
       <c r="J8" s="40">
         <v>2</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="2"/>
-        <v>44146</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="71"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3584,32 +3588,33 @@
         <v/>
       </c>
       <c r="E9" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F9" s="14">
         <v>4</v>
       </c>
       <c r="G9" s="5">
-        <f t="shared" si="4"/>
-        <v>44076</v>
+        <f t="shared" si="5"/>
+        <v>44095</v>
       </c>
       <c r="H9" s="39">
         <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>44090</v>
+        <v>44109</v>
       </c>
       <c r="J9" s="40">
         <v>2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>44104</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="71"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="4" t="str">
         <f>"+X Panel V1.1"</f>
         <v>+X Panel V1.1</v>
@@ -3622,32 +3627,33 @@
         <v/>
       </c>
       <c r="E10" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F10" s="14">
         <v>8</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="4"/>
-        <v>44104</v>
+        <f t="shared" si="5"/>
+        <v>44123</v>
       </c>
       <c r="H10" s="39">
         <v>2</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="J10" s="40">
         <v>2</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
-        <v>44132</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="71"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3659,32 +3665,33 @@
         <v/>
       </c>
       <c r="E11" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F11" s="14">
         <v>4</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="4"/>
-        <v>44076</v>
+        <f t="shared" si="5"/>
+        <v>44095</v>
       </c>
       <c r="H11" s="39">
         <v>6</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="J11" s="40">
         <v>2</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>44132</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="71"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3696,32 +3703,33 @@
         <v/>
       </c>
       <c r="E12" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="4"/>
-        <v>44062</v>
+        <f t="shared" si="5"/>
+        <v>44081</v>
       </c>
       <c r="H12" s="39">
         <v>2</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>44076</v>
+        <v>44095</v>
       </c>
       <c r="J12" s="40">
         <v>2</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
-        <v>44090</v>
+        <v>44109</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="71"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="41" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
@@ -3734,32 +3742,33 @@
         <v/>
       </c>
       <c r="E13" s="27">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
       </c>
       <c r="G13" s="9">
         <f>E13+F13*7</f>
-        <v>44076</v>
+        <v>44095</v>
       </c>
       <c r="H13" s="30">
         <v>2</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="1"/>
-        <v>44090</v>
+        <v>44109</v>
       </c>
       <c r="J13" s="18">
         <v>2</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" si="2"/>
-        <v>44104</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="71"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3771,32 +3780,33 @@
         <v/>
       </c>
       <c r="E14" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F14" s="14">
         <v>6</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="4"/>
-        <v>44090</v>
+        <f t="shared" si="5"/>
+        <v>44109</v>
       </c>
       <c r="H14" s="39">
         <v>4</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="J14" s="42">
         <v>2</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="2"/>
-        <v>44132</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="71"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3808,32 +3818,33 @@
         <v/>
       </c>
       <c r="E15" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F15" s="14">
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="4"/>
-        <v>44104</v>
+        <f t="shared" si="5"/>
+        <v>44123</v>
       </c>
       <c r="H15" s="39">
         <v>2</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="J15" s="40">
         <v>2</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="2"/>
-        <v>44132</v>
+        <v>44151</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="72"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
@@ -3845,32 +3856,33 @@
         <v/>
       </c>
       <c r="E16" s="27">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F16" s="15">
         <v>4</v>
       </c>
       <c r="G16" s="9">
         <f>E16+F16*7</f>
-        <v>44076</v>
+        <v>44095</v>
       </c>
       <c r="H16" s="30">
         <v>2</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>44090</v>
+        <v>44109</v>
       </c>
       <c r="J16" s="18">
         <v>2</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="2"/>
-        <v>44104</v>
+        <v>44123</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="73" t="s">
+      <c r="A17" s="67" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3881,7 +3893,8 @@
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="27">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
@@ -3889,25 +3902,25 @@
       </c>
       <c r="G17" s="5">
         <f>MAX(K18:K22)</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
       <c r="H17" s="30">
         <v>3</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="1"/>
-        <v>44181</v>
+        <v>44200</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" ref="K17" si="5">I17+J17*7</f>
-        <v>44195</v>
+        <f t="shared" ref="K17" si="6">I17+J17*7</f>
+        <v>44214</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="71"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="47" t="s">
         <v>35</v>
       </c>
@@ -3919,32 +3932,33 @@
         <v>Critical Path</v>
       </c>
       <c r="E18" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F18" s="16">
         <v>10</v>
       </c>
       <c r="G18" s="53">
         <f>E18+F18*7</f>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="H18" s="50">
         <v>4</v>
       </c>
       <c r="I18" s="12">
         <f t="shared" si="1"/>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="J18" s="19">
         <v>2</v>
       </c>
       <c r="K18" s="13">
         <f>I18+J18*7</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="71"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="29" t="s">
         <v>9</v>
       </c>
@@ -3956,32 +3970,33 @@
         <v>Critical Path</v>
       </c>
       <c r="E19" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F19" s="14">
         <v>10</v>
       </c>
       <c r="G19" s="52">
         <f>E19+F19*7</f>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="H19" s="39">
         <v>4</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="J19" s="40">
         <v>2</v>
       </c>
       <c r="K19" s="7">
         <f>I19+J19*7</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="71"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="29" t="s">
         <v>8</v>
       </c>
@@ -3993,32 +4008,33 @@
         <v>Critical Path</v>
       </c>
       <c r="E20" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F20" s="14">
         <v>10</v>
       </c>
       <c r="G20" s="52">
         <f>E20+F20*7</f>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="H20" s="39">
         <v>4</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="J20" s="40">
         <v>2</v>
       </c>
       <c r="K20" s="7">
         <f>I20+J20*7</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="71"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="29" t="s">
         <v>40</v>
       </c>
@@ -4030,32 +4046,33 @@
         <v>Critical Path</v>
       </c>
       <c r="E21" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F21" s="14">
         <v>10</v>
       </c>
       <c r="G21" s="52">
         <f>E21+F21*7</f>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="H21" s="39">
         <v>4</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="J21" s="40">
         <v>2</v>
       </c>
       <c r="K21" s="7">
         <f>I21+J21*7</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="72"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="41" t="s">
         <v>34</v>
       </c>
@@ -4067,200 +4084,201 @@
         <v>Critical Path</v>
       </c>
       <c r="E22" s="28">
-        <v>44048</v>
+        <f t="shared" si="4"/>
+        <v>44067</v>
       </c>
       <c r="F22" s="15">
         <v>10</v>
       </c>
       <c r="G22" s="54">
         <f>E22+F22*7</f>
-        <v>44118</v>
+        <v>44137</v>
       </c>
       <c r="H22" s="51">
         <v>4</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="1"/>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
       </c>
       <c r="K22" s="11">
         <f>I22+J22*7</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="66" t="s">
+      <c r="A24" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="66" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="67"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-      <c r="I24" s="67"/>
-      <c r="J24" s="68"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="69" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="69"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
       <c r="K25" s="49">
         <v>43891</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="69" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="69"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="49">
         <v>43898</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="69" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="69"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="49">
         <f>G4</f>
-        <v>44146</v>
+        <v>44165</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="69" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="69"/>
-      <c r="E28" s="69"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="49">
         <f>G4+7</f>
-        <v>44153</v>
+        <v>44172</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="69" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="49">
         <f>G17</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="69" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="69"/>
-      <c r="E30" s="69"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="69"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="49">
         <f>I17</f>
-        <v>44181</v>
+        <v>44200</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A31" s="65" t="s">
+      <c r="A31" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="69" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="49">
         <f>K17</f>
-        <v>44195</v>
+        <v>44214</v>
       </c>
     </row>
   </sheetData>
@@ -4268,12 +4286,11 @@
     <sortCondition descending="1" ref="K18:K22"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A28:B28"/>
@@ -4290,11 +4307,12 @@
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D4:D22">
@@ -4336,24 +4354,24 @@
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 26-Jun-20</v>
+        <v>Today: 19-Aug-20</v>
       </c>
       <c r="G1" s="2">
-        <v>44048</v>
+        <v>44066</v>
       </c>
       <c r="H1">
         <f>INT(G1)</f>
-        <v>44048</v>
+        <v>44066</v>
       </c>
       <c r="I1">
         <f>H1+28</f>
-        <v>44076</v>
+        <v>44094</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44008</v>
+        <v>44062</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4362,7 +4380,7 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>44008</v>
+        <v>44062</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4428,7 +4446,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <f>Text!K27</f>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4437,7 +4455,7 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <f>Text!K27</f>
-        <v>44146</v>
+        <v>44165</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4452,7 +4470,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
         <f>Text!K28</f>
-        <v>44153</v>
+        <v>44172</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4461,7 +4479,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
         <f>Text!K28</f>
-        <v>44153</v>
+        <v>44172</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4476,7 +4494,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f>Text!K29</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4485,7 +4503,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
         <f>Text!K29</f>
-        <v>44160</v>
+        <v>44179</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4500,7 +4518,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
         <f>Text!K30</f>
-        <v>44181</v>
+        <v>44200</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4509,7 +4527,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
         <f>Text!K30</f>
-        <v>44181</v>
+        <v>44200</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4524,7 +4542,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" s="2">
         <f>Text!K31</f>
-        <v>44195</v>
+        <v>44214</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4533,7 +4551,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" s="2">
         <f>Text!K31</f>
-        <v>44195</v>
+        <v>44214</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\Git\CougsInSpace\CougSat1-Readme\Native\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9352649C-1DB1-4C76-AEA4-34CB1E5D3FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5690E1EA-D94B-448B-BE8F-93C774DDEA96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
+    <workbookView xWindow="27450" yWindow="2280" windowWidth="20940" windowHeight="18255" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="8" r:id="rId1"/>
@@ -249,7 +249,7 @@
     <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="166" formatCode="0\ &quot;weeks&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,12 +854,6 @@
     <xf numFmtId="165" fontId="7" fillId="14" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -934,6 +928,12 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1109,61 +1109,61 @@
                 <c:formatCode>[$-409]d\-mmm\-yy;@</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>44067</c:v>
+                  <c:v>44431</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,10 +1868,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44165</c:v>
+                  <c:v>44529</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44165</c:v>
+                  <c:v>44529</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,10 +1931,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44172</c:v>
+                  <c:v>44536</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44172</c:v>
+                  <c:v>44536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,10 +1994,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44179</c:v>
+                  <c:v>44543</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44179</c:v>
+                  <c:v>44543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,10 +2060,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44200</c:v>
+                  <c:v>44564</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44200</c:v>
+                  <c:v>44564</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,10 +2126,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44214</c:v>
+                  <c:v>44578</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44214</c:v>
+                  <c:v>44578</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2222,7 +2222,7 @@
         <c:axId val="295186255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="44067"/>
+          <c:min val="44431"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -2949,7 +2949,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F73B681A-446B-457B-BF90-6D6DC29765F8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" r:id="rId1"/>
@@ -2961,7 +2961,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12225338" cy="7196138"/>
+    <xdr:ext cx="12239625" cy="7210425"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3289,33 +3289,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1328125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:12" ht="23.25">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="24" t="s">
         <v>55</v>
       </c>
@@ -3324,13 +3324,13 @@
       <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="71">
+      <c r="J1" s="69">
         <f>MAX(E4:K22)</f>
-        <v>44214</v>
-      </c>
-      <c r="K1" s="72"/>
-    </row>
-    <row r="2" spans="1:12" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.45">
+        <v>44578</v>
+      </c>
+      <c r="K1" s="70"/>
+    </row>
+    <row r="2" spans="1:12" s="3" customFormat="1">
       <c r="A2" s="20" t="s">
         <v>31</v>
       </c>
@@ -3346,20 +3346,20 @@
       <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="67"/>
+      <c r="H2" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="60"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="29.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="K2" s="58"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="43.5" thickBot="1">
       <c r="A3" s="22" t="s">
         <v>50</v>
       </c>
@@ -3375,22 +3375,22 @@
       <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75" t="s">
+      <c r="G3" s="72"/>
+      <c r="H3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="76"/>
+      <c r="K3" s="74"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:12" ht="20.65" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:12" ht="15.75" thickTop="1">
+      <c r="A4" s="62" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -3401,7 +3401,7 @@
       </c>
       <c r="D4" s="43"/>
       <c r="E4" s="32">
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F4" s="33">
         <f t="shared" ref="F4:F17" si="0">(G4-E4)/7</f>
@@ -3409,25 +3409,25 @@
       </c>
       <c r="G4" s="34">
         <f>MAX(K5:K16)</f>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="H4" s="35">
         <v>2</v>
       </c>
       <c r="I4" s="36">
         <f t="shared" ref="I4:I22" si="1">G4+H4*7</f>
-        <v>44179</v>
+        <v>44543</v>
       </c>
       <c r="J4" s="37">
         <v>3</v>
       </c>
       <c r="K4" s="38">
         <f t="shared" ref="K4:K16" si="2">I4+J4*7</f>
-        <v>44200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A5" s="65"/>
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="63"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -3440,32 +3440,32 @@
       </c>
       <c r="E5" s="28">
         <f>$E$4</f>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F5" s="14">
         <v>4</v>
       </c>
       <c r="G5" s="5">
         <f>E5+F5*7</f>
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="H5" s="39">
         <v>4</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" si="1"/>
-        <v>44123</v>
+        <v>44487</v>
       </c>
       <c r="J5" s="40">
         <v>2</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="2"/>
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A6" s="65"/>
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="63"/>
       <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
@@ -3475,32 +3475,32 @@
       <c r="D6" s="44"/>
       <c r="E6" s="28">
         <f t="shared" ref="E6:E22" si="4">$E$4</f>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F6" s="14">
         <v>2</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" ref="G6:G15" si="5">E6+F6*7</f>
-        <v>44081</v>
+        <v>44445</v>
       </c>
       <c r="H6" s="39">
         <v>4</v>
       </c>
       <c r="I6" s="6">
         <f t="shared" si="1"/>
-        <v>44109</v>
+        <v>44473</v>
       </c>
       <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="7">
         <f t="shared" si="2"/>
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A7" s="65"/>
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="63"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3513,32 +3513,32 @@
       </c>
       <c r="E7" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F7" s="14">
         <v>4</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="5"/>
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="H7" s="39">
         <v>4</v>
       </c>
       <c r="I7" s="6">
         <f t="shared" si="1"/>
-        <v>44123</v>
+        <v>44487</v>
       </c>
       <c r="J7" s="40">
         <v>2</v>
       </c>
       <c r="K7" s="7">
         <f t="shared" si="2"/>
-        <v>44137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A8" s="65"/>
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="63"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3551,32 +3551,32 @@
       </c>
       <c r="E8" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F8" s="14">
         <v>8</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="5"/>
-        <v>44123</v>
+        <v>44487</v>
       </c>
       <c r="H8" s="39">
         <v>4</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="1"/>
-        <v>44151</v>
+        <v>44515</v>
       </c>
       <c r="J8" s="40">
         <v>2</v>
       </c>
       <c r="K8" s="7">
         <f t="shared" si="2"/>
-        <v>44165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A9" s="65"/>
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="63"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3589,32 +3589,32 @@
       </c>
       <c r="E9" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F9" s="14">
         <v>4</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="5"/>
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="H9" s="39">
         <v>2</v>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="1"/>
-        <v>44109</v>
+        <v>44473</v>
       </c>
       <c r="J9" s="40">
         <v>2</v>
       </c>
       <c r="K9" s="7">
         <f t="shared" si="2"/>
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A10" s="65"/>
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="63"/>
       <c r="B10" s="4" t="str">
         <f>"+X Panel V1.1"</f>
         <v>+X Panel V1.1</v>
@@ -3628,32 +3628,32 @@
       </c>
       <c r="E10" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F10" s="14">
         <v>8</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="5"/>
-        <v>44123</v>
+        <v>44487</v>
       </c>
       <c r="H10" s="39">
         <v>2</v>
       </c>
       <c r="I10" s="6">
         <f t="shared" si="1"/>
-        <v>44137</v>
+        <v>44501</v>
       </c>
       <c r="J10" s="40">
         <v>2</v>
       </c>
       <c r="K10" s="7">
         <f t="shared" si="2"/>
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A11" s="65"/>
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="63"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3666,32 +3666,32 @@
       </c>
       <c r="E11" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F11" s="14">
         <v>4</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="5"/>
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="H11" s="39">
         <v>6</v>
       </c>
       <c r="I11" s="6">
         <f t="shared" si="1"/>
-        <v>44137</v>
+        <v>44501</v>
       </c>
       <c r="J11" s="40">
         <v>2</v>
       </c>
       <c r="K11" s="7">
         <f t="shared" si="2"/>
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A12" s="65"/>
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="63"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3704,32 +3704,32 @@
       </c>
       <c r="E12" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="5"/>
-        <v>44081</v>
+        <v>44445</v>
       </c>
       <c r="H12" s="39">
         <v>2</v>
       </c>
       <c r="I12" s="6">
         <f t="shared" si="1"/>
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="J12" s="40">
         <v>2</v>
       </c>
       <c r="K12" s="7">
         <f t="shared" si="2"/>
-        <v>44109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A13" s="65"/>
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="63"/>
       <c r="B13" s="41" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
@@ -3743,32 +3743,32 @@
       </c>
       <c r="E13" s="27">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F13" s="15">
         <v>4</v>
       </c>
       <c r="G13" s="9">
         <f>E13+F13*7</f>
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="H13" s="30">
         <v>2</v>
       </c>
       <c r="I13" s="10">
         <f t="shared" si="1"/>
-        <v>44109</v>
+        <v>44473</v>
       </c>
       <c r="J13" s="18">
         <v>2</v>
       </c>
       <c r="K13" s="11">
         <f t="shared" si="2"/>
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A14" s="65"/>
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="63"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3781,32 +3781,32 @@
       </c>
       <c r="E14" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F14" s="14">
         <v>6</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>44109</v>
+        <v>44473</v>
       </c>
       <c r="H14" s="39">
         <v>4</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>44137</v>
+        <v>44501</v>
       </c>
       <c r="J14" s="42">
         <v>2</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="2"/>
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A15" s="65"/>
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="63"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3819,32 +3819,32 @@
       </c>
       <c r="E15" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F15" s="14">
         <v>8</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" si="5"/>
-        <v>44123</v>
+        <v>44487</v>
       </c>
       <c r="H15" s="39">
         <v>2</v>
       </c>
       <c r="I15" s="6">
         <f t="shared" si="1"/>
-        <v>44137</v>
+        <v>44501</v>
       </c>
       <c r="J15" s="40">
         <v>2</v>
       </c>
       <c r="K15" s="7">
         <f t="shared" si="2"/>
-        <v>44151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A16" s="66"/>
+        <v>44515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="64"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
@@ -3857,32 +3857,32 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F16" s="15">
         <v>4</v>
       </c>
       <c r="G16" s="9">
         <f>E16+F16*7</f>
-        <v>44095</v>
+        <v>44459</v>
       </c>
       <c r="H16" s="30">
         <v>2</v>
       </c>
       <c r="I16" s="10">
         <f t="shared" si="1"/>
-        <v>44109</v>
+        <v>44473</v>
       </c>
       <c r="J16" s="18">
         <v>2</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="2"/>
-        <v>44123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A17" s="67" t="s">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="65" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3894,7 +3894,7 @@
       <c r="D17" s="45"/>
       <c r="E17" s="27">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F17" s="15">
         <f t="shared" si="0"/>
@@ -3902,25 +3902,25 @@
       </c>
       <c r="G17" s="5">
         <f>MAX(K18:K22)</f>
-        <v>44179</v>
+        <v>44543</v>
       </c>
       <c r="H17" s="30">
         <v>3</v>
       </c>
       <c r="I17" s="10">
         <f t="shared" si="1"/>
-        <v>44200</v>
+        <v>44564</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" ref="K17" si="6">I17+J17*7</f>
-        <v>44214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A18" s="65"/>
+        <v>44578</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="63"/>
       <c r="B18" s="47" t="s">
         <v>35</v>
       </c>
@@ -3933,32 +3933,32 @@
       </c>
       <c r="E18" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F18" s="16">
         <v>10</v>
       </c>
-      <c r="G18" s="53">
+      <c r="G18" s="51">
         <f>E18+F18*7</f>
-        <v>44137</v>
-      </c>
-      <c r="H18" s="50">
+        <v>44501</v>
+      </c>
+      <c r="H18" s="75">
         <v>4</v>
       </c>
       <c r="I18" s="12">
         <f t="shared" si="1"/>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="J18" s="19">
         <v>2</v>
       </c>
       <c r="K18" s="13">
         <f>I18+J18*7</f>
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A19" s="65"/>
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="63"/>
       <c r="B19" s="29" t="s">
         <v>9</v>
       </c>
@@ -3971,32 +3971,32 @@
       </c>
       <c r="E19" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F19" s="14">
         <v>10</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="50">
         <f>E19+F19*7</f>
-        <v>44137</v>
-      </c>
-      <c r="H19" s="39">
+        <v>44501</v>
+      </c>
+      <c r="H19" s="76">
         <v>4</v>
       </c>
       <c r="I19" s="6">
         <f t="shared" si="1"/>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="J19" s="40">
         <v>2</v>
       </c>
       <c r="K19" s="7">
         <f>I19+J19*7</f>
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A20" s="65"/>
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="63"/>
       <c r="B20" s="29" t="s">
         <v>8</v>
       </c>
@@ -4009,32 +4009,32 @@
       </c>
       <c r="E20" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F20" s="14">
         <v>10</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="50">
         <f>E20+F20*7</f>
-        <v>44137</v>
-      </c>
-      <c r="H20" s="39">
+        <v>44501</v>
+      </c>
+      <c r="H20" s="76">
         <v>4</v>
       </c>
       <c r="I20" s="6">
         <f t="shared" si="1"/>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="J20" s="40">
         <v>2</v>
       </c>
       <c r="K20" s="7">
         <f>I20+J20*7</f>
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A21" s="65"/>
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="63"/>
       <c r="B21" s="29" t="s">
         <v>40</v>
       </c>
@@ -4047,32 +4047,32 @@
       </c>
       <c r="E21" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F21" s="14">
         <v>10</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="50">
         <f>E21+F21*7</f>
-        <v>44137</v>
-      </c>
-      <c r="H21" s="39">
+        <v>44501</v>
+      </c>
+      <c r="H21" s="76">
         <v>4</v>
       </c>
       <c r="I21" s="6">
         <f t="shared" si="1"/>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="J21" s="40">
         <v>2</v>
       </c>
       <c r="K21" s="7">
         <f>I21+J21*7</f>
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A22" s="66"/>
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="64"/>
       <c r="B22" s="41" t="s">
         <v>34</v>
       </c>
@@ -4085,200 +4085,200 @@
       </c>
       <c r="E22" s="28">
         <f t="shared" si="4"/>
-        <v>44067</v>
+        <v>44431</v>
       </c>
       <c r="F22" s="15">
         <v>10</v>
       </c>
-      <c r="G22" s="54">
+      <c r="G22" s="52">
         <f>E22+F22*7</f>
-        <v>44137</v>
-      </c>
-      <c r="H22" s="51">
+        <v>44501</v>
+      </c>
+      <c r="H22" s="30">
         <v>4</v>
       </c>
       <c r="I22" s="10">
         <f t="shared" si="1"/>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
       </c>
       <c r="K22" s="11">
         <f>I22+J22*7</f>
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="23.25" x14ac:dyDescent="0.45">
-      <c r="A23" s="57" t="s">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="23.25">
+      <c r="A23" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-    </row>
-    <row r="24" spans="1:11" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="A24" s="61" t="s">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="61" t="s">
+      <c r="B24" s="61"/>
+      <c r="C24" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
       <c r="K24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="53"/>
+      <c r="C25" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="49">
         <v>43891</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A26" s="55" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="53"/>
+      <c r="C26" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="49">
         <v>43898</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="53"/>
+      <c r="C27" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="49">
         <f>G4</f>
-        <v>44165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A28" s="55" t="s">
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
+      <c r="B28" s="53"/>
+      <c r="C28" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="49">
         <f>G4+7</f>
-        <v>44172</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A29" s="55" t="s">
+        <v>44536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="49">
         <f>G17</f>
-        <v>44179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A30" s="55" t="s">
+        <v>44543</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
+      <c r="B30" s="53"/>
+      <c r="C30" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="49">
         <f>I17</f>
-        <v>44200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="20.25" x14ac:dyDescent="0.85">
-      <c r="A31" s="55" t="s">
+        <v>44564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="53"/>
+      <c r="C31" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="49">
         <f>K17</f>
-        <v>44214</v>
+        <v>44578</v>
       </c>
     </row>
   </sheetData>
@@ -4334,65 +4334,65 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.86328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.3984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 19-Aug-20</v>
+        <v>Today: 18-Feb-21</v>
       </c>
       <c r="G1" s="2">
-        <v>44066</v>
+        <v>44431</v>
       </c>
       <c r="H1">
         <f>INT(G1)</f>
-        <v>44066</v>
+        <v>44431</v>
       </c>
       <c r="I1">
         <f>H1+28</f>
-        <v>44094</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44062</v>
+        <v>44245</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>44062</v>
+        <v>44245</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9">
       <c r="B5" t="str">
         <f>Text!A25</f>
         <v>Radio Licensing Forms</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <f>Text!K25</f>
         <v>43891</v>
@@ -4401,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <f>Text!K25</f>
         <v>43891</v>
@@ -4410,13 +4410,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9">
       <c r="B9" t="str">
         <f>Text!A26</f>
         <v>Battery Qualification</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <f>Text!K26</f>
         <v>43898</v>
@@ -4425,7 +4425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <f>Text!K26</f>
         <v>43898</v>
@@ -4434,124 +4434,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9">
       <c r="B13" t="str">
         <f>Text!A27</f>
         <v>Flight Unit Integration</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <f>Text!K27</f>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <f>Text!K27</f>
-        <v>44165</v>
+        <v>44529</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2">
       <c r="B17" t="str">
         <f>Text!A28</f>
         <v>Vibration Test</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <f>Text!K28</f>
-        <v>44172</v>
+        <v>44536</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <f>Text!K28</f>
-        <v>44172</v>
+        <v>44536</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2">
       <c r="B21" t="str">
         <f>Text!A29</f>
         <v>Software Integration</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <f>Text!K29</f>
-        <v>44179</v>
+        <v>44543</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <f>Text!K29</f>
-        <v>44179</v>
+        <v>44543</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2">
       <c r="B25" t="str">
         <f>Text!A30</f>
         <v>Day in the Life Test</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <f>Text!K30</f>
-        <v>44200</v>
+        <v>44564</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <f>Text!K30</f>
-        <v>44200</v>
+        <v>44564</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2">
       <c r="B29" t="str">
         <f>Text!A31</f>
         <v>Nanoracks Handover</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <f>Text!K31</f>
-        <v>44214</v>
+        <v>44578</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <f>Text!K31</f>
-        <v>44214</v>
+        <v>44578</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bradley\Documents\GitHub\CougSat1-Readme\Native\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\Cougs in Space\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5690E1EA-D94B-448B-BE8F-93C774DDEA96}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFEA2061-68F6-4E90-AA45-6208B4196B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27450" yWindow="2280" windowWidth="20940" windowHeight="18255" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt" sheetId="8" r:id="rId1"/>
@@ -234,10 +234,10 @@
     <t>Radio Licensing Forms</t>
   </si>
   <si>
-    <t>V1.5.1</t>
-  </si>
-  <si>
     <t>Battery Testing</t>
+  </si>
+  <si>
+    <t>V1.5.2</t>
   </si>
 </sst>
 </file>
@@ -863,6 +863,12 @@
     <xf numFmtId="165" fontId="7" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -928,12 +934,6 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1280,7 +1280,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>98</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
@@ -1310,7 +1310,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>56</c:v>
@@ -1481,7 +1481,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>14</c:v>
@@ -1622,7 +1622,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -1868,10 +1868,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44529</c:v>
+                  <c:v>44570</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44529</c:v>
+                  <c:v>44570</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,10 +1931,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44536</c:v>
+                  <c:v>44577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44536</c:v>
+                  <c:v>44577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,10 +2126,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44578</c:v>
+                  <c:v>44598</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44578</c:v>
+                  <c:v>44598</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2961,7 +2961,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="12239625" cy="7210425"/>
+    <xdr:ext cx="12222480" cy="7193280"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3290,45 +3290,45 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="23.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:12" ht="22.8">
+      <c r="A1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
       <c r="F1" s="24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="25"/>
       <c r="H1" s="24"/>
       <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="69">
+      <c r="J1" s="71">
         <f>MAX(E4:K22)</f>
-        <v>44578</v>
-      </c>
-      <c r="K1" s="70"/>
+        <v>44598</v>
+      </c>
+      <c r="K1" s="72"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
       <c r="A2" s="20" t="s">
@@ -3346,20 +3346,20 @@
       <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="68" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68" t="s">
+      <c r="G2" s="69"/>
+      <c r="H2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="58" t="s">
+      <c r="I2" s="70"/>
+      <c r="J2" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="58"/>
-    </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" ht="43.5" thickBot="1">
+      <c r="K2" s="60"/>
+    </row>
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="42" thickBot="1">
       <c r="A3" s="22" t="s">
         <v>50</v>
       </c>
@@ -3375,22 +3375,22 @@
       <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74" t="s">
+      <c r="I3" s="75"/>
+      <c r="J3" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="74"/>
+      <c r="K3" s="76"/>
       <c r="L3" s="26"/>
     </row>
-    <row r="4" spans="1:12" ht="15.75" thickTop="1">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:12" ht="15" thickTop="1">
+      <c r="A4" s="64" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -3405,29 +3405,29 @@
       </c>
       <c r="F4" s="33">
         <f t="shared" ref="F4:F17" si="0">(G4-E4)/7</f>
-        <v>14</v>
+        <v>19.857142857142858</v>
       </c>
       <c r="G4" s="34">
         <f>MAX(K5:K16)</f>
-        <v>44529</v>
+        <v>44570</v>
       </c>
       <c r="H4" s="35">
         <v>2</v>
       </c>
       <c r="I4" s="36">
         <f t="shared" ref="I4:I22" si="1">G4+H4*7</f>
-        <v>44543</v>
+        <v>44584</v>
       </c>
       <c r="J4" s="37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4" s="38">
         <f t="shared" ref="K4:K16" si="2">I4+J4*7</f>
-        <v>44564</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="63"/>
+      <c r="A5" s="65"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -3465,9 +3465,9 @@
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="63"/>
+      <c r="A6" s="65"/>
       <c r="B6" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>5</v>
@@ -3500,7 +3500,7 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="63"/>
+      <c r="A7" s="65"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3538,7 +3538,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="63"/>
+      <c r="A8" s="65"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3547,7 +3547,7 @@
       </c>
       <c r="D8" s="44" t="str">
         <f t="shared" si="3"/>
-        <v>Critical Path</v>
+        <v/>
       </c>
       <c r="E8" s="28">
         <f t="shared" si="4"/>
@@ -3576,7 +3576,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="63"/>
+      <c r="A9" s="65"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3614,7 +3614,7 @@
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="63"/>
+      <c r="A10" s="65"/>
       <c r="B10" s="4" t="str">
         <f>"+X Panel V1.1"</f>
         <v>+X Panel V1.1</v>
@@ -3653,7 +3653,7 @@
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="63"/>
+      <c r="A11" s="65"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3691,7 +3691,7 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="63"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="63"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="41" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
@@ -3768,7 +3768,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="63"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3777,36 +3777,36 @@
       </c>
       <c r="D14" s="44" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>Critical Path</v>
       </c>
       <c r="E14" s="28">
         <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F14" s="14">
-        <v>6</v>
+        <v>10.857142857142858</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" si="5"/>
-        <v>44473</v>
+        <v>44507</v>
       </c>
       <c r="H14" s="39">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="1"/>
-        <v>44501</v>
+        <v>44556</v>
       </c>
       <c r="J14" s="42">
         <v>2</v>
       </c>
       <c r="K14" s="7">
         <f t="shared" si="2"/>
-        <v>44515</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="63"/>
+      <c r="A15" s="65"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3844,7 +3844,7 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="64"/>
+      <c r="A16" s="66"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
@@ -3882,7 +3882,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="67" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3920,7 +3920,7 @@
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="63"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="47" t="s">
         <v>35</v>
       </c>
@@ -3942,7 +3942,7 @@
         <f>E18+F18*7</f>
         <v>44501</v>
       </c>
-      <c r="H18" s="75">
+      <c r="H18" s="53">
         <v>4</v>
       </c>
       <c r="I18" s="12">
@@ -3958,7 +3958,7 @@
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="63"/>
+      <c r="A19" s="65"/>
       <c r="B19" s="29" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +3980,7 @@
         <f>E19+F19*7</f>
         <v>44501</v>
       </c>
-      <c r="H19" s="76">
+      <c r="H19" s="54">
         <v>4</v>
       </c>
       <c r="I19" s="6">
@@ -3996,7 +3996,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="63"/>
+      <c r="A20" s="65"/>
       <c r="B20" s="29" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4018,7 @@
         <f>E20+F20*7</f>
         <v>44501</v>
       </c>
-      <c r="H20" s="76">
+      <c r="H20" s="54">
         <v>4</v>
       </c>
       <c r="I20" s="6">
@@ -4034,7 +4034,7 @@
       </c>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="63"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="29" t="s">
         <v>40</v>
       </c>
@@ -4056,7 +4056,7 @@
         <f>E21+F21*7</f>
         <v>44501</v>
       </c>
-      <c r="H21" s="76">
+      <c r="H21" s="54">
         <v>4</v>
       </c>
       <c r="I21" s="6">
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="64"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="41" t="s">
         <v>34</v>
       </c>
@@ -4109,176 +4109,176 @@
         <v>44543</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="23.25">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:11" ht="22.8">
+      <c r="A23" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="56"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="58"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="59" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="61"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="53" t="s">
+      <c r="A25" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="53"/>
-      <c r="C25" s="54" t="s">
+      <c r="B25" s="55"/>
+      <c r="C25" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
       <c r="K25" s="49">
         <v>43891</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="54" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
       <c r="K26" s="49">
         <v>43898</v>
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="53"/>
-      <c r="C27" s="54" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
       <c r="K27" s="49">
         <f>G4</f>
-        <v>44529</v>
+        <v>44570</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="54" t="s">
+      <c r="B28" s="55"/>
+      <c r="C28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
       <c r="K28" s="49">
         <f>G4+7</f>
-        <v>44536</v>
+        <v>44577</v>
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="54" t="s">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
       <c r="K29" s="49">
         <f>G17</f>
         <v>44543</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="54" t="s">
+      <c r="B30" s="55"/>
+      <c r="C30" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
       <c r="K30" s="49">
         <f>I17</f>
         <v>44564</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="53" t="s">
+      <c r="A31" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="54" t="s">
+      <c r="B31" s="55"/>
+      <c r="C31" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
       <c r="K31" s="49">
-        <f>K17</f>
-        <v>44578</v>
+        <f>K4</f>
+        <v>44598</v>
       </c>
     </row>
   </sheetData>
@@ -4333,28 +4333,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9591EF12-12B5-44D5-911E-15D67C3B63C7}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 18-Feb-21</v>
+        <v>Today: 07-Dec-21</v>
       </c>
       <c r="G1" s="2">
         <v>44431</v>
@@ -4371,7 +4371,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44245</v>
+        <v>44537</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4380,7 +4380,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>44245</v>
+        <v>44537</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4446,7 +4446,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="2">
         <f>Text!K27</f>
-        <v>44529</v>
+        <v>44570</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4455,7 +4455,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="2">
         <f>Text!K27</f>
-        <v>44529</v>
+        <v>44570</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4470,7 +4470,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="2">
         <f>Text!K28</f>
-        <v>44536</v>
+        <v>44577</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     <row r="19" spans="1:2">
       <c r="A19" s="2">
         <f>Text!K28</f>
-        <v>44536</v>
+        <v>44577</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4542,7 +4542,7 @@
     <row r="30" spans="1:2">
       <c r="A30" s="2">
         <f>Text!K31</f>
-        <v>44578</v>
+        <v>44598</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4551,7 +4551,7 @@
     <row r="31" spans="1:2">
       <c r="A31" s="2">
         <f>Text!K31</f>
-        <v>44578</v>
+        <v>44598</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\Cougs in Space\CougSat1-Readme\Native\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Cougs In Space\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFEA2061-68F6-4E90-AA45-6208B4196B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D69B7-7963-4878-A07B-54BDAF5FB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
@@ -28,6 +28,7 @@
     <definedName name="Test_Days">Test*7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -711,7 +712,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -869,6 +870,7 @@
     <xf numFmtId="166" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1280,7 +1282,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
@@ -1319,7 +1321,7 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>112</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>70</c:v>
@@ -1451,7 +1453,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
@@ -1481,7 +1483,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>14</c:v>
@@ -1490,22 +1492,22 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>21</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>45.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1868,10 +1870,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44570</c:v>
+                  <c:v>44606</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44570</c:v>
+                  <c:v>44606</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1931,10 +1933,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44577</c:v>
+                  <c:v>44610</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44577</c:v>
+                  <c:v>44610</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1994,10 +1996,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44543</c:v>
+                  <c:v>44547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44543</c:v>
+                  <c:v>44547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2060,10 +2062,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44564</c:v>
+                  <c:v>44613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44564</c:v>
+                  <c:v>44613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2126,10 +2128,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44598</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44598</c:v>
+                  <c:v>44615</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3287,10 +3289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6795B2AF-B69F-4446-A3B6-FEFF9CA8AA9F}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3309,13 +3311,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
       <c r="F1" s="24" t="s">
         <v>56</v>
       </c>
@@ -3324,11 +3326,11 @@
       <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="71">
+      <c r="J1" s="72">
         <f>MAX(E4:K22)</f>
-        <v>44598</v>
-      </c>
-      <c r="K1" s="72"/>
+        <v>44629</v>
+      </c>
+      <c r="K1" s="73"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
       <c r="A2" s="20" t="s">
@@ -3346,18 +3348,18 @@
       <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="68" t="s">
+      <c r="F2" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="69"/>
-      <c r="H2" s="70" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="70"/>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="71"/>
+      <c r="J2" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="60"/>
+      <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="42" thickBot="1">
       <c r="A3" s="22" t="s">
@@ -3375,22 +3377,22 @@
       <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="73" t="s">
+      <c r="F3" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75" t="s">
+      <c r="G3" s="75"/>
+      <c r="H3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="76" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="77" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="76"/>
+      <c r="K3" s="77"/>
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickTop="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -3404,30 +3406,30 @@
         <v>44431</v>
       </c>
       <c r="F4" s="33">
-        <f t="shared" ref="F4:F17" si="0">(G4-E4)/7</f>
-        <v>19.857142857142858</v>
+        <f>(G4-E4)/7</f>
+        <v>21.857142857142858</v>
       </c>
       <c r="G4" s="34">
         <f>MAX(K5:K16)</f>
-        <v>44570</v>
+        <v>44584</v>
       </c>
       <c r="H4" s="35">
-        <v>2</v>
+        <v>4.4285714285714288</v>
       </c>
       <c r="I4" s="36">
-        <f t="shared" ref="I4:I22" si="1">G4+H4*7</f>
-        <v>44584</v>
+        <f t="shared" ref="I4:I22" si="0">G4+H4*7</f>
+        <v>44615</v>
       </c>
       <c r="J4" s="37">
         <v>2</v>
       </c>
       <c r="K4" s="38">
-        <f t="shared" ref="K4:K16" si="2">I4+J4*7</f>
-        <v>44598</v>
+        <f t="shared" ref="K4:K16" si="1">I4+J4*7</f>
+        <v>44629</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="65"/>
+      <c r="A5" s="66"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -3435,7 +3437,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="44" t="str">
-        <f t="shared" ref="D5:D16" si="3">IF(K5=$G$4,"Critical Path","")</f>
+        <f t="shared" ref="D5:D16" si="2">IF(K5=$G$4,"Critical Path","")</f>
         <v/>
       </c>
       <c r="E5" s="28">
@@ -3453,54 +3455,54 @@
         <v>4</v>
       </c>
       <c r="I5" s="6">
+        <f t="shared" si="0"/>
+        <v>44487</v>
+      </c>
+      <c r="J5" s="40">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="1"/>
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="66"/>
+      <c r="B6" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="28">
+        <f t="shared" ref="E6:E22" si="3">$E$4</f>
+        <v>44431</v>
+      </c>
+      <c r="F6" s="14">
+        <v>2</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" ref="G6:G15" si="4">E6+F6*7</f>
+        <v>44445</v>
+      </c>
+      <c r="H6" s="39">
+        <v>4</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="0"/>
+        <v>44473</v>
+      </c>
+      <c r="J6" s="40">
+        <v>2</v>
+      </c>
+      <c r="K6" s="7">
         <f t="shared" si="1"/>
         <v>44487</v>
       </c>
-      <c r="J5" s="40">
-        <v>2</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="2"/>
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="65"/>
-      <c r="B6" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="28">
-        <f t="shared" ref="E6:E22" si="4">$E$4</f>
-        <v>44431</v>
-      </c>
-      <c r="F6" s="14">
-        <v>2</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" ref="G6:G15" si="5">E6+F6*7</f>
-        <v>44445</v>
-      </c>
-      <c r="H6" s="39">
-        <v>4</v>
-      </c>
-      <c r="I6" s="6">
-        <f t="shared" si="1"/>
-        <v>44473</v>
-      </c>
-      <c r="J6" s="40">
-        <v>2</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="2"/>
-        <v>44487</v>
-      </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="65"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3508,113 +3510,113 @@
         <v>5</v>
       </c>
       <c r="D7" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E7" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E7" s="28">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F7" s="14">
         <v>4</v>
       </c>
       <c r="G7" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44459</v>
       </c>
       <c r="H7" s="39">
         <v>4</v>
       </c>
       <c r="I7" s="6">
+        <f t="shared" si="0"/>
+        <v>44487</v>
+      </c>
+      <c r="J7" s="40">
+        <v>2</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="1"/>
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="66"/>
+      <c r="B8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="3"/>
+        <v>44431</v>
+      </c>
+      <c r="F8" s="14">
+        <v>8</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="4"/>
+        <v>44487</v>
+      </c>
+      <c r="H8" s="39">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="0"/>
+        <v>44515</v>
+      </c>
+      <c r="J8" s="40">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7">
+        <f t="shared" si="1"/>
+        <v>44529</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="66"/>
+      <c r="B9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="3"/>
+        <v>44431</v>
+      </c>
+      <c r="F9" s="14">
+        <v>4</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="4"/>
+        <v>44459</v>
+      </c>
+      <c r="H9" s="39">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="0"/>
+        <v>44473</v>
+      </c>
+      <c r="J9" s="40">
+        <v>2</v>
+      </c>
+      <c r="K9" s="7">
         <f t="shared" si="1"/>
         <v>44487</v>
       </c>
-      <c r="J7" s="40">
-        <v>2</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="2"/>
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="65"/>
-      <c r="B8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E8" s="28">
-        <f t="shared" si="4"/>
-        <v>44431</v>
-      </c>
-      <c r="F8" s="14">
-        <v>8</v>
-      </c>
-      <c r="G8" s="5">
-        <f t="shared" si="5"/>
-        <v>44487</v>
-      </c>
-      <c r="H8" s="39">
-        <v>4</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>44515</v>
-      </c>
-      <c r="J8" s="40">
-        <v>2</v>
-      </c>
-      <c r="K8" s="7">
-        <f t="shared" si="2"/>
-        <v>44529</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="65"/>
-      <c r="B9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="44" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E9" s="28">
-        <f t="shared" si="4"/>
-        <v>44431</v>
-      </c>
-      <c r="F9" s="14">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
-        <f t="shared" si="5"/>
-        <v>44459</v>
-      </c>
-      <c r="H9" s="39">
-        <v>2</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
-        <v>44473</v>
-      </c>
-      <c r="J9" s="40">
-        <v>2</v>
-      </c>
-      <c r="K9" s="7">
-        <f t="shared" si="2"/>
-        <v>44487</v>
-      </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="65"/>
+      <c r="A10" s="66"/>
       <c r="B10" s="4" t="str">
         <f>"+X Panel V1.1"</f>
         <v>+X Panel V1.1</v>
@@ -3623,37 +3625,37 @@
         <v>5</v>
       </c>
       <c r="D10" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E10" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E10" s="28">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F10" s="14">
         <v>8</v>
       </c>
       <c r="G10" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44487</v>
       </c>
       <c r="H10" s="39">
         <v>2</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44501</v>
       </c>
       <c r="J10" s="40">
         <v>2</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44515</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="65"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3661,37 +3663,37 @@
         <v>5</v>
       </c>
       <c r="D11" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E11" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E11" s="28">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F11" s="14">
         <v>4</v>
       </c>
       <c r="G11" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44459</v>
       </c>
       <c r="H11" s="39">
         <v>6</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44501</v>
       </c>
       <c r="J11" s="40">
         <v>2</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44515</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="65"/>
+      <c r="A12" s="66"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3699,37 +3701,37 @@
         <v>5</v>
       </c>
       <c r="D12" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E12" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E12" s="28">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F12" s="14">
         <v>2</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44445</v>
       </c>
       <c r="H12" s="39">
         <v>2</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44459</v>
       </c>
       <c r="J12" s="40">
         <v>2</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44473</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="65"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="41" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
@@ -3738,11 +3740,11 @@
         <v>5</v>
       </c>
       <c r="D13" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E13" s="27">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E13" s="27">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F13" s="15">
@@ -3756,19 +3758,19 @@
         <v>2</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44473</v>
       </c>
       <c r="J13" s="18">
         <v>2</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44487</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="65"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3776,37 +3778,37 @@
         <v>5</v>
       </c>
       <c r="D14" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v>Critical Path</v>
+      </c>
+      <c r="E14" s="28">
         <f t="shared" si="3"/>
-        <v>Critical Path</v>
-      </c>
-      <c r="E14" s="28">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F14" s="14">
         <v>10.857142857142858</v>
       </c>
       <c r="G14" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44507</v>
       </c>
       <c r="H14" s="39">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="1"/>
-        <v>44556</v>
+        <f t="shared" si="0"/>
+        <v>44570</v>
       </c>
       <c r="J14" s="42">
         <v>2</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="2"/>
-        <v>44570</v>
+        <f t="shared" si="1"/>
+        <v>44584</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="65"/>
+      <c r="A15" s="66"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3814,37 +3816,37 @@
         <v>5</v>
       </c>
       <c r="D15" s="44" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E15" s="28">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E15" s="28">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F15" s="14">
         <v>8</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>44487</v>
       </c>
       <c r="H15" s="39">
         <v>2</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44501</v>
       </c>
       <c r="J15" s="40">
         <v>2</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44515</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="66"/>
+      <c r="A16" s="67"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
@@ -3852,11 +3854,11 @@
         <v>5</v>
       </c>
       <c r="D16" s="45" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="E16" s="27">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="E16" s="27">
-        <f t="shared" si="4"/>
         <v>44431</v>
       </c>
       <c r="F16" s="15">
@@ -3870,19 +3872,19 @@
         <v>2</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44473</v>
       </c>
       <c r="J16" s="18">
         <v>2</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>44487</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:13">
+      <c r="A17" s="68" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3893,34 +3895,34 @@
       </c>
       <c r="D17" s="45"/>
       <c r="E17" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44431</v>
       </c>
       <c r="F17" s="15">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>(G17-E17)/7</f>
+        <v>18.571428571428573</v>
       </c>
       <c r="G17" s="5">
         <f>MAX(K18:K22)</f>
-        <v>44543</v>
+        <v>44561</v>
       </c>
       <c r="H17" s="30">
-        <v>3</v>
+        <v>7.4285714285714288</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="1"/>
-        <v>44564</v>
+        <f t="shared" si="0"/>
+        <v>44613</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
       </c>
       <c r="K17" s="11">
-        <f t="shared" ref="K17" si="6">I17+J17*7</f>
-        <v>44578</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="65"/>
+        <f t="shared" ref="K17:K22" si="5">I17+J17*7</f>
+        <v>44627</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="66"/>
       <c r="B18" s="47" t="s">
         <v>35</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>Critical Path</v>
       </c>
       <c r="E18" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44431</v>
       </c>
       <c r="F18" s="16">
@@ -3943,22 +3945,22 @@
         <v>44501</v>
       </c>
       <c r="H18" s="53">
-        <v>4</v>
+        <v>6.5714285714285703</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="1"/>
-        <v>44529</v>
+        <f t="shared" si="0"/>
+        <v>44547</v>
       </c>
       <c r="J18" s="19">
         <v>2</v>
       </c>
       <c r="K18" s="13">
-        <f>I18+J18*7</f>
-        <v>44543</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" s="65"/>
+        <f t="shared" si="5"/>
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="66"/>
       <c r="B19" s="29" t="s">
         <v>9</v>
       </c>
@@ -3970,7 +3972,7 @@
         <v>Critical Path</v>
       </c>
       <c r="E19" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44431</v>
       </c>
       <c r="F19" s="14">
@@ -3981,22 +3983,22 @@
         <v>44501</v>
       </c>
       <c r="H19" s="54">
-        <v>4</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="1"/>
-        <v>44529</v>
+        <f t="shared" si="0"/>
+        <v>44547</v>
       </c>
       <c r="J19" s="40">
         <v>2</v>
       </c>
       <c r="K19" s="7">
-        <f>I19+J19*7</f>
-        <v>44543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" s="65"/>
+        <f t="shared" si="5"/>
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="66"/>
       <c r="B20" s="29" t="s">
         <v>8</v>
       </c>
@@ -4008,7 +4010,7 @@
         <v>Critical Path</v>
       </c>
       <c r="E20" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44431</v>
       </c>
       <c r="F20" s="14">
@@ -4019,22 +4021,22 @@
         <v>44501</v>
       </c>
       <c r="H20" s="54">
-        <v>4</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="1"/>
-        <v>44529</v>
+        <f t="shared" si="0"/>
+        <v>44547</v>
       </c>
       <c r="J20" s="40">
         <v>2</v>
       </c>
       <c r="K20" s="7">
-        <f>I20+J20*7</f>
-        <v>44543</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" s="65"/>
+        <f t="shared" si="5"/>
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="66"/>
       <c r="B21" s="29" t="s">
         <v>40</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>Critical Path</v>
       </c>
       <c r="E21" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44431</v>
       </c>
       <c r="F21" s="14">
@@ -4057,22 +4059,22 @@
         <v>44501</v>
       </c>
       <c r="H21" s="54">
-        <v>4</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="1"/>
-        <v>44529</v>
+        <f t="shared" si="0"/>
+        <v>44547</v>
       </c>
       <c r="J21" s="40">
         <v>2</v>
       </c>
       <c r="K21" s="7">
-        <f>I21+J21*7</f>
-        <v>44543</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22" s="66"/>
+        <f t="shared" si="5"/>
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="67"/>
       <c r="B22" s="41" t="s">
         <v>34</v>
       </c>
@@ -4084,7 +4086,7 @@
         <v>Critical Path</v>
       </c>
       <c r="E22" s="28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>44431</v>
       </c>
       <c r="F22" s="15">
@@ -4095,190 +4097,189 @@
         <v>44501</v>
       </c>
       <c r="H22" s="30">
-        <v>4</v>
+        <v>6.5714285714285712</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="1"/>
-        <v>44529</v>
+        <f t="shared" si="0"/>
+        <v>44547</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
       </c>
       <c r="K22" s="11">
-        <f>I22+J22*7</f>
-        <v>44543</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="22.8">
-      <c r="A23" s="57" t="s">
+        <f t="shared" si="5"/>
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="22.8">
+      <c r="A23" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="58"/>
-      <c r="I23" s="58"/>
-      <c r="J23" s="58"/>
-      <c r="K23" s="58"/>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="61" t="s">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="61" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="64"/>
       <c r="K24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:13">
+      <c r="A25" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56" t="s">
+      <c r="B25" s="56"/>
+      <c r="C25" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="56"/>
-      <c r="J25" s="56"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
       <c r="K25" s="49">
         <v>43891</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="55" t="s">
+    <row r="26" spans="1:13">
+      <c r="A26" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56" t="s">
+      <c r="B26" s="56"/>
+      <c r="C26" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
       <c r="K26" s="49">
         <v>43898</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:13">
+      <c r="A27" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56" t="s">
+      <c r="B27" s="56"/>
+      <c r="C27" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
       <c r="K27" s="49">
-        <f>G4</f>
-        <v>44570</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="A28" s="55" t="s">
+        <v>44606</v>
+      </c>
+      <c r="M27" s="55"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56" t="s">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
       <c r="K28" s="49">
-        <f>G4+7</f>
-        <v>44577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
-      <c r="A29" s="55" t="s">
+        <v>44610</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56" t="s">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
       <c r="K29" s="49">
-        <f>G17</f>
-        <v>44543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" s="55" t="s">
+        <f>I18</f>
+        <v>44547</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56" t="s">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
       <c r="K30" s="49">
         <f>I17</f>
-        <v>44564</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="55" t="s">
+        <v>44613</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="55"/>
-      <c r="C31" s="56" t="s">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
       <c r="K31" s="49">
-        <f>K4</f>
-        <v>44598</v>
+        <f>I4</f>
+        <v>44615</v>
       </c>
     </row>
   </sheetData>
@@ -4354,7 +4355,7 @@
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 07-Dec-21</v>
+        <v>Today: 04-Jan-22</v>
       </c>
       <c r="G1" s="2">
         <v>44431</v>
@@ -4371,7 +4372,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44537</v>
+        <v>44565</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4380,7 +4381,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>44537</v>
+        <v>44565</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4446,7 +4447,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="2">
         <f>Text!K27</f>
-        <v>44570</v>
+        <v>44606</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4455,7 +4456,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="2">
         <f>Text!K27</f>
-        <v>44570</v>
+        <v>44606</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4470,7 +4471,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="2">
         <f>Text!K28</f>
-        <v>44577</v>
+        <v>44610</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4479,7 +4480,7 @@
     <row r="19" spans="1:2">
       <c r="A19" s="2">
         <f>Text!K28</f>
-        <v>44577</v>
+        <v>44610</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4494,7 +4495,7 @@
     <row r="22" spans="1:2">
       <c r="A22" s="2">
         <f>Text!K29</f>
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4503,7 +4504,7 @@
     <row r="23" spans="1:2">
       <c r="A23" s="2">
         <f>Text!K29</f>
-        <v>44543</v>
+        <v>44547</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4518,7 +4519,7 @@
     <row r="26" spans="1:2">
       <c r="A26" s="2">
         <f>Text!K30</f>
-        <v>44564</v>
+        <v>44613</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4527,7 +4528,7 @@
     <row r="27" spans="1:2">
       <c r="A27" s="2">
         <f>Text!K30</f>
-        <v>44564</v>
+        <v>44613</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4542,7 +4543,7 @@
     <row r="30" spans="1:2">
       <c r="A30" s="2">
         <f>Text!K31</f>
-        <v>44598</v>
+        <v>44615</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4551,7 +4552,7 @@
     <row r="31" spans="1:2">
       <c r="A31" s="2">
         <f>Text!K31</f>
-        <v>44598</v>
+        <v>44615</v>
       </c>
       <c r="B31">
         <v>1</v>

--- a/Native/CougSat1-Timeline.xlsx
+++ b/Native/CougSat1-Timeline.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Desktop\Cougs In Space\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kevin\Documents\GitHub\Cougs in Space\CougSat1-Readme\Native\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62D69B7-7963-4878-A07B-54BDAF5FB9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{702A9977-4AF6-43DD-8C57-20C4E905D6F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6C898573-EEE6-4764-A1E5-48C0D9787F59}"/>
   </bookViews>
@@ -28,7 +28,6 @@
     <definedName name="Test_Days">Test*7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -238,7 +237,7 @@
     <t>Battery Testing</t>
   </si>
   <si>
-    <t>V1.5.2</t>
+    <t>V1.5.3</t>
   </si>
 </sst>
 </file>
@@ -712,7 +711,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -867,37 +866,52 @@
     <xf numFmtId="166" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="13" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -917,24 +931,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="12" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1282,13 +1278,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>153</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
@@ -1321,22 +1317,22 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>70</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>70</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>70</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>70</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>70</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1453,13 +1449,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>31</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>28</c:v>
@@ -1492,22 +1488,22 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45.999999999999993</c:v>
+                  <c:v>143.99999999999949</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46</c:v>
+                  <c:v>143.99999999999949</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>46</c:v>
+                  <c:v>143.99999999999949</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>46</c:v>
+                  <c:v>143.99999999999949</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>46</c:v>
+                  <c:v>143.99999999999949</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1624,7 +1620,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
@@ -1807,10 +1803,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>43898</c:v>
+                  <c:v>44711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43898</c:v>
+                  <c:v>44711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,10 +1866,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44606</c:v>
+                  <c:v>44711</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44606</c:v>
+                  <c:v>44711</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1933,10 +1929,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44610</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44610</c:v>
+                  <c:v>44742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1996,10 +1992,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44547</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44547</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2062,10 +2058,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44613</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44613</c:v>
+                  <c:v>44687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2128,10 +2124,10 @@
                 <c:formatCode>d\-mmm\-yy</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>44615</c:v>
+                  <c:v>44728</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>44615</c:v>
+                  <c:v>44728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,7 +3288,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3311,13 +3307,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.8">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="24" t="s">
         <v>56</v>
       </c>
@@ -3326,11 +3322,11 @@
       <c r="I1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="72">
+      <c r="J1" s="57">
         <f>MAX(E4:K22)</f>
-        <v>44629</v>
-      </c>
-      <c r="K1" s="73"/>
+        <v>44756</v>
+      </c>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1">
       <c r="A2" s="20" t="s">
@@ -3348,18 +3344,18 @@
       <c r="E2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="69" t="s">
+      <c r="F2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="71" t="s">
+      <c r="G2" s="75"/>
+      <c r="H2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="61" t="s">
+      <c r="I2" s="76"/>
+      <c r="J2" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="61"/>
+      <c r="K2" s="64"/>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="42" thickBot="1">
       <c r="A3" s="22" t="s">
@@ -3377,22 +3373,22 @@
       <c r="E3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="60"/>
+      <c r="H3" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="76"/>
-      <c r="J3" s="77" t="s">
+      <c r="I3" s="61"/>
+      <c r="J3" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="77"/>
+      <c r="K3" s="62"/>
       <c r="L3" s="26"/>
     </row>
     <row r="4" spans="1:12" ht="15" thickTop="1">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="31" t="s">
@@ -3407,29 +3403,30 @@
       </c>
       <c r="F4" s="33">
         <f>(G4-E4)/7</f>
-        <v>21.857142857142858</v>
+        <v>22</v>
       </c>
       <c r="G4" s="34">
-        <f>MAX(K5:K16)</f>
-        <v>44584</v>
+        <f>MAX(G5:G16)</f>
+        <v>44585</v>
       </c>
       <c r="H4" s="35">
-        <v>4.4285714285714288</v>
+        <f>(I4-G4)/7</f>
+        <v>20.428571428571427</v>
       </c>
       <c r="I4" s="36">
-        <f t="shared" ref="I4:I22" si="0">G4+H4*7</f>
-        <v>44615</v>
+        <f>MAX(I5:I16)</f>
+        <v>44728</v>
       </c>
       <c r="J4" s="37">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K4" s="38">
-        <f t="shared" ref="K4:K16" si="1">I4+J4*7</f>
-        <v>44629</v>
+        <f t="shared" ref="K4:K16" si="0">I4+J4*7</f>
+        <v>44756</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="66"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -3437,7 +3434,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="44" t="str">
-        <f t="shared" ref="D5:D16" si="2">IF(K5=$G$4,"Critical Path","")</f>
+        <f t="shared" ref="D5:D16" si="1">IF(K5=$G$4,"Critical Path","")</f>
         <v/>
       </c>
       <c r="E5" s="28">
@@ -3455,19 +3452,19 @@
         <v>4</v>
       </c>
       <c r="I5" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I22" si="2">G5+H5*7</f>
         <v>44487</v>
       </c>
       <c r="J5" s="40">
         <v>2</v>
       </c>
       <c r="K5" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44501</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="66"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="4" t="s">
         <v>55</v>
       </c>
@@ -3480,29 +3477,30 @@
         <v>44431</v>
       </c>
       <c r="F6" s="14">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" ref="G6:G15" si="4">E6+F6*7</f>
-        <v>44445</v>
+        <v>44585</v>
       </c>
       <c r="H6" s="39">
-        <v>4</v>
+        <f>20+(3/7)</f>
+        <v>20.428571428571427</v>
       </c>
       <c r="I6" s="6">
-        <f t="shared" si="0"/>
-        <v>44473</v>
+        <f t="shared" si="2"/>
+        <v>44728</v>
       </c>
       <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="7">
-        <f t="shared" si="1"/>
-        <v>44487</v>
+        <f t="shared" si="0"/>
+        <v>44742</v>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="66"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>5</v>
       </c>
       <c r="D7" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E7" s="28">
@@ -3528,19 +3526,19 @@
         <v>4</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44487</v>
       </c>
       <c r="J7" s="40">
         <v>2</v>
       </c>
       <c r="K7" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44501</v>
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="66"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="4" t="s">
         <v>25</v>
       </c>
@@ -3548,7 +3546,7 @@
         <v>5</v>
       </c>
       <c r="D8" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E8" s="28">
@@ -3566,19 +3564,19 @@
         <v>4</v>
       </c>
       <c r="I8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44515</v>
       </c>
       <c r="J8" s="40">
         <v>2</v>
       </c>
       <c r="K8" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44529</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="66"/>
+      <c r="A9" s="71"/>
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
@@ -3586,7 +3584,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E9" s="28">
@@ -3604,19 +3602,19 @@
         <v>2</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44473</v>
       </c>
       <c r="J9" s="40">
         <v>2</v>
       </c>
       <c r="K9" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44487</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="66"/>
+      <c r="A10" s="71"/>
       <c r="B10" s="4" t="str">
         <f>"+X Panel V1.1"</f>
         <v>+X Panel V1.1</v>
@@ -3625,7 +3623,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E10" s="28">
@@ -3643,19 +3641,19 @@
         <v>2</v>
       </c>
       <c r="I10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44501</v>
       </c>
       <c r="J10" s="40">
         <v>2</v>
       </c>
       <c r="K10" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44515</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="66"/>
+      <c r="A11" s="71"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3663,7 +3661,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E11" s="28">
@@ -3681,19 +3679,19 @@
         <v>6</v>
       </c>
       <c r="I11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44501</v>
       </c>
       <c r="J11" s="40">
         <v>2</v>
       </c>
       <c r="K11" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44515</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="66"/>
+      <c r="A12" s="71"/>
       <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3701,7 +3699,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E12" s="28">
@@ -3719,19 +3717,19 @@
         <v>2</v>
       </c>
       <c r="I12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44459</v>
       </c>
       <c r="J12" s="40">
         <v>2</v>
       </c>
       <c r="K12" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44473</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="66"/>
+      <c r="A13" s="71"/>
       <c r="B13" s="41" t="str">
         <f>"-Z Panel V1.0"</f>
         <v>-Z Panel V1.0</v>
@@ -3740,7 +3738,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E13" s="27">
@@ -3758,19 +3756,19 @@
         <v>2</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44473</v>
       </c>
       <c r="J13" s="18">
         <v>2</v>
       </c>
       <c r="K13" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44487</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="66"/>
+      <c r="A14" s="71"/>
       <c r="B14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3778,8 +3776,8 @@
         <v>5</v>
       </c>
       <c r="D14" s="44" t="str">
-        <f t="shared" si="2"/>
-        <v>Critical Path</v>
+        <f t="shared" si="1"/>
+        <v/>
       </c>
       <c r="E14" s="28">
         <f t="shared" si="3"/>
@@ -3796,19 +3794,19 @@
         <v>9</v>
       </c>
       <c r="I14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44570</v>
       </c>
       <c r="J14" s="42">
         <v>2</v>
       </c>
       <c r="K14" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44584</v>
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="66"/>
+      <c r="A15" s="71"/>
       <c r="B15" s="4" t="s">
         <v>38</v>
       </c>
@@ -3816,7 +3814,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E15" s="28">
@@ -3834,19 +3832,19 @@
         <v>2</v>
       </c>
       <c r="I15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44501</v>
       </c>
       <c r="J15" s="40">
         <v>2</v>
       </c>
       <c r="K15" s="7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44515</v>
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="67"/>
+      <c r="A16" s="72"/>
       <c r="B16" s="8" t="s">
         <v>37</v>
       </c>
@@ -3854,7 +3852,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="E16" s="27">
@@ -3872,19 +3870,19 @@
         <v>2</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>44473</v>
       </c>
       <c r="J16" s="18">
         <v>2</v>
       </c>
       <c r="K16" s="11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>44487</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="73" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -3900,29 +3898,30 @@
       </c>
       <c r="F17" s="15">
         <f>(G17-E17)/7</f>
-        <v>18.571428571428573</v>
+        <v>16</v>
       </c>
       <c r="G17" s="5">
-        <f>MAX(K18:K22)</f>
-        <v>44561</v>
+        <f>MAX(G18:G22)</f>
+        <v>44543</v>
       </c>
       <c r="H17" s="30">
-        <v>7.4285714285714288</v>
+        <f>(I17-G17)/7</f>
+        <v>20.571428571428573</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="0"/>
-        <v>44613</v>
+        <f>MAX(I18:I22)</f>
+        <v>44687</v>
       </c>
       <c r="J17" s="18">
         <v>2</v>
       </c>
       <c r="K17" s="11">
         <f t="shared" ref="K17:K22" si="5">I17+J17*7</f>
-        <v>44627</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="66"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="47" t="s">
         <v>35</v>
       </c>
@@ -3931,36 +3930,36 @@
       </c>
       <c r="D18" s="44" t="str">
         <f>IF(K18=$G$17,"Critical Path","")</f>
-        <v>Critical Path</v>
+        <v/>
       </c>
       <c r="E18" s="28">
         <f t="shared" si="3"/>
         <v>44431</v>
       </c>
       <c r="F18" s="16">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G18" s="51">
         <f>E18+F18*7</f>
-        <v>44501</v>
+        <v>44543</v>
       </c>
       <c r="H18" s="53">
-        <v>6.5714285714285703</v>
+        <v>20.571428571428498</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="0"/>
-        <v>44547</v>
+        <f t="shared" si="2"/>
+        <v>44687</v>
       </c>
       <c r="J18" s="19">
         <v>2</v>
       </c>
       <c r="K18" s="13">
         <f t="shared" si="5"/>
-        <v>44561</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="66"/>
+      <c r="A19" s="71"/>
       <c r="B19" s="29" t="s">
         <v>9</v>
       </c>
@@ -3969,36 +3968,36 @@
       </c>
       <c r="D19" s="44" t="str">
         <f>IF(K19=$G$17,"Critical Path","")</f>
-        <v>Critical Path</v>
+        <v/>
       </c>
       <c r="E19" s="28">
         <f t="shared" si="3"/>
         <v>44431</v>
       </c>
-      <c r="F19" s="14">
-        <v>10</v>
+      <c r="F19" s="16">
+        <v>16</v>
       </c>
       <c r="G19" s="50">
         <f>E19+F19*7</f>
-        <v>44501</v>
-      </c>
-      <c r="H19" s="54">
-        <v>6.5714285714285712</v>
+        <v>44543</v>
+      </c>
+      <c r="H19" s="53">
+        <v>20.571428571428498</v>
       </c>
       <c r="I19" s="6">
-        <f t="shared" si="0"/>
-        <v>44547</v>
+        <f t="shared" si="2"/>
+        <v>44687</v>
       </c>
       <c r="J19" s="40">
         <v>2</v>
       </c>
       <c r="K19" s="7">
         <f t="shared" si="5"/>
-        <v>44561</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="66"/>
+      <c r="A20" s="71"/>
       <c r="B20" s="29" t="s">
         <v>8</v>
       </c>
@@ -4007,36 +4006,36 @@
       </c>
       <c r="D20" s="44" t="str">
         <f>IF(K20=$G$17,"Critical Path","")</f>
-        <v>Critical Path</v>
+        <v/>
       </c>
       <c r="E20" s="28">
         <f t="shared" si="3"/>
         <v>44431</v>
       </c>
-      <c r="F20" s="14">
-        <v>10</v>
+      <c r="F20" s="16">
+        <v>16</v>
       </c>
       <c r="G20" s="50">
         <f>E20+F20*7</f>
-        <v>44501</v>
-      </c>
-      <c r="H20" s="54">
-        <v>6.5714285714285712</v>
+        <v>44543</v>
+      </c>
+      <c r="H20" s="53">
+        <v>20.571428571428498</v>
       </c>
       <c r="I20" s="6">
-        <f t="shared" si="0"/>
-        <v>44547</v>
+        <f t="shared" si="2"/>
+        <v>44687</v>
       </c>
       <c r="J20" s="40">
         <v>2</v>
       </c>
       <c r="K20" s="7">
         <f t="shared" si="5"/>
-        <v>44561</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="66"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="29" t="s">
         <v>40</v>
       </c>
@@ -4045,36 +4044,36 @@
       </c>
       <c r="D21" s="44" t="str">
         <f>IF(K21=$G$17,"Critical Path","")</f>
-        <v>Critical Path</v>
+        <v/>
       </c>
       <c r="E21" s="28">
         <f t="shared" si="3"/>
         <v>44431</v>
       </c>
-      <c r="F21" s="14">
-        <v>10</v>
+      <c r="F21" s="16">
+        <v>16</v>
       </c>
       <c r="G21" s="50">
         <f>E21+F21*7</f>
-        <v>44501</v>
-      </c>
-      <c r="H21" s="54">
-        <v>6.5714285714285712</v>
+        <v>44543</v>
+      </c>
+      <c r="H21" s="53">
+        <v>20.571428571428498</v>
       </c>
       <c r="I21" s="6">
-        <f t="shared" si="0"/>
-        <v>44547</v>
+        <f t="shared" si="2"/>
+        <v>44687</v>
       </c>
       <c r="J21" s="40">
         <v>2</v>
       </c>
       <c r="K21" s="7">
         <f t="shared" si="5"/>
-        <v>44561</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="22" spans="1:13">
-      <c r="A22" s="67"/>
+      <c r="A22" s="72"/>
       <c r="B22" s="41" t="s">
         <v>34</v>
       </c>
@@ -4083,203 +4082,203 @@
       </c>
       <c r="D22" s="48" t="str">
         <f>IF(K22=$G$17,"Critical Path","")</f>
-        <v>Critical Path</v>
+        <v/>
       </c>
       <c r="E22" s="28">
         <f t="shared" si="3"/>
         <v>44431</v>
       </c>
-      <c r="F22" s="15">
-        <v>10</v>
+      <c r="F22" s="16">
+        <v>16</v>
       </c>
       <c r="G22" s="52">
         <f>E22+F22*7</f>
-        <v>44501</v>
-      </c>
-      <c r="H22" s="30">
-        <v>6.5714285714285712</v>
+        <v>44543</v>
+      </c>
+      <c r="H22" s="53">
+        <v>20.571428571428498</v>
       </c>
       <c r="I22" s="10">
-        <f t="shared" si="0"/>
-        <v>44547</v>
+        <f t="shared" si="2"/>
+        <v>44687</v>
       </c>
       <c r="J22" s="18">
         <v>2</v>
       </c>
       <c r="K22" s="11">
         <f t="shared" si="5"/>
-        <v>44561</v>
+        <v>44701</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="22.8">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="56"/>
     </row>
     <row r="24" spans="1:13">
-      <c r="A24" s="62" t="s">
+      <c r="A24" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="62" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="64"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="68"/>
       <c r="K24" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="56" t="s">
+      <c r="A25" s="65" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57" t="s">
+      <c r="B25" s="65"/>
+      <c r="C25" s="69" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="69"/>
       <c r="K25" s="49">
         <v>43891</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="56"/>
-      <c r="C26" s="57" t="s">
+      <c r="B26" s="65"/>
+      <c r="C26" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
+      <c r="D26" s="69"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="69"/>
       <c r="K26" s="49">
-        <v>43898</v>
+        <v>44711</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="56" t="s">
+      <c r="A27" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57" t="s">
+      <c r="B27" s="65"/>
+      <c r="C27" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="69"/>
       <c r="K27" s="49">
-        <v>44606</v>
-      </c>
-      <c r="M27" s="55"/>
+        <v>44711</v>
+      </c>
+      <c r="M27" s="54"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="56"/>
-      <c r="C28" s="57" t="s">
+      <c r="B28" s="65"/>
+      <c r="C28" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="69"/>
       <c r="K28" s="49">
-        <v>44610</v>
+        <v>44742</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="69" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
       <c r="K29" s="49">
         <f>I18</f>
-        <v>44547</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57" t="s">
+      <c r="B30" s="65"/>
+      <c r="C30" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
+      <c r="D30" s="69"/>
+      <c r="E30" s="69"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="69"/>
       <c r="K30" s="49">
         <f>I17</f>
-        <v>44613</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="56" t="s">
+      <c r="A31" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="69" t="s">
         <v>47</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
       <c r="K31" s="49">
         <f>I4</f>
-        <v>44615</v>
+        <v>44728</v>
       </c>
     </row>
   </sheetData>
@@ -4287,11 +4286,12 @@
     <sortCondition descending="1" ref="K18:K22"/>
   </sortState>
   <mergeCells count="27">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:J29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:J31"/>
     <mergeCell ref="A23:K23"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="A28:B28"/>
@@ -4308,12 +4308,11 @@
     <mergeCell ref="C25:J25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:J26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:J29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D4:D22">
@@ -4355,7 +4354,7 @@
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="str">
         <f ca="1">_xlfn.CONCAT("Today: ", TEXT(TODAY(), "dd-mmm-yy"))</f>
-        <v>Today: 04-Jan-22</v>
+        <v>Today: 12-May-22</v>
       </c>
       <c r="G1" s="2">
         <v>44431</v>
@@ -4372,7 +4371,7 @@
     <row r="2" spans="1:9">
       <c r="A2" s="1">
         <f ca="1">TODAY()</f>
-        <v>44565</v>
+        <v>44693</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4381,7 +4380,7 @@
     <row r="3" spans="1:9">
       <c r="A3" s="1">
         <f ca="1">TODAY()</f>
-        <v>44565</v>
+        <v>44693</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -4420,7 +4419,7 @@
     <row r="10" spans="1:9">
       <c r="A10" s="2">
         <f>Text!K26</f>
-        <v>43898</v>
+        <v>44711</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4429,7 +4428,7 @@
     <row r="11" spans="1:9">
       <c r="A11" s="2">
         <f>Text!K26</f>
-        <v>43898</v>
+        <v>44711</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4447,7 +4446,7 @@
     <row r="14" spans="1:9">
       <c r="A14" s="2">
         <f>Text!K27</f>
-        <v>44606</v>
+        <v>44711</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -4456,7 +4455,7 @@
     <row r="15" spans="1:9">
       <c r="A15" s="2">
         <f>Text!K27</f>
-        <v>44606</v>
+        <v>44711</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -4471,7 +4470,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="2">
         <f>Text!K28</f>
-        <v>44610</v>
+        <v>44742</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4480,7 +4479,7 @@
     <row r="19" spans="1:2">
       <c r="A19" s="2">
         <f>Text!K28</f>
-        <v>44610</v>
+        <v>44742</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -4495,7 +4494,7 @@
     <row r="22" spans="1:2">
       <c r="A22" s="2">
         <f>Text!K29</f>
-        <v>44547</v>
+        <v>44687</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -4504,7 +4503,7 @@
     <row r="23" spans="1:2">
       <c r="A23" s="2">
         <f>Text!K29</f>
-        <v>44547</v>
+        <v>44687</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4519,7 +4518,7 @@
     <row r="26" spans="1:2">
       <c r="A26" s="2">
         <f>Text!K30</f>
-        <v>44613</v>
+        <v>44687</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -4528,7 +4527,7 @@
     <row r="27" spans="1:2">
       <c r="A27" s="2">
         <f>Text!K30</f>
-        <v>44613</v>
+        <v>44687</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4543,7 +4542,7 @@
     <row r="30" spans="1:2">
       <c r="A30" s="2">
         <f>Text!K31</f>
-        <v>44615</v>
+        <v>44728</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4552,7 +4551,7 @@
     <row r="31" spans="1:2">
       <c r="A31" s="2">
         <f>Text!K31</f>
-        <v>44615</v>
+        <v>44728</v>
       </c>
       <c r="B31">
         <v>1</v>
